--- a/Excel reports/x_valid_dataset.xlsx
+++ b/Excel reports/x_valid_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H551"/>
+  <dimension ref="A1:I576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>EMA24</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>APISentiment</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -495,6 +500,9 @@
       <c r="H2" t="n">
         <v>0.704494304468533</v>
       </c>
+      <c r="I2" t="n">
+        <v>0.796</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -521,6 +529,9 @@
       <c r="H3" t="n">
         <v>0.691361869441165</v>
       </c>
+      <c r="I3" t="n">
+        <v>0.796</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -547,6 +558,9 @@
       <c r="H4" t="n">
         <v>0.6860054611786712</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -573,6 +587,9 @@
       <c r="H5" t="n">
         <v>0.6878572257174361</v>
       </c>
+      <c r="I5" t="n">
+        <v>0.9964999999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,6 +616,9 @@
       <c r="H6" t="n">
         <v>0.6716083015933363</v>
       </c>
+      <c r="I6" t="n">
+        <v>0.647</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -625,6 +645,9 @@
       <c r="H7" t="n">
         <v>0.6446186187142425</v>
       </c>
+      <c r="I7" t="n">
+        <v>0.8497142857142858</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -651,6 +674,9 @@
       <c r="H8" t="n">
         <v>0.6290084420492646</v>
       </c>
+      <c r="I8" t="n">
+        <v>0.9419999999999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -677,6 +703,9 @@
       <c r="H9" t="n">
         <v>0.6060775895139948</v>
       </c>
+      <c r="I9" t="n">
+        <v>0.9419999999999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -703,6 +732,9 @@
       <c r="H10" t="n">
         <v>0.5754896809851836</v>
       </c>
+      <c r="I10" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -729,6 +761,9 @@
       <c r="H11" t="n">
         <v>0.5460471116331402</v>
       </c>
+      <c r="I11" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -755,6 +790,9 @@
       <c r="H12" t="n">
         <v>0.5154345266253137</v>
       </c>
+      <c r="I12" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -781,6 +819,9 @@
       <c r="H13" t="n">
         <v>0.4935624722006787</v>
       </c>
+      <c r="I13" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -807,6 +848,9 @@
       <c r="H14" t="n">
         <v>0.4613995094450926</v>
       </c>
+      <c r="I14" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -833,6 +877,9 @@
       <c r="H15" t="n">
         <v>0.4362570391067728</v>
       </c>
+      <c r="I15" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -859,6 +906,9 @@
       <c r="H16" t="n">
         <v>0.4080276590734603</v>
       </c>
+      <c r="I16" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -885,6 +935,9 @@
       <c r="H17" t="n">
         <v>0.4030464617888295</v>
       </c>
+      <c r="I17" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -911,6 +964,9 @@
       <c r="H18" t="n">
         <v>0.4048095225920495</v>
       </c>
+      <c r="I18" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -937,6 +993,9 @@
       <c r="H19" t="n">
         <v>0.3986213671528498</v>
       </c>
+      <c r="I19" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -963,6 +1022,9 @@
       <c r="H20" t="n">
         <v>0.3958570822949494</v>
       </c>
+      <c r="I20" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -989,6 +1051,9 @@
       <c r="H21" t="n">
         <v>0.3964054635944488</v>
       </c>
+      <c r="I21" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1015,6 +1080,9 @@
       <c r="H22" t="n">
         <v>0.402984544082494</v>
       </c>
+      <c r="I22" t="n">
+        <v>0.796</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1041,6 +1109,9 @@
       <c r="H23" t="n">
         <v>0.3989491708773493</v>
       </c>
+      <c r="I23" t="n">
+        <v>0.796</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1067,6 +1138,9 @@
       <c r="H24" t="n">
         <v>0.3971891626144514</v>
       </c>
+      <c r="I24" t="n">
+        <v>0.796</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1093,6 +1167,9 @@
       <c r="H25" t="n">
         <v>0.3982818190686889</v>
       </c>
+      <c r="I25" t="n">
+        <v>0.796</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1119,6 +1196,9 @@
       <c r="H26" t="n">
         <v>0.691361869441165</v>
       </c>
+      <c r="I26" t="n">
+        <v>0.796</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1145,6 +1225,9 @@
       <c r="H27" t="n">
         <v>0.691361869441165</v>
       </c>
+      <c r="I27" t="n">
+        <v>0.796</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1171,6 +1254,9 @@
       <c r="H28" t="n">
         <v>0.6860054611786712</v>
       </c>
+      <c r="I28" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1197,6 +1283,9 @@
       <c r="H29" t="n">
         <v>0.6878572257174361</v>
       </c>
+      <c r="I29" t="n">
+        <v>0.9964999999999999</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1223,6 +1312,9 @@
       <c r="H30" t="n">
         <v>0.6716083015933363</v>
       </c>
+      <c r="I30" t="n">
+        <v>0.647</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1249,6 +1341,9 @@
       <c r="H31" t="n">
         <v>0.6446186187142425</v>
       </c>
+      <c r="I31" t="n">
+        <v>0.8497142857142858</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1275,6 +1370,9 @@
       <c r="H32" t="n">
         <v>0.6290084420492646</v>
       </c>
+      <c r="I32" t="n">
+        <v>0.9419999999999999</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1301,6 +1399,9 @@
       <c r="H33" t="n">
         <v>0.6060775895139948</v>
       </c>
+      <c r="I33" t="n">
+        <v>0.9419999999999999</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1327,6 +1428,9 @@
       <c r="H34" t="n">
         <v>0.5754896809851836</v>
       </c>
+      <c r="I34" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1353,6 +1457,9 @@
       <c r="H35" t="n">
         <v>0.5460471116331402</v>
       </c>
+      <c r="I35" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1379,6 +1486,9 @@
       <c r="H36" t="n">
         <v>0.5154345266253137</v>
       </c>
+      <c r="I36" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1405,6 +1515,9 @@
       <c r="H37" t="n">
         <v>0.4935624722006787</v>
       </c>
+      <c r="I37" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1431,6 +1544,9 @@
       <c r="H38" t="n">
         <v>0.4613995094450926</v>
       </c>
+      <c r="I38" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1457,6 +1573,9 @@
       <c r="H39" t="n">
         <v>0.4362570391067728</v>
       </c>
+      <c r="I39" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1483,6 +1602,9 @@
       <c r="H40" t="n">
         <v>0.4080276590734603</v>
       </c>
+      <c r="I40" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1509,6 +1631,9 @@
       <c r="H41" t="n">
         <v>0.4030464617888295</v>
       </c>
+      <c r="I41" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1535,6 +1660,9 @@
       <c r="H42" t="n">
         <v>0.4048095225920495</v>
       </c>
+      <c r="I42" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1561,6 +1689,9 @@
       <c r="H43" t="n">
         <v>0.3986213671528498</v>
       </c>
+      <c r="I43" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1587,6 +1718,9 @@
       <c r="H44" t="n">
         <v>0.3958570822949494</v>
       </c>
+      <c r="I44" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1613,6 +1747,9 @@
       <c r="H45" t="n">
         <v>0.3964054635944488</v>
       </c>
+      <c r="I45" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1639,6 +1776,9 @@
       <c r="H46" t="n">
         <v>0.402984544082494</v>
       </c>
+      <c r="I46" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1665,6 +1805,9 @@
       <c r="H47" t="n">
         <v>0.3989491708773493</v>
       </c>
+      <c r="I47" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1691,6 +1834,9 @@
       <c r="H48" t="n">
         <v>0.3971891626144514</v>
       </c>
+      <c r="I48" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1717,6 +1863,9 @@
       <c r="H49" t="n">
         <v>0.3982818190686889</v>
       </c>
+      <c r="I49" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1743,6 +1892,9 @@
       <c r="H50" t="n">
         <v>0.4244531684817894</v>
       </c>
+      <c r="I50" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1769,6 +1921,9 @@
       <c r="H51" t="n">
         <v>0.6860054611786712</v>
       </c>
+      <c r="I51" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1795,6 +1950,9 @@
       <c r="H52" t="n">
         <v>0.6860054611786712</v>
       </c>
+      <c r="I52" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1821,6 +1979,9 @@
       <c r="H53" t="n">
         <v>0.6878572257174361</v>
       </c>
+      <c r="I53" t="n">
+        <v>0.9964999999999999</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1847,6 +2008,9 @@
       <c r="H54" t="n">
         <v>0.6716083015933363</v>
       </c>
+      <c r="I54" t="n">
+        <v>0.647</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1873,6 +2037,9 @@
       <c r="H55" t="n">
         <v>0.6446186187142425</v>
       </c>
+      <c r="I55" t="n">
+        <v>0.8497142857142858</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1899,6 +2066,9 @@
       <c r="H56" t="n">
         <v>0.6290084420492646</v>
       </c>
+      <c r="I56" t="n">
+        <v>0.9419999999999999</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1925,6 +2095,9 @@
       <c r="H57" t="n">
         <v>0.6060775895139948</v>
       </c>
+      <c r="I57" t="n">
+        <v>0.9419999999999999</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1951,6 +2124,9 @@
       <c r="H58" t="n">
         <v>0.5754896809851836</v>
       </c>
+      <c r="I58" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1977,6 +2153,9 @@
       <c r="H59" t="n">
         <v>0.5460471116331402</v>
       </c>
+      <c r="I59" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2003,6 +2182,9 @@
       <c r="H60" t="n">
         <v>0.5154345266253137</v>
       </c>
+      <c r="I60" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2029,6 +2211,9 @@
       <c r="H61" t="n">
         <v>0.4935624722006787</v>
       </c>
+      <c r="I61" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2055,6 +2240,9 @@
       <c r="H62" t="n">
         <v>0.4613995094450926</v>
       </c>
+      <c r="I62" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2081,6 +2269,9 @@
       <c r="H63" t="n">
         <v>0.4362570391067728</v>
       </c>
+      <c r="I63" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2107,6 +2298,9 @@
       <c r="H64" t="n">
         <v>0.4080276590734603</v>
       </c>
+      <c r="I64" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2133,6 +2327,9 @@
       <c r="H65" t="n">
         <v>0.4030464617888295</v>
       </c>
+      <c r="I65" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2159,6 +2356,9 @@
       <c r="H66" t="n">
         <v>0.4048095225920495</v>
       </c>
+      <c r="I66" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2185,6 +2385,9 @@
       <c r="H67" t="n">
         <v>0.3986213671528498</v>
       </c>
+      <c r="I67" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2211,6 +2414,9 @@
       <c r="H68" t="n">
         <v>0.3958570822949494</v>
       </c>
+      <c r="I68" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2237,6 +2443,9 @@
       <c r="H69" t="n">
         <v>0.3964054635944488</v>
       </c>
+      <c r="I69" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2263,6 +2472,9 @@
       <c r="H70" t="n">
         <v>0.402984544082494</v>
       </c>
+      <c r="I70" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2289,6 +2501,9 @@
       <c r="H71" t="n">
         <v>0.3989491708773493</v>
       </c>
+      <c r="I71" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2315,6 +2530,9 @@
       <c r="H72" t="n">
         <v>0.3971891626144514</v>
       </c>
+      <c r="I72" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2341,6 +2559,9 @@
       <c r="H73" t="n">
         <v>0.3982818190686889</v>
       </c>
+      <c r="I73" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2367,6 +2588,9 @@
       <c r="H74" t="n">
         <v>0.4244531684817894</v>
       </c>
+      <c r="I74" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2393,6 +2617,9 @@
       <c r="H75" t="n">
         <v>0.4334528420657267</v>
       </c>
+      <c r="I75" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2419,6 +2646,9 @@
       <c r="H76" t="n">
         <v>0.6878572257174361</v>
       </c>
+      <c r="I76" t="n">
+        <v>0.9964999999999999</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2445,6 +2675,9 @@
       <c r="H77" t="n">
         <v>0.6878572257174361</v>
       </c>
+      <c r="I77" t="n">
+        <v>0.9964999999999999</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2471,6 +2704,9 @@
       <c r="H78" t="n">
         <v>0.6716083015933363</v>
       </c>
+      <c r="I78" t="n">
+        <v>0.647</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2497,6 +2733,9 @@
       <c r="H79" t="n">
         <v>0.6446186187142425</v>
       </c>
+      <c r="I79" t="n">
+        <v>0.8497142857142858</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2523,6 +2762,9 @@
       <c r="H80" t="n">
         <v>0.6290084420492646</v>
       </c>
+      <c r="I80" t="n">
+        <v>0.9419999999999999</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2549,6 +2791,9 @@
       <c r="H81" t="n">
         <v>0.6060775895139948</v>
       </c>
+      <c r="I81" t="n">
+        <v>0.9419999999999999</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2575,6 +2820,9 @@
       <c r="H82" t="n">
         <v>0.5754896809851836</v>
       </c>
+      <c r="I82" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2601,6 +2849,9 @@
       <c r="H83" t="n">
         <v>0.5460471116331402</v>
       </c>
+      <c r="I83" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2627,6 +2878,9 @@
       <c r="H84" t="n">
         <v>0.5154345266253137</v>
       </c>
+      <c r="I84" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2653,6 +2907,9 @@
       <c r="H85" t="n">
         <v>0.4935624722006787</v>
       </c>
+      <c r="I85" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2679,6 +2936,9 @@
       <c r="H86" t="n">
         <v>0.4613995094450926</v>
       </c>
+      <c r="I86" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2705,6 +2965,9 @@
       <c r="H87" t="n">
         <v>0.4362570391067728</v>
       </c>
+      <c r="I87" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2731,6 +2994,9 @@
       <c r="H88" t="n">
         <v>0.4080276590734603</v>
       </c>
+      <c r="I88" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2757,6 +3023,9 @@
       <c r="H89" t="n">
         <v>0.4030464617888295</v>
       </c>
+      <c r="I89" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2783,6 +3052,9 @@
       <c r="H90" t="n">
         <v>0.4048095225920495</v>
       </c>
+      <c r="I90" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2809,6 +3081,9 @@
       <c r="H91" t="n">
         <v>0.3986213671528498</v>
       </c>
+      <c r="I91" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2835,6 +3110,9 @@
       <c r="H92" t="n">
         <v>0.3958570822949494</v>
       </c>
+      <c r="I92" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2861,6 +3139,9 @@
       <c r="H93" t="n">
         <v>0.3964054635944488</v>
       </c>
+      <c r="I93" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2887,6 +3168,9 @@
       <c r="H94" t="n">
         <v>0.402984544082494</v>
       </c>
+      <c r="I94" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2913,6 +3197,9 @@
       <c r="H95" t="n">
         <v>0.3989491708773493</v>
       </c>
+      <c r="I95" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2939,6 +3226,9 @@
       <c r="H96" t="n">
         <v>0.3971891626144514</v>
       </c>
+      <c r="I96" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2965,6 +3255,9 @@
       <c r="H97" t="n">
         <v>0.3982818190686889</v>
       </c>
+      <c r="I97" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2991,6 +3284,9 @@
       <c r="H98" t="n">
         <v>0.4244531684817894</v>
       </c>
+      <c r="I98" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3017,6 +3313,9 @@
       <c r="H99" t="n">
         <v>0.4334528420657267</v>
       </c>
+      <c r="I99" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3043,6 +3342,9 @@
       <c r="H100" t="n">
         <v>0.4578952490545413</v>
       </c>
+      <c r="I100" t="n">
+        <v>0.9913333333333334</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3069,6 +3371,9 @@
       <c r="H101" t="n">
         <v>0.6716083015933363</v>
       </c>
+      <c r="I101" t="n">
+        <v>0.647</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3095,6 +3400,9 @@
       <c r="H102" t="n">
         <v>0.6716083015933363</v>
       </c>
+      <c r="I102" t="n">
+        <v>0.647</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3121,6 +3429,9 @@
       <c r="H103" t="n">
         <v>0.6446186187142425</v>
       </c>
+      <c r="I103" t="n">
+        <v>0.8497142857142858</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3147,6 +3458,9 @@
       <c r="H104" t="n">
         <v>0.6290084420492646</v>
       </c>
+      <c r="I104" t="n">
+        <v>0.9419999999999999</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3173,6 +3487,9 @@
       <c r="H105" t="n">
         <v>0.6060775895139948</v>
       </c>
+      <c r="I105" t="n">
+        <v>0.9419999999999999</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3199,6 +3516,9 @@
       <c r="H106" t="n">
         <v>0.5754896809851836</v>
       </c>
+      <c r="I106" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3225,6 +3545,9 @@
       <c r="H107" t="n">
         <v>0.5460471116331402</v>
       </c>
+      <c r="I107" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3251,6 +3574,9 @@
       <c r="H108" t="n">
         <v>0.5154345266253137</v>
       </c>
+      <c r="I108" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3277,6 +3603,9 @@
       <c r="H109" t="n">
         <v>0.4935624722006787</v>
       </c>
+      <c r="I109" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3303,6 +3632,9 @@
       <c r="H110" t="n">
         <v>0.4613995094450926</v>
       </c>
+      <c r="I110" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3329,6 +3661,9 @@
       <c r="H111" t="n">
         <v>0.4362570391067728</v>
       </c>
+      <c r="I111" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3355,6 +3690,9 @@
       <c r="H112" t="n">
         <v>0.4080276590734603</v>
       </c>
+      <c r="I112" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3381,6 +3719,9 @@
       <c r="H113" t="n">
         <v>0.4030464617888295</v>
       </c>
+      <c r="I113" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3407,6 +3748,9 @@
       <c r="H114" t="n">
         <v>0.4048095225920495</v>
       </c>
+      <c r="I114" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3433,6 +3777,9 @@
       <c r="H115" t="n">
         <v>0.3986213671528498</v>
       </c>
+      <c r="I115" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3459,6 +3806,9 @@
       <c r="H116" t="n">
         <v>0.3958570822949494</v>
       </c>
+      <c r="I116" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3485,6 +3835,9 @@
       <c r="H117" t="n">
         <v>0.3964054635944488</v>
       </c>
+      <c r="I117" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3511,6 +3864,9 @@
       <c r="H118" t="n">
         <v>0.402984544082494</v>
       </c>
+      <c r="I118" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3537,6 +3893,9 @@
       <c r="H119" t="n">
         <v>0.3989491708773493</v>
       </c>
+      <c r="I119" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3563,6 +3922,9 @@
       <c r="H120" t="n">
         <v>0.3971891626144514</v>
       </c>
+      <c r="I120" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3589,6 +3951,9 @@
       <c r="H121" t="n">
         <v>0.3982818190686889</v>
       </c>
+      <c r="I121" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3615,6 +3980,9 @@
       <c r="H122" t="n">
         <v>0.4244531684817894</v>
       </c>
+      <c r="I122" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3641,6 +4009,9 @@
       <c r="H123" t="n">
         <v>0.4334528420657267</v>
       </c>
+      <c r="I123" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3667,6 +4038,9 @@
       <c r="H124" t="n">
         <v>0.4578952490545413</v>
       </c>
+      <c r="I124" t="n">
+        <v>0.9913333333333334</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3693,6 +4067,9 @@
       <c r="H125" t="n">
         <v>0.4828229452727206</v>
       </c>
+      <c r="I125" t="n">
+        <v>0.8398571428571427</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3719,6 +4096,9 @@
       <c r="H126" t="n">
         <v>0.6446186187142425</v>
       </c>
+      <c r="I126" t="n">
+        <v>0.8497142857142858</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3745,6 +4125,9 @@
       <c r="H127" t="n">
         <v>0.6446186187142425</v>
       </c>
+      <c r="I127" t="n">
+        <v>0.8497142857142858</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3771,6 +4154,9 @@
       <c r="H128" t="n">
         <v>0.6290084420492646</v>
       </c>
+      <c r="I128" t="n">
+        <v>0.9419999999999999</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3797,6 +4183,9 @@
       <c r="H129" t="n">
         <v>0.6060775895139948</v>
       </c>
+      <c r="I129" t="n">
+        <v>0.9419999999999999</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3823,6 +4212,9 @@
       <c r="H130" t="n">
         <v>0.5754896809851836</v>
       </c>
+      <c r="I130" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3849,6 +4241,9 @@
       <c r="H131" t="n">
         <v>0.5460471116331402</v>
       </c>
+      <c r="I131" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3875,6 +4270,9 @@
       <c r="H132" t="n">
         <v>0.5154345266253137</v>
       </c>
+      <c r="I132" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3901,6 +4299,9 @@
       <c r="H133" t="n">
         <v>0.4935624722006787</v>
       </c>
+      <c r="I133" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3927,6 +4328,9 @@
       <c r="H134" t="n">
         <v>0.4613995094450926</v>
       </c>
+      <c r="I134" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3953,6 +4357,9 @@
       <c r="H135" t="n">
         <v>0.4362570391067728</v>
       </c>
+      <c r="I135" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3979,6 +4386,9 @@
       <c r="H136" t="n">
         <v>0.4080276590734603</v>
       </c>
+      <c r="I136" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4005,6 +4415,9 @@
       <c r="H137" t="n">
         <v>0.4030464617888295</v>
       </c>
+      <c r="I137" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4031,6 +4444,9 @@
       <c r="H138" t="n">
         <v>0.4048095225920495</v>
       </c>
+      <c r="I138" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4057,6 +4473,9 @@
       <c r="H139" t="n">
         <v>0.3986213671528498</v>
       </c>
+      <c r="I139" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -4083,6 +4502,9 @@
       <c r="H140" t="n">
         <v>0.3958570822949494</v>
       </c>
+      <c r="I140" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -4109,6 +4531,9 @@
       <c r="H141" t="n">
         <v>0.3964054635944488</v>
       </c>
+      <c r="I141" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -4135,6 +4560,9 @@
       <c r="H142" t="n">
         <v>0.402984544082494</v>
       </c>
+      <c r="I142" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4161,6 +4589,9 @@
       <c r="H143" t="n">
         <v>0.3989491708773493</v>
       </c>
+      <c r="I143" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4187,6 +4618,9 @@
       <c r="H144" t="n">
         <v>0.3971891626144514</v>
       </c>
+      <c r="I144" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4213,6 +4647,9 @@
       <c r="H145" t="n">
         <v>0.3982818190686889</v>
       </c>
+      <c r="I145" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4239,6 +4676,9 @@
       <c r="H146" t="n">
         <v>0.4244531684817894</v>
       </c>
+      <c r="I146" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4265,6 +4705,9 @@
       <c r="H147" t="n">
         <v>0.4334528420657267</v>
       </c>
+      <c r="I147" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4291,6 +4734,9 @@
       <c r="H148" t="n">
         <v>0.4578952490545413</v>
       </c>
+      <c r="I148" t="n">
+        <v>0.9913333333333334</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4317,6 +4763,9 @@
       <c r="H149" t="n">
         <v>0.4828229452727206</v>
       </c>
+      <c r="I149" t="n">
+        <v>0.8398571428571427</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4343,6 +4792,9 @@
       <c r="H150" t="n">
         <v>0.5122106547986152</v>
       </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4369,6 +4821,9 @@
       <c r="H151" t="n">
         <v>0.6290084420492646</v>
       </c>
+      <c r="I151" t="n">
+        <v>0.9419999999999999</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4395,6 +4850,9 @@
       <c r="H152" t="n">
         <v>0.6290084420492646</v>
       </c>
+      <c r="I152" t="n">
+        <v>0.9419999999999999</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4421,6 +4879,9 @@
       <c r="H153" t="n">
         <v>0.6060775895139948</v>
       </c>
+      <c r="I153" t="n">
+        <v>0.9419999999999999</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4447,6 +4908,9 @@
       <c r="H154" t="n">
         <v>0.5754896809851836</v>
       </c>
+      <c r="I154" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4473,6 +4937,9 @@
       <c r="H155" t="n">
         <v>0.5460471116331402</v>
       </c>
+      <c r="I155" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4499,6 +4966,9 @@
       <c r="H156" t="n">
         <v>0.5154345266253137</v>
       </c>
+      <c r="I156" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4525,6 +4995,9 @@
       <c r="H157" t="n">
         <v>0.4935624722006787</v>
       </c>
+      <c r="I157" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4551,6 +5024,9 @@
       <c r="H158" t="n">
         <v>0.4613995094450926</v>
       </c>
+      <c r="I158" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4577,6 +5053,9 @@
       <c r="H159" t="n">
         <v>0.4362570391067728</v>
       </c>
+      <c r="I159" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4603,6 +5082,9 @@
       <c r="H160" t="n">
         <v>0.4080276590734603</v>
       </c>
+      <c r="I160" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4629,6 +5111,9 @@
       <c r="H161" t="n">
         <v>0.4030464617888295</v>
       </c>
+      <c r="I161" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4655,6 +5140,9 @@
       <c r="H162" t="n">
         <v>0.4048095225920495</v>
       </c>
+      <c r="I162" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4681,6 +5169,9 @@
       <c r="H163" t="n">
         <v>0.3986213671528498</v>
       </c>
+      <c r="I163" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4707,6 +5198,9 @@
       <c r="H164" t="n">
         <v>0.3958570822949494</v>
       </c>
+      <c r="I164" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4733,6 +5227,9 @@
       <c r="H165" t="n">
         <v>0.3964054635944488</v>
       </c>
+      <c r="I165" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4759,6 +5256,9 @@
       <c r="H166" t="n">
         <v>0.402984544082494</v>
       </c>
+      <c r="I166" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4785,6 +5285,9 @@
       <c r="H167" t="n">
         <v>0.3989491708773493</v>
       </c>
+      <c r="I167" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4811,6 +5314,9 @@
       <c r="H168" t="n">
         <v>0.3971891626144514</v>
       </c>
+      <c r="I168" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4837,6 +5343,9 @@
       <c r="H169" t="n">
         <v>0.3982818190686889</v>
       </c>
+      <c r="I169" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4863,6 +5372,9 @@
       <c r="H170" t="n">
         <v>0.4244531684817894</v>
       </c>
+      <c r="I170" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4889,6 +5401,9 @@
       <c r="H171" t="n">
         <v>0.4334528420657267</v>
       </c>
+      <c r="I171" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4915,6 +5430,9 @@
       <c r="H172" t="n">
         <v>0.4578952490545413</v>
       </c>
+      <c r="I172" t="n">
+        <v>0.9913333333333334</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4941,6 +5459,9 @@
       <c r="H173" t="n">
         <v>0.4828229452727206</v>
       </c>
+      <c r="I173" t="n">
+        <v>0.8398571428571427</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4967,6 +5488,9 @@
       <c r="H174" t="n">
         <v>0.5122106547986152</v>
       </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4993,6 +5517,9 @@
       <c r="H175" t="n">
         <v>0.5391931193848636</v>
       </c>
+      <c r="I175" t="n">
+        <v>0.9419999999999999</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -5019,6 +5546,9 @@
       <c r="H176" t="n">
         <v>0.6060775895139948</v>
       </c>
+      <c r="I176" t="n">
+        <v>0.9419999999999999</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -5045,6 +5575,9 @@
       <c r="H177" t="n">
         <v>0.6060775895139948</v>
       </c>
+      <c r="I177" t="n">
+        <v>0.9419999999999999</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -5071,6 +5604,9 @@
       <c r="H178" t="n">
         <v>0.5754896809851836</v>
       </c>
+      <c r="I178" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -5097,6 +5633,9 @@
       <c r="H179" t="n">
         <v>0.5460471116331402</v>
       </c>
+      <c r="I179" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -5123,6 +5662,9 @@
       <c r="H180" t="n">
         <v>0.5154345266253137</v>
       </c>
+      <c r="I180" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -5149,6 +5691,9 @@
       <c r="H181" t="n">
         <v>0.4935624722006787</v>
       </c>
+      <c r="I181" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -5175,6 +5720,9 @@
       <c r="H182" t="n">
         <v>0.4613995094450926</v>
       </c>
+      <c r="I182" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5201,6 +5749,9 @@
       <c r="H183" t="n">
         <v>0.4362570391067728</v>
       </c>
+      <c r="I183" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5227,6 +5778,9 @@
       <c r="H184" t="n">
         <v>0.4080276590734603</v>
       </c>
+      <c r="I184" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5253,6 +5807,9 @@
       <c r="H185" t="n">
         <v>0.4030464617888295</v>
       </c>
+      <c r="I185" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -5279,6 +5836,9 @@
       <c r="H186" t="n">
         <v>0.4048095225920495</v>
       </c>
+      <c r="I186" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -5305,6 +5865,9 @@
       <c r="H187" t="n">
         <v>0.3986213671528498</v>
       </c>
+      <c r="I187" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -5331,6 +5894,9 @@
       <c r="H188" t="n">
         <v>0.3958570822949494</v>
       </c>
+      <c r="I188" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -5357,6 +5923,9 @@
       <c r="H189" t="n">
         <v>0.3964054635944488</v>
       </c>
+      <c r="I189" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -5383,6 +5952,9 @@
       <c r="H190" t="n">
         <v>0.402984544082494</v>
       </c>
+      <c r="I190" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -5409,6 +5981,9 @@
       <c r="H191" t="n">
         <v>0.3989491708773493</v>
       </c>
+      <c r="I191" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -5435,6 +6010,9 @@
       <c r="H192" t="n">
         <v>0.3971891626144514</v>
       </c>
+      <c r="I192" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -5461,6 +6039,9 @@
       <c r="H193" t="n">
         <v>0.3982818190686889</v>
       </c>
+      <c r="I193" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -5487,6 +6068,9 @@
       <c r="H194" t="n">
         <v>0.4244531684817894</v>
       </c>
+      <c r="I194" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -5513,6 +6097,9 @@
       <c r="H195" t="n">
         <v>0.4334528420657267</v>
       </c>
+      <c r="I195" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -5539,6 +6126,9 @@
       <c r="H196" t="n">
         <v>0.4578952490545413</v>
       </c>
+      <c r="I196" t="n">
+        <v>0.9913333333333334</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -5565,6 +6155,9 @@
       <c r="H197" t="n">
         <v>0.4828229452727206</v>
       </c>
+      <c r="I197" t="n">
+        <v>0.8398571428571427</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -5591,6 +6184,9 @@
       <c r="H198" t="n">
         <v>0.5122106547986152</v>
       </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -5617,6 +6213,9 @@
       <c r="H199" t="n">
         <v>0.5391931193848636</v>
       </c>
+      <c r="I199" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -5643,6 +6242,9 @@
       <c r="H200" t="n">
         <v>0.5399356310894279</v>
       </c>
+      <c r="I200" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -5669,6 +6271,9 @@
       <c r="H201" t="n">
         <v>0.5754896809851836</v>
       </c>
+      <c r="I201" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -5695,6 +6300,9 @@
       <c r="H202" t="n">
         <v>0.5754896809851836</v>
       </c>
+      <c r="I202" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -5721,6 +6329,9 @@
       <c r="H203" t="n">
         <v>0.5460471116331402</v>
       </c>
+      <c r="I203" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -5747,6 +6358,9 @@
       <c r="H204" t="n">
         <v>0.5154345266253137</v>
       </c>
+      <c r="I204" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -5773,6 +6387,9 @@
       <c r="H205" t="n">
         <v>0.4935624722006787</v>
       </c>
+      <c r="I205" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -5799,6 +6416,9 @@
       <c r="H206" t="n">
         <v>0.4613995094450926</v>
       </c>
+      <c r="I206" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5825,6 +6445,9 @@
       <c r="H207" t="n">
         <v>0.4362570391067728</v>
       </c>
+      <c r="I207" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -5851,6 +6474,9 @@
       <c r="H208" t="n">
         <v>0.4080276590734603</v>
       </c>
+      <c r="I208" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -5877,6 +6503,9 @@
       <c r="H209" t="n">
         <v>0.4030464617888295</v>
       </c>
+      <c r="I209" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -5903,6 +6532,9 @@
       <c r="H210" t="n">
         <v>0.4048095225920495</v>
       </c>
+      <c r="I210" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5929,6 +6561,9 @@
       <c r="H211" t="n">
         <v>0.3986213671528498</v>
       </c>
+      <c r="I211" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5955,6 +6590,9 @@
       <c r="H212" t="n">
         <v>0.3958570822949494</v>
       </c>
+      <c r="I212" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5981,6 +6619,9 @@
       <c r="H213" t="n">
         <v>0.3964054635944488</v>
       </c>
+      <c r="I213" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -6007,6 +6648,9 @@
       <c r="H214" t="n">
         <v>0.402984544082494</v>
       </c>
+      <c r="I214" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -6033,6 +6677,9 @@
       <c r="H215" t="n">
         <v>0.3989491708773493</v>
       </c>
+      <c r="I215" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -6059,6 +6706,9 @@
       <c r="H216" t="n">
         <v>0.3971891626144514</v>
       </c>
+      <c r="I216" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -6085,6 +6735,9 @@
       <c r="H217" t="n">
         <v>0.3982818190686889</v>
       </c>
+      <c r="I217" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -6111,6 +6764,9 @@
       <c r="H218" t="n">
         <v>0.4244531684817894</v>
       </c>
+      <c r="I218" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -6137,6 +6793,9 @@
       <c r="H219" t="n">
         <v>0.4334528420657267</v>
       </c>
+      <c r="I219" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -6163,6 +6822,9 @@
       <c r="H220" t="n">
         <v>0.4578952490545413</v>
       </c>
+      <c r="I220" t="n">
+        <v>0.9913333333333334</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -6189,6 +6851,9 @@
       <c r="H221" t="n">
         <v>0.4828229452727206</v>
       </c>
+      <c r="I221" t="n">
+        <v>0.8398571428571427</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -6215,6 +6880,9 @@
       <c r="H222" t="n">
         <v>0.5122106547986152</v>
       </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -6241,6 +6909,9 @@
       <c r="H223" t="n">
         <v>0.5391931193848636</v>
       </c>
+      <c r="I223" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -6267,6 +6938,9 @@
       <c r="H224" t="n">
         <v>0.5399356310894279</v>
       </c>
+      <c r="I224" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -6293,6 +6967,9 @@
       <c r="H225" t="n">
         <v>0.5234255233281317</v>
       </c>
+      <c r="I225" t="n">
+        <v>0.7844285714285714</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -6319,6 +6996,9 @@
       <c r="H226" t="n">
         <v>0.5460471116331402</v>
       </c>
+      <c r="I226" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -6345,6 +7025,9 @@
       <c r="H227" t="n">
         <v>0.5460471116331402</v>
       </c>
+      <c r="I227" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -6371,6 +7054,9 @@
       <c r="H228" t="n">
         <v>0.5154345266253137</v>
       </c>
+      <c r="I228" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -6397,6 +7083,9 @@
       <c r="H229" t="n">
         <v>0.4935624722006787</v>
       </c>
+      <c r="I229" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -6423,6 +7112,9 @@
       <c r="H230" t="n">
         <v>0.4613995094450926</v>
       </c>
+      <c r="I230" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -6449,6 +7141,9 @@
       <c r="H231" t="n">
         <v>0.4362570391067728</v>
       </c>
+      <c r="I231" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -6475,6 +7170,9 @@
       <c r="H232" t="n">
         <v>0.4080276590734603</v>
       </c>
+      <c r="I232" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -6501,6 +7199,9 @@
       <c r="H233" t="n">
         <v>0.4030464617888295</v>
       </c>
+      <c r="I233" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -6527,6 +7228,9 @@
       <c r="H234" t="n">
         <v>0.4048095225920495</v>
       </c>
+      <c r="I234" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -6553,6 +7257,9 @@
       <c r="H235" t="n">
         <v>0.3986213671528498</v>
       </c>
+      <c r="I235" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -6579,6 +7286,9 @@
       <c r="H236" t="n">
         <v>0.3958570822949494</v>
       </c>
+      <c r="I236" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -6605,6 +7315,9 @@
       <c r="H237" t="n">
         <v>0.3964054635944488</v>
       </c>
+      <c r="I237" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -6631,6 +7344,9 @@
       <c r="H238" t="n">
         <v>0.402984544082494</v>
       </c>
+      <c r="I238" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -6657,6 +7373,9 @@
       <c r="H239" t="n">
         <v>0.3989491708773493</v>
       </c>
+      <c r="I239" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -6683,6 +7402,9 @@
       <c r="H240" t="n">
         <v>0.3971891626144514</v>
       </c>
+      <c r="I240" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -6709,6 +7431,9 @@
       <c r="H241" t="n">
         <v>0.3982818190686889</v>
       </c>
+      <c r="I241" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -6735,6 +7460,9 @@
       <c r="H242" t="n">
         <v>0.4244531684817894</v>
       </c>
+      <c r="I242" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -6761,6 +7489,9 @@
       <c r="H243" t="n">
         <v>0.4334528420657267</v>
       </c>
+      <c r="I243" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -6787,6 +7518,9 @@
       <c r="H244" t="n">
         <v>0.4578952490545413</v>
       </c>
+      <c r="I244" t="n">
+        <v>0.9913333333333334</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -6813,6 +7547,9 @@
       <c r="H245" t="n">
         <v>0.4828229452727206</v>
       </c>
+      <c r="I245" t="n">
+        <v>0.8398571428571427</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -6839,6 +7576,9 @@
       <c r="H246" t="n">
         <v>0.5122106547986152</v>
       </c>
+      <c r="I246" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -6865,6 +7605,9 @@
       <c r="H247" t="n">
         <v>0.5391931193848636</v>
       </c>
+      <c r="I247" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -6891,6 +7634,9 @@
       <c r="H248" t="n">
         <v>0.5399356310894279</v>
       </c>
+      <c r="I248" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -6917,6 +7663,9 @@
       <c r="H249" t="n">
         <v>0.5234255233281317</v>
       </c>
+      <c r="I249" t="n">
+        <v>0.7844285714285714</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -6943,6 +7692,9 @@
       <c r="H250" t="n">
         <v>0.5162091007885057</v>
       </c>
+      <c r="I250" t="n">
+        <v>0.8545</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -6969,6 +7721,9 @@
       <c r="H251" t="n">
         <v>0.5154345266253137</v>
       </c>
+      <c r="I251" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -6995,6 +7750,9 @@
       <c r="H252" t="n">
         <v>0.5154345266253137</v>
       </c>
+      <c r="I252" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -7021,6 +7779,9 @@
       <c r="H253" t="n">
         <v>0.4935624722006787</v>
       </c>
+      <c r="I253" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -7047,6 +7808,9 @@
       <c r="H254" t="n">
         <v>0.4613995094450926</v>
       </c>
+      <c r="I254" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -7073,6 +7837,9 @@
       <c r="H255" t="n">
         <v>0.4362570391067728</v>
       </c>
+      <c r="I255" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -7099,6 +7866,9 @@
       <c r="H256" t="n">
         <v>0.4080276590734603</v>
       </c>
+      <c r="I256" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -7125,6 +7895,9 @@
       <c r="H257" t="n">
         <v>0.4030464617888295</v>
       </c>
+      <c r="I257" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -7151,6 +7924,9 @@
       <c r="H258" t="n">
         <v>0.4048095225920495</v>
       </c>
+      <c r="I258" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -7177,6 +7953,9 @@
       <c r="H259" t="n">
         <v>0.3986213671528498</v>
       </c>
+      <c r="I259" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -7203,6 +7982,9 @@
       <c r="H260" t="n">
         <v>0.3958570822949494</v>
       </c>
+      <c r="I260" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -7229,6 +8011,9 @@
       <c r="H261" t="n">
         <v>0.3964054635944488</v>
       </c>
+      <c r="I261" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -7255,6 +8040,9 @@
       <c r="H262" t="n">
         <v>0.402984544082494</v>
       </c>
+      <c r="I262" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -7281,6 +8069,9 @@
       <c r="H263" t="n">
         <v>0.3989491708773493</v>
       </c>
+      <c r="I263" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -7307,6 +8098,9 @@
       <c r="H264" t="n">
         <v>0.3971891626144514</v>
       </c>
+      <c r="I264" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -7333,6 +8127,9 @@
       <c r="H265" t="n">
         <v>0.3982818190686889</v>
       </c>
+      <c r="I265" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -7359,6 +8156,9 @@
       <c r="H266" t="n">
         <v>0.4244531684817894</v>
       </c>
+      <c r="I266" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -7385,6 +8185,9 @@
       <c r="H267" t="n">
         <v>0.4334528420657267</v>
       </c>
+      <c r="I267" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -7411,6 +8214,9 @@
       <c r="H268" t="n">
         <v>0.4578952490545413</v>
       </c>
+      <c r="I268" t="n">
+        <v>0.9913333333333334</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -7437,6 +8243,9 @@
       <c r="H269" t="n">
         <v>0.4828229452727206</v>
       </c>
+      <c r="I269" t="n">
+        <v>0.8398571428571427</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -7463,6 +8272,9 @@
       <c r="H270" t="n">
         <v>0.5122106547986152</v>
       </c>
+      <c r="I270" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -7489,6 +8301,9 @@
       <c r="H271" t="n">
         <v>0.5391931193848636</v>
       </c>
+      <c r="I271" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -7515,6 +8330,9 @@
       <c r="H272" t="n">
         <v>0.5399356310894279</v>
       </c>
+      <c r="I272" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -7541,6 +8359,9 @@
       <c r="H273" t="n">
         <v>0.5234255233281317</v>
       </c>
+      <c r="I273" t="n">
+        <v>0.7844285714285714</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -7567,6 +8388,9 @@
       <c r="H274" t="n">
         <v>0.5162091007885057</v>
       </c>
+      <c r="I274" t="n">
+        <v>0.8545</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -7593,6 +8417,9 @@
       <c r="H275" t="n">
         <v>0.4872784765454366</v>
       </c>
+      <c r="I275" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -7619,6 +8446,9 @@
       <c r="H276" t="n">
         <v>0.4935624722006787</v>
       </c>
+      <c r="I276" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -7645,6 +8475,9 @@
       <c r="H277" t="n">
         <v>0.526918678412031</v>
       </c>
+      <c r="I277" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -7671,6 +8504,9 @@
       <c r="H278" t="n">
         <v>0.4968741100469737</v>
       </c>
+      <c r="I278" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -7697,6 +8533,9 @@
       <c r="H279" t="n">
         <v>0.4733876335464569</v>
       </c>
+      <c r="I279" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -7723,6 +8562,9 @@
       <c r="H280" t="n">
         <v>0.4470175648199142</v>
       </c>
+      <c r="I280" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -7749,6 +8591,9 @@
       <c r="H281" t="n">
         <v>0.4423644511283922</v>
       </c>
+      <c r="I281" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -7775,6 +8620,9 @@
       <c r="H282" t="n">
         <v>0.444011388981619</v>
       </c>
+      <c r="I282" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -7801,6 +8649,9 @@
       <c r="H283" t="n">
         <v>0.4382308127156981</v>
       </c>
+      <c r="I283" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -7827,6 +8678,9 @@
       <c r="H284" t="n">
         <v>0.4356485958339758</v>
       </c>
+      <c r="I284" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -7853,6 +8707,9 @@
       <c r="H285" t="n">
         <v>0.4361608583257162</v>
       </c>
+      <c r="I285" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -7879,6 +8736,9 @@
       <c r="H286" t="n">
         <v>0.4423066115949157</v>
       </c>
+      <c r="I286" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -7905,6 +8765,9 @@
       <c r="H287" t="n">
         <v>0.4385370258430735</v>
       </c>
+      <c r="I287" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -7931,6 +8794,9 @@
       <c r="H288" t="n">
         <v>0.4368929394764182</v>
       </c>
+      <c r="I288" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -7957,6 +8823,9 @@
       <c r="H289" t="n">
         <v>0.4379136287639173</v>
       </c>
+      <c r="I289" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -7983,6 +8852,9 @@
       <c r="H290" t="n">
         <v>0.4623612178315983</v>
       </c>
+      <c r="I290" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -8009,6 +8881,9 @@
       <c r="H291" t="n">
         <v>0.470768133273766</v>
       </c>
+      <c r="I291" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -8035,6 +8910,9 @@
       <c r="H292" t="n">
         <v>0.4936006556804418</v>
       </c>
+      <c r="I292" t="n">
+        <v>0.9913333333333334</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -8061,6 +8939,9 @@
       <c r="H293" t="n">
         <v>0.5168865040303544</v>
       </c>
+      <c r="I293" t="n">
+        <v>0.8398571428571427</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -8087,6 +8968,9 @@
       <c r="H294" t="n">
         <v>0.5443386095671752</v>
       </c>
+      <c r="I294" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -8113,6 +8997,9 @@
       <c r="H295" t="n">
         <v>0.5695438901901014</v>
       </c>
+      <c r="I295" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -8139,6 +9026,9 @@
       <c r="H296" t="n">
         <v>0.5702374968033717</v>
       </c>
+      <c r="I296" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -8165,6 +9055,9 @@
       <c r="H297" t="n">
         <v>0.5548148174588647</v>
       </c>
+      <c r="I297" t="n">
+        <v>0.7844285714285714</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -8191,6 +9084,9 @@
       <c r="H298" t="n">
         <v>0.5480737002928077</v>
       </c>
+      <c r="I298" t="n">
+        <v>0.8545</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -8217,6 +9113,9 @@
       <c r="H299" t="n">
         <v>0.5210485743888296</v>
       </c>
+      <c r="I299" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -8243,6 +9142,9 @@
       <c r="H300" t="n">
         <v>0.5020625948720712</v>
       </c>
+      <c r="I300" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -8269,6 +9171,9 @@
       <c r="H301" t="n">
         <v>0.4968741100469737</v>
       </c>
+      <c r="I301" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -8295,6 +9200,9 @@
       <c r="H302" t="n">
         <v>0.5439519312085289</v>
       </c>
+      <c r="I302" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -8321,6 +9229,9 @@
       <c r="H303" t="n">
         <v>0.5226630997954267</v>
       </c>
+      <c r="I303" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -8347,6 +9258,9 @@
       <c r="H304" t="n">
         <v>0.4987604957816261</v>
       </c>
+      <c r="I304" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -8373,6 +9287,9 @@
       <c r="H305" t="n">
         <v>0.4945427770053495</v>
       </c>
+      <c r="I305" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -8399,6 +9316,9 @@
       <c r="H306" t="n">
         <v>0.4960356097980602</v>
       </c>
+      <c r="I306" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -8425,6 +9345,9 @@
       <c r="H307" t="n">
         <v>0.4907959258636454</v>
       </c>
+      <c r="I307" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -8451,6 +9374,9 @@
       <c r="H308" t="n">
         <v>0.4884553287176307</v>
       </c>
+      <c r="I308" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -8477,6 +9403,9 @@
       <c r="H309" t="n">
         <v>0.4889196584703578</v>
       </c>
+      <c r="I309" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -8503,6 +9432,9 @@
       <c r="H310" t="n">
         <v>0.4944903495551458</v>
       </c>
+      <c r="I310" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -8529,6 +9461,9 @@
       <c r="H311" t="n">
         <v>0.4910734864268499</v>
       </c>
+      <c r="I311" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -8555,6 +9490,9 @@
       <c r="H312" t="n">
         <v>0.4895832383052326</v>
       </c>
+      <c r="I312" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -8581,6 +9519,9 @@
       <c r="H313" t="n">
         <v>0.4905084210233066</v>
       </c>
+      <c r="I313" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -8607,6 +9548,9 @@
       <c r="H314" t="n">
         <v>0.5126684330671399</v>
       </c>
+      <c r="I314" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -8633,6 +9577,9 @@
       <c r="H315" t="n">
         <v>0.5202887078899119</v>
       </c>
+      <c r="I315" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -8659,6 +9606,9 @@
       <c r="H316" t="n">
         <v>0.5409847761247917</v>
       </c>
+      <c r="I316" t="n">
+        <v>0.9913333333333334</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -8685,6 +9635,9 @@
       <c r="H317" t="n">
         <v>0.5620917522955871</v>
       </c>
+      <c r="I317" t="n">
+        <v>0.8398571428571427</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -8711,6 +9664,9 @@
       <c r="H318" t="n">
         <v>0.5869751462220965</v>
       </c>
+      <c r="I318" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -8737,6 +9693,9 @@
       <c r="H319" t="n">
         <v>0.6098219521229135</v>
       </c>
+      <c r="I319" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -8763,6 +9722,9 @@
       <c r="H320" t="n">
         <v>0.6104506575081847</v>
       </c>
+      <c r="I320" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -8789,6 +9751,9 @@
       <c r="H321" t="n">
         <v>0.5964710884359011</v>
       </c>
+      <c r="I321" t="n">
+        <v>0.7844285714285714</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -8815,6 +9780,9 @@
       <c r="H322" t="n">
         <v>0.5903607420465226</v>
       </c>
+      <c r="I322" t="n">
+        <v>0.8545</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -8841,6 +9809,9 @@
       <c r="H323" t="n">
         <v>0.5658643749871644</v>
       </c>
+      <c r="I323" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -8867,6 +9838,9 @@
       <c r="H324" t="n">
         <v>0.548654926088519</v>
       </c>
+      <c r="I324" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -8893,6 +9867,9 @@
       <c r="H325" t="n">
         <v>0.5468750419077146</v>
       </c>
+      <c r="I325" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -8919,6 +9896,9 @@
       <c r="H326" t="n">
         <v>0.5226630997954267</v>
       </c>
+      <c r="I326" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -8945,6 +9925,9 @@
       <c r="H327" t="n">
         <v>0.5226630997954267</v>
       </c>
+      <c r="I327" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -8971,6 +9954,9 @@
       <c r="H328" t="n">
         <v>0.4987604957816261</v>
       </c>
+      <c r="I328" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -8997,6 +9983,9 @@
       <c r="H329" t="n">
         <v>0.4945427770053495</v>
       </c>
+      <c r="I329" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -9023,6 +10012,9 @@
       <c r="H330" t="n">
         <v>0.4960356097980602</v>
       </c>
+      <c r="I330" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -9049,6 +10041,9 @@
       <c r="H331" t="n">
         <v>0.4907959258636454</v>
       </c>
+      <c r="I331" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -9075,6 +10070,9 @@
       <c r="H332" t="n">
         <v>0.4884553287176307</v>
       </c>
+      <c r="I332" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -9101,6 +10099,9 @@
       <c r="H333" t="n">
         <v>0.4889196584703578</v>
       </c>
+      <c r="I333" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -9127,6 +10128,9 @@
       <c r="H334" t="n">
         <v>0.4944903495551458</v>
       </c>
+      <c r="I334" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -9153,6 +10157,9 @@
       <c r="H335" t="n">
         <v>0.4910734864268499</v>
       </c>
+      <c r="I335" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -9179,6 +10186,9 @@
       <c r="H336" t="n">
         <v>0.4895832383052326</v>
       </c>
+      <c r="I336" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -9205,6 +10215,9 @@
       <c r="H337" t="n">
         <v>0.4905084210233066</v>
       </c>
+      <c r="I337" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -9231,6 +10244,9 @@
       <c r="H338" t="n">
         <v>0.5126684330671399</v>
       </c>
+      <c r="I338" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -9257,6 +10273,9 @@
       <c r="H339" t="n">
         <v>0.5202887078899119</v>
       </c>
+      <c r="I339" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -9283,6 +10302,9 @@
       <c r="H340" t="n">
         <v>0.5409847761247917</v>
       </c>
+      <c r="I340" t="n">
+        <v>0.9913333333333334</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -9309,6 +10331,9 @@
       <c r="H341" t="n">
         <v>0.5620917522955871</v>
       </c>
+      <c r="I341" t="n">
+        <v>0.8398571428571427</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -9335,6 +10360,9 @@
       <c r="H342" t="n">
         <v>0.5869751462220965</v>
       </c>
+      <c r="I342" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -9361,6 +10389,9 @@
       <c r="H343" t="n">
         <v>0.6098219521229135</v>
       </c>
+      <c r="I343" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -9387,6 +10418,9 @@
       <c r="H344" t="n">
         <v>0.6104506575081847</v>
       </c>
+      <c r="I344" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -9413,6 +10447,9 @@
       <c r="H345" t="n">
         <v>0.5964710884359011</v>
       </c>
+      <c r="I345" t="n">
+        <v>0.7844285714285714</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -9439,6 +10476,9 @@
       <c r="H346" t="n">
         <v>0.5903607420465226</v>
       </c>
+      <c r="I346" t="n">
+        <v>0.8545</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -9465,6 +10505,9 @@
       <c r="H347" t="n">
         <v>0.5658643749871644</v>
       </c>
+      <c r="I347" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -9491,6 +10534,9 @@
       <c r="H348" t="n">
         <v>0.548654926088519</v>
       </c>
+      <c r="I348" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -9517,6 +10563,9 @@
       <c r="H349" t="n">
         <v>0.5468750419077146</v>
       </c>
+      <c r="I349" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -9543,6 +10592,9 @@
       <c r="H350" t="n">
         <v>0.5553408803209474</v>
       </c>
+      <c r="I350" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -9569,6 +10621,9 @@
       <c r="H351" t="n">
         <v>0.4987604957816261</v>
       </c>
+      <c r="I351" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -9595,6 +10650,9 @@
       <c r="H352" t="n">
         <v>0.5275112298240541</v>
       </c>
+      <c r="I352" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -9621,6 +10679,9 @@
       <c r="H353" t="n">
         <v>0.5235354363345555</v>
       </c>
+      <c r="I353" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -9647,6 +10708,9 @@
       <c r="H354" t="n">
         <v>0.5249426413221314</v>
       </c>
+      <c r="I354" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -9673,6 +10737,9 @@
       <c r="H355" t="n">
         <v>0.5200035018539787</v>
       </c>
+      <c r="I355" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -9699,6 +10766,9 @@
       <c r="H356" t="n">
         <v>0.517797159660894</v>
       </c>
+      <c r="I356" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -9725,6 +10795,9 @@
       <c r="H357" t="n">
         <v>0.5182348557961264</v>
       </c>
+      <c r="I357" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -9751,6 +10824,9 @@
       <c r="H358" t="n">
         <v>0.523486016084831</v>
       </c>
+      <c r="I358" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -9777,6 +10853,9 @@
       <c r="H359" t="n">
         <v>0.5202651417447977</v>
       </c>
+      <c r="I359" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -9803,6 +10882,9 @@
       <c r="H360" t="n">
         <v>0.5188603731734577</v>
       </c>
+      <c r="I360" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -9829,6 +10911,9 @@
       <c r="H361" t="n">
         <v>0.5197324880825419</v>
       </c>
+      <c r="I361" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -9855,6 +10940,9 @@
       <c r="H362" t="n">
         <v>0.5406214179245787</v>
       </c>
+      <c r="I362" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -9881,6 +10969,9 @@
       <c r="H363" t="n">
         <v>0.5478045993161349</v>
       </c>
+      <c r="I363" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -9907,6 +10998,9 @@
       <c r="H364" t="n">
         <v>0.5673135561032192</v>
       </c>
+      <c r="I364" t="n">
+        <v>0.9913333333333334</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -9933,6 +11027,9 @@
       <c r="H365" t="n">
         <v>0.5872098514453502</v>
       </c>
+      <c r="I365" t="n">
+        <v>0.8398571428571427</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -9959,6 +11056,9 @@
       <c r="H366" t="n">
         <v>0.6106659519625549</v>
       </c>
+      <c r="I366" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -9985,6 +11085,9 @@
       <c r="H367" t="n">
         <v>0.6322022816645781</v>
       </c>
+      <c r="I367" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -10011,6 +11114,9 @@
       <c r="H368" t="n">
         <v>0.632794924965415</v>
       </c>
+      <c r="I368" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -10037,6 +11143,9 @@
       <c r="H369" t="n">
         <v>0.6196172138254022</v>
       </c>
+      <c r="I369" t="n">
+        <v>0.7844285714285714</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -10063,6 +11172,9 @@
       <c r="H370" t="n">
         <v>0.6138573524685672</v>
       </c>
+      <c r="I370" t="n">
+        <v>0.8545</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -10089,6 +11201,9 @@
       <c r="H371" t="n">
         <v>0.5907660792384107</v>
       </c>
+      <c r="I371" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -10115,6 +11230,9 @@
       <c r="H372" t="n">
         <v>0.5745437518338568</v>
       </c>
+      <c r="I372" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -10141,6 +11259,9 @@
       <c r="H373" t="n">
         <v>0.5728659605173977</v>
       </c>
+      <c r="I373" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -10167,6 +11288,9 @@
       <c r="H374" t="n">
         <v>0.5808462045857781</v>
       </c>
+      <c r="I374" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -10193,6 +11317,9 @@
       <c r="H375" t="n">
         <v>0.5721707110650142</v>
       </c>
+      <c r="I375" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -10219,6 +11346,9 @@
       <c r="H376" t="n">
         <v>0.5235354363345555</v>
       </c>
+      <c r="I376" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -10245,6 +11375,9 @@
       <c r="H377" t="n">
         <v>0.572984235615256</v>
       </c>
+      <c r="I377" t="n">
+        <v>0.3136666666666666</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -10271,6 +11404,9 @@
       <c r="H378" t="n">
         <v>0.5742453970094907</v>
       </c>
+      <c r="I378" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -10297,6 +11433,9 @@
       <c r="H379" t="n">
         <v>0.5698188549825856</v>
       </c>
+      <c r="I379" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -10323,6 +11462,9 @@
       <c r="H380" t="n">
         <v>0.5678414930339311</v>
       </c>
+      <c r="I380" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -10349,6 +11491,9 @@
       <c r="H381" t="n">
         <v>0.5682337638637208</v>
       </c>
+      <c r="I381" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -10375,6 +11520,9 @@
       <c r="H382" t="n">
         <v>0.5729399443345995</v>
       </c>
+      <c r="I382" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -10401,6 +11549,9 @@
       <c r="H383" t="n">
         <v>0.5700533411679004</v>
       </c>
+      <c r="I383" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -10427,6 +11578,9 @@
       <c r="H384" t="n">
         <v>0.568794363331942</v>
       </c>
+      <c r="I384" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -10453,6 +11607,9 @@
       <c r="H385" t="n">
         <v>0.5695759677636945</v>
       </c>
+      <c r="I385" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -10479,6 +11636,9 @@
       <c r="H386" t="n">
         <v>0.5882969871718448</v>
       </c>
+      <c r="I386" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -10505,6 +11665,9 @@
       <c r="H387" t="n">
         <v>0.5947346782963067</v>
       </c>
+      <c r="I387" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -10531,6 +11694,9 @@
       <c r="H388" t="n">
         <v>0.6122189420381853</v>
       </c>
+      <c r="I388" t="n">
+        <v>0.9913333333333334</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -10557,6 +11723,9 @@
       <c r="H389" t="n">
         <v>0.6300503452774622</v>
       </c>
+      <c r="I389" t="n">
+        <v>0.8398571428571427</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -10583,6 +11752,9 @@
       <c r="H390" t="n">
         <v>0.6510721073467868</v>
       </c>
+      <c r="I390" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -10609,6 +11781,9 @@
       <c r="H391" t="n">
         <v>0.6703733376817435</v>
       </c>
+      <c r="I391" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -10635,6 +11810,9 @@
       <c r="H392" t="n">
         <v>0.6709044748352969</v>
       </c>
+      <c r="I392" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -10661,6 +11839,9 @@
       <c r="H393" t="n">
         <v>0.6590943827016769</v>
       </c>
+      <c r="I393" t="n">
+        <v>0.7844285714285714</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -10687,6 +11868,9 @@
       <c r="H394" t="n">
         <v>0.6539322955548015</v>
       </c>
+      <c r="I394" t="n">
+        <v>0.8545</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -10713,6 +11897,9 @@
       <c r="H395" t="n">
         <v>0.6332374979960141</v>
       </c>
+      <c r="I395" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -10739,6 +11926,9 @@
       <c r="H396" t="n">
         <v>0.6186987682246661</v>
       </c>
+      <c r="I396" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -10765,6 +11955,9 @@
       <c r="H397" t="n">
         <v>0.6171951026929332</v>
       </c>
+      <c r="I397" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -10791,6 +11984,9 @@
       <c r="H398" t="n">
         <v>0.6243471351434073</v>
       </c>
+      <c r="I398" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -10817,6 +12013,9 @@
       <c r="H399" t="n">
         <v>0.6165720081356723</v>
       </c>
+      <c r="I399" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -10843,6 +12042,9 @@
       <c r="H400" t="n">
         <v>0.5861793209673607</v>
       </c>
+      <c r="I400" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -10869,6 +12071,9 @@
       <c r="H401" t="n">
         <v>0.5742453970094907</v>
       </c>
+      <c r="I401" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -10895,6 +12100,9 @@
       <c r="H402" t="n">
         <v>0.5742453970094907</v>
       </c>
+      <c r="I402" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -10921,6 +12129,9 @@
       <c r="H403" t="n">
         <v>0.5698188549825856</v>
       </c>
+      <c r="I403" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -10947,6 +12158,9 @@
       <c r="H404" t="n">
         <v>0.5678414930339311</v>
       </c>
+      <c r="I404" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -10973,6 +12187,9 @@
       <c r="H405" t="n">
         <v>0.5682337638637208</v>
       </c>
+      <c r="I405" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -10999,6 +12216,9 @@
       <c r="H406" t="n">
         <v>0.5729399443345995</v>
       </c>
+      <c r="I406" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -11025,6 +12245,9 @@
       <c r="H407" t="n">
         <v>0.5700533411679004</v>
       </c>
+      <c r="I407" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -11051,6 +12274,9 @@
       <c r="H408" t="n">
         <v>0.568794363331942</v>
       </c>
+      <c r="I408" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -11077,6 +12303,9 @@
       <c r="H409" t="n">
         <v>0.5695759677636945</v>
       </c>
+      <c r="I409" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -11103,6 +12332,9 @@
       <c r="H410" t="n">
         <v>0.5882969871718448</v>
       </c>
+      <c r="I410" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -11129,6 +12361,9 @@
       <c r="H411" t="n">
         <v>0.5947346782963067</v>
       </c>
+      <c r="I411" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -11155,6 +12390,9 @@
       <c r="H412" t="n">
         <v>0.6122189420381853</v>
       </c>
+      <c r="I412" t="n">
+        <v>0.9913333333333334</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -11181,6 +12419,9 @@
       <c r="H413" t="n">
         <v>0.6300503452774622</v>
       </c>
+      <c r="I413" t="n">
+        <v>0.8398571428571427</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -11207,6 +12448,9 @@
       <c r="H414" t="n">
         <v>0.6510721073467868</v>
       </c>
+      <c r="I414" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -11233,6 +12477,9 @@
       <c r="H415" t="n">
         <v>0.6703733376817435</v>
       </c>
+      <c r="I415" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -11259,6 +12506,9 @@
       <c r="H416" t="n">
         <v>0.6709044748352969</v>
       </c>
+      <c r="I416" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -11285,6 +12535,9 @@
       <c r="H417" t="n">
         <v>0.6590943827016769</v>
       </c>
+      <c r="I417" t="n">
+        <v>0.7844285714285714</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -11311,6 +12564,9 @@
       <c r="H418" t="n">
         <v>0.6539322955548015</v>
       </c>
+      <c r="I418" t="n">
+        <v>0.8545</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -11337,6 +12593,9 @@
       <c r="H419" t="n">
         <v>0.6332374979960141</v>
       </c>
+      <c r="I419" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -11363,6 +12622,9 @@
       <c r="H420" t="n">
         <v>0.6186987682246661</v>
       </c>
+      <c r="I420" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -11389,6 +12651,9 @@
       <c r="H421" t="n">
         <v>0.6171951026929332</v>
       </c>
+      <c r="I421" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -11415,6 +12680,9 @@
       <c r="H422" t="n">
         <v>0.6243471351434073</v>
       </c>
+      <c r="I422" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -11441,6 +12709,9 @@
       <c r="H423" t="n">
         <v>0.6165720081356723</v>
       </c>
+      <c r="I423" t="n">
+        <v>0.4585</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -11467,6 +12738,9 @@
       <c r="H424" t="n">
         <v>0.5861793209673607</v>
       </c>
+      <c r="I424" t="n">
+        <v>0.4585</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -11493,6 +12767,9 @@
       <c r="H425" t="n">
         <v>0.5544935059661154</v>
       </c>
+      <c r="I425" t="n">
+        <v>0.4585</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -11519,6 +12796,9 @@
       <c r="H426" t="n">
         <v>0.5698188549825856</v>
       </c>
+      <c r="I426" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -11545,6 +12825,9 @@
       <c r="H427" t="n">
         <v>0.5698188549825856</v>
       </c>
+      <c r="I427" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -11571,6 +12854,9 @@
       <c r="H428" t="n">
         <v>0.5678414930339311</v>
       </c>
+      <c r="I428" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -11597,6 +12883,9 @@
       <c r="H429" t="n">
         <v>0.5682337638637208</v>
       </c>
+      <c r="I429" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -11623,6 +12912,9 @@
       <c r="H430" t="n">
         <v>0.5729399443345995</v>
       </c>
+      <c r="I430" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -11649,6 +12941,9 @@
       <c r="H431" t="n">
         <v>0.5700533411679004</v>
       </c>
+      <c r="I431" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -11675,6 +12970,9 @@
       <c r="H432" t="n">
         <v>0.568794363331942</v>
       </c>
+      <c r="I432" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -11701,6 +12999,9 @@
       <c r="H433" t="n">
         <v>0.5695759677636945</v>
       </c>
+      <c r="I433" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -11727,6 +13028,9 @@
       <c r="H434" t="n">
         <v>0.5882969871718448</v>
       </c>
+      <c r="I434" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -11753,6 +13057,9 @@
       <c r="H435" t="n">
         <v>0.5947346782963067</v>
       </c>
+      <c r="I435" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -11779,6 +13086,9 @@
       <c r="H436" t="n">
         <v>0.6122189420381853</v>
       </c>
+      <c r="I436" t="n">
+        <v>0.9913333333333334</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -11805,6 +13115,9 @@
       <c r="H437" t="n">
         <v>0.6300503452774622</v>
       </c>
+      <c r="I437" t="n">
+        <v>0.8398571428571427</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -11831,6 +13144,9 @@
       <c r="H438" t="n">
         <v>0.6510721073467868</v>
       </c>
+      <c r="I438" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -11857,6 +13173,9 @@
       <c r="H439" t="n">
         <v>0.6703733376817435</v>
       </c>
+      <c r="I439" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -11883,6 +13202,9 @@
       <c r="H440" t="n">
         <v>0.6709044748352969</v>
       </c>
+      <c r="I440" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -11909,6 +13231,9 @@
       <c r="H441" t="n">
         <v>0.6590943827016769</v>
       </c>
+      <c r="I441" t="n">
+        <v>0.7844285714285714</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -11935,6 +13260,9 @@
       <c r="H442" t="n">
         <v>0.6539322955548015</v>
       </c>
+      <c r="I442" t="n">
+        <v>0.8545</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -11961,6 +13289,9 @@
       <c r="H443" t="n">
         <v>0.6332374979960141</v>
       </c>
+      <c r="I443" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -11987,6 +13318,9 @@
       <c r="H444" t="n">
         <v>0.6186987682246661</v>
       </c>
+      <c r="I444" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -12013,6 +13347,9 @@
       <c r="H445" t="n">
         <v>0.6171951026929332</v>
       </c>
+      <c r="I445" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -12039,6 +13376,9 @@
       <c r="H446" t="n">
         <v>0.6243471351434073</v>
       </c>
+      <c r="I446" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -12065,6 +13405,9 @@
       <c r="H447" t="n">
         <v>0.6165720081356723</v>
       </c>
+      <c r="I447" t="n">
+        <v>0.4585</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -12091,6 +13434,9 @@
       <c r="H448" t="n">
         <v>0.5861793209673607</v>
       </c>
+      <c r="I448" t="n">
+        <v>0.4585</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -12117,6 +13463,9 @@
       <c r="H449" t="n">
         <v>0.5544935059661154</v>
       </c>
+      <c r="I449" t="n">
+        <v>0.4585</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -12143,6 +13492,9 @@
       <c r="H450" t="n">
         <v>0.5280583687821352</v>
       </c>
+      <c r="I450" t="n">
+        <v>0.914</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -12169,6 +13521,9 @@
       <c r="H451" t="n">
         <v>0.5678414930339311</v>
       </c>
+      <c r="I451" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -12195,6 +13550,9 @@
       <c r="H452" t="n">
         <v>0.5678414930339311</v>
       </c>
+      <c r="I452" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -12221,6 +13579,9 @@
       <c r="H453" t="n">
         <v>0.5682337638637208</v>
       </c>
+      <c r="I453" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -12247,6 +13608,9 @@
       <c r="H454" t="n">
         <v>0.5729399443345995</v>
       </c>
+      <c r="I454" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -12273,6 +13637,9 @@
       <c r="H455" t="n">
         <v>0.5700533411679004</v>
       </c>
+      <c r="I455" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -12299,6 +13666,9 @@
       <c r="H456" t="n">
         <v>0.568794363331942</v>
       </c>
+      <c r="I456" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -12325,6 +13695,9 @@
       <c r="H457" t="n">
         <v>0.5695759677636945</v>
       </c>
+      <c r="I457" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -12351,6 +13724,9 @@
       <c r="H458" t="n">
         <v>0.5882969871718448</v>
       </c>
+      <c r="I458" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -12377,6 +13753,9 @@
       <c r="H459" t="n">
         <v>0.5947346782963067</v>
       </c>
+      <c r="I459" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -12403,6 +13782,9 @@
       <c r="H460" t="n">
         <v>0.6122189420381853</v>
       </c>
+      <c r="I460" t="n">
+        <v>0.9913333333333334</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -12429,6 +13811,9 @@
       <c r="H461" t="n">
         <v>0.6300503452774622</v>
       </c>
+      <c r="I461" t="n">
+        <v>0.8398571428571427</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -12455,6 +13840,9 @@
       <c r="H462" t="n">
         <v>0.6510721073467868</v>
       </c>
+      <c r="I462" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -12481,6 +13869,9 @@
       <c r="H463" t="n">
         <v>0.6703733376817435</v>
       </c>
+      <c r="I463" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -12507,6 +13898,9 @@
       <c r="H464" t="n">
         <v>0.6709044748352969</v>
       </c>
+      <c r="I464" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -12533,6 +13927,9 @@
       <c r="H465" t="n">
         <v>0.6590943827016769</v>
       </c>
+      <c r="I465" t="n">
+        <v>0.7844285714285714</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -12559,6 +13956,9 @@
       <c r="H466" t="n">
         <v>0.6539322955548015</v>
       </c>
+      <c r="I466" t="n">
+        <v>0.8545</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -12585,6 +13985,9 @@
       <c r="H467" t="n">
         <v>0.6332374979960141</v>
       </c>
+      <c r="I467" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -12611,6 +14014,9 @@
       <c r="H468" t="n">
         <v>0.6186987682246661</v>
       </c>
+      <c r="I468" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -12637,6 +14043,9 @@
       <c r="H469" t="n">
         <v>0.6171951026929332</v>
       </c>
+      <c r="I469" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -12663,6 +14072,9 @@
       <c r="H470" t="n">
         <v>0.6243471351434073</v>
       </c>
+      <c r="I470" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -12689,6 +14101,9 @@
       <c r="H471" t="n">
         <v>0.6165720081356723</v>
       </c>
+      <c r="I471" t="n">
+        <v>0.4585</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -12715,6 +14130,9 @@
       <c r="H472" t="n">
         <v>0.5861793209673607</v>
       </c>
+      <c r="I472" t="n">
+        <v>0.4585</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -12741,6 +14159,9 @@
       <c r="H473" t="n">
         <v>0.5544935059661154</v>
       </c>
+      <c r="I473" t="n">
+        <v>0.4585</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -12767,6 +14188,9 @@
       <c r="H474" t="n">
         <v>0.5280583687821352</v>
       </c>
+      <c r="I474" t="n">
+        <v>0.914</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -12793,6 +14217,9 @@
       <c r="H475" t="n">
         <v>0.4994703402030393</v>
       </c>
+      <c r="I475" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -12819,6 +14246,9 @@
       <c r="H476" t="n">
         <v>0.5682337638637208</v>
       </c>
+      <c r="I476" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -12845,6 +14275,9 @@
       <c r="H477" t="n">
         <v>0.5682337638637208</v>
       </c>
+      <c r="I477" t="n">
+        <v>0.9333333333333332</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -12871,6 +14304,9 @@
       <c r="H478" t="n">
         <v>0.5729399443345995</v>
       </c>
+      <c r="I478" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -12897,6 +14333,9 @@
       <c r="H479" t="n">
         <v>0.5700533411679004</v>
       </c>
+      <c r="I479" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -12923,6 +14362,9 @@
       <c r="H480" t="n">
         <v>0.568794363331942</v>
       </c>
+      <c r="I480" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -12949,6 +14391,9 @@
       <c r="H481" t="n">
         <v>0.5695759677636945</v>
       </c>
+      <c r="I481" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -12975,6 +14420,9 @@
       <c r="H482" t="n">
         <v>0.5882969871718448</v>
       </c>
+      <c r="I482" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -13001,6 +14449,9 @@
       <c r="H483" t="n">
         <v>0.5947346782963067</v>
       </c>
+      <c r="I483" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -13027,6 +14478,9 @@
       <c r="H484" t="n">
         <v>0.6122189420381853</v>
       </c>
+      <c r="I484" t="n">
+        <v>0.9913333333333334</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -13053,6 +14507,9 @@
       <c r="H485" t="n">
         <v>0.6300503452774622</v>
       </c>
+      <c r="I485" t="n">
+        <v>0.8398571428571427</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -13079,6 +14536,9 @@
       <c r="H486" t="n">
         <v>0.6510721073467868</v>
       </c>
+      <c r="I486" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -13105,6 +14565,9 @@
       <c r="H487" t="n">
         <v>0.6703733376817435</v>
       </c>
+      <c r="I487" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -13131,6 +14594,9 @@
       <c r="H488" t="n">
         <v>0.6709044748352969</v>
       </c>
+      <c r="I488" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -13157,6 +14623,9 @@
       <c r="H489" t="n">
         <v>0.6590943827016769</v>
       </c>
+      <c r="I489" t="n">
+        <v>0.7844285714285714</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -13183,6 +14652,9 @@
       <c r="H490" t="n">
         <v>0.6539322955548015</v>
       </c>
+      <c r="I490" t="n">
+        <v>0.8545</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -13209,6 +14681,9 @@
       <c r="H491" t="n">
         <v>0.6332374979960141</v>
       </c>
+      <c r="I491" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -13235,6 +14710,9 @@
       <c r="H492" t="n">
         <v>0.6186987682246661</v>
       </c>
+      <c r="I492" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -13261,6 +14739,9 @@
       <c r="H493" t="n">
         <v>0.6171951026929332</v>
       </c>
+      <c r="I493" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -13287,6 +14768,9 @@
       <c r="H494" t="n">
         <v>0.6243471351434073</v>
       </c>
+      <c r="I494" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -13313,6 +14797,9 @@
       <c r="H495" t="n">
         <v>0.6165720081356723</v>
       </c>
+      <c r="I495" t="n">
+        <v>0.4585</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -13339,6 +14826,9 @@
       <c r="H496" t="n">
         <v>0.5861793209673607</v>
       </c>
+      <c r="I496" t="n">
+        <v>0.4585</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
@@ -13365,6 +14855,9 @@
       <c r="H497" t="n">
         <v>0.5544935059661154</v>
       </c>
+      <c r="I497" t="n">
+        <v>0.4585</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -13391,6 +14884,9 @@
       <c r="H498" t="n">
         <v>0.5280583687821352</v>
       </c>
+      <c r="I498" t="n">
+        <v>0.914</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -13417,6 +14913,9 @@
       <c r="H499" t="n">
         <v>0.4994703402030393</v>
       </c>
+      <c r="I499" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -13443,6 +14942,9 @@
       <c r="H500" t="n">
         <v>0.4621121310975138</v>
       </c>
+      <c r="I500" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -13469,6 +14971,9 @@
       <c r="H501" t="n">
         <v>0.5729399443345995</v>
       </c>
+      <c r="I501" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -13495,6 +15000,9 @@
       <c r="H502" t="n">
         <v>0.5729399443345995</v>
       </c>
+      <c r="I502" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -13521,6 +15029,9 @@
       <c r="H503" t="n">
         <v>0.5700533411679004</v>
       </c>
+      <c r="I503" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -13547,6 +15058,9 @@
       <c r="H504" t="n">
         <v>0.568794363331942</v>
       </c>
+      <c r="I504" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -13573,6 +15087,9 @@
       <c r="H505" t="n">
         <v>0.5695759677636945</v>
       </c>
+      <c r="I505" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
@@ -13599,6 +15116,9 @@
       <c r="H506" t="n">
         <v>0.5882969871718448</v>
       </c>
+      <c r="I506" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -13625,6 +15145,9 @@
       <c r="H507" t="n">
         <v>0.5947346782963067</v>
       </c>
+      <c r="I507" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -13651,6 +15174,9 @@
       <c r="H508" t="n">
         <v>0.6122189420381853</v>
       </c>
+      <c r="I508" t="n">
+        <v>0.9913333333333334</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -13677,6 +15203,9 @@
       <c r="H509" t="n">
         <v>0.6300503452774622</v>
       </c>
+      <c r="I509" t="n">
+        <v>0.8398571428571427</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -13703,6 +15232,9 @@
       <c r="H510" t="n">
         <v>0.6510721073467868</v>
       </c>
+      <c r="I510" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -13729,6 +15261,9 @@
       <c r="H511" t="n">
         <v>0.6703733376817435</v>
       </c>
+      <c r="I511" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -13755,6 +15290,9 @@
       <c r="H512" t="n">
         <v>0.6709044748352969</v>
       </c>
+      <c r="I512" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
@@ -13781,6 +15319,9 @@
       <c r="H513" t="n">
         <v>0.6590943827016769</v>
       </c>
+      <c r="I513" t="n">
+        <v>0.7844285714285714</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -13807,6 +15348,9 @@
       <c r="H514" t="n">
         <v>0.6539322955548015</v>
       </c>
+      <c r="I514" t="n">
+        <v>0.8545</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -13833,6 +15377,9 @@
       <c r="H515" t="n">
         <v>0.6332374979960141</v>
       </c>
+      <c r="I515" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
@@ -13859,6 +15406,9 @@
       <c r="H516" t="n">
         <v>0.6186987682246661</v>
       </c>
+      <c r="I516" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -13885,6 +15435,9 @@
       <c r="H517" t="n">
         <v>0.6171951026929332</v>
       </c>
+      <c r="I517" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -13911,6 +15464,9 @@
       <c r="H518" t="n">
         <v>0.6243471351434073</v>
       </c>
+      <c r="I518" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
@@ -13937,6 +15493,9 @@
       <c r="H519" t="n">
         <v>0.6165720081356723</v>
       </c>
+      <c r="I519" t="n">
+        <v>0.4585</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
@@ -13963,6 +15522,9 @@
       <c r="H520" t="n">
         <v>0.5861793209673607</v>
       </c>
+      <c r="I520" t="n">
+        <v>0.4585</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
@@ -13989,6 +15551,9 @@
       <c r="H521" t="n">
         <v>0.5544935059661154</v>
       </c>
+      <c r="I521" t="n">
+        <v>0.4585</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
@@ -14015,6 +15580,9 @@
       <c r="H522" t="n">
         <v>0.5280583687821352</v>
       </c>
+      <c r="I522" t="n">
+        <v>0.914</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -14041,6 +15609,9 @@
       <c r="H523" t="n">
         <v>0.4994703402030393</v>
       </c>
+      <c r="I523" t="n">
+        <v>0.6613333333333333</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
@@ -14067,6 +15638,9 @@
       <c r="H524" t="n">
         <v>0.4621121310975138</v>
       </c>
+      <c r="I524" t="n">
+        <v>0.6613333333333333</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -14093,6 +15667,9 @@
       <c r="H525" t="n">
         <v>0.4332905873612185</v>
       </c>
+      <c r="I525" t="n">
+        <v>0.6613333333333333</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -14119,6 +15696,9 @@
       <c r="H526" t="n">
         <v>0.5700533411679004</v>
       </c>
+      <c r="I526" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
@@ -14145,6 +15725,9 @@
       <c r="H527" t="n">
         <v>0.5700533411679004</v>
       </c>
+      <c r="I527" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
@@ -14171,6 +15754,9 @@
       <c r="H528" t="n">
         <v>0.568794363331942</v>
       </c>
+      <c r="I528" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
@@ -14197,6 +15783,9 @@
       <c r="H529" t="n">
         <v>0.5695759677636945</v>
       </c>
+      <c r="I529" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
@@ -14223,6 +15812,9 @@
       <c r="H530" t="n">
         <v>0.5882969871718448</v>
       </c>
+      <c r="I530" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
@@ -14249,6 +15841,9 @@
       <c r="H531" t="n">
         <v>0.5947346782963067</v>
       </c>
+      <c r="I531" t="n">
+        <v>0.9892</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
@@ -14275,6 +15870,9 @@
       <c r="H532" t="n">
         <v>0.6122189420381853</v>
       </c>
+      <c r="I532" t="n">
+        <v>0.9913333333333334</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -14301,6 +15899,9 @@
       <c r="H533" t="n">
         <v>0.6300503452774622</v>
       </c>
+      <c r="I533" t="n">
+        <v>0.8398571428571427</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -14327,6 +15928,9 @@
       <c r="H534" t="n">
         <v>0.6510721073467868</v>
       </c>
+      <c r="I534" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -14353,6 +15957,9 @@
       <c r="H535" t="n">
         <v>0.6703733376817435</v>
       </c>
+      <c r="I535" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
@@ -14379,6 +15986,9 @@
       <c r="H536" t="n">
         <v>0.6709044748352969</v>
       </c>
+      <c r="I536" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -14405,6 +16015,9 @@
       <c r="H537" t="n">
         <v>0.6590943827016769</v>
       </c>
+      <c r="I537" t="n">
+        <v>0.7844285714285714</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
@@ -14431,6 +16044,9 @@
       <c r="H538" t="n">
         <v>0.6539322955548015</v>
       </c>
+      <c r="I538" t="n">
+        <v>0.8545</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
@@ -14457,6 +16073,9 @@
       <c r="H539" t="n">
         <v>0.6332374979960141</v>
       </c>
+      <c r="I539" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
@@ -14483,6 +16102,9 @@
       <c r="H540" t="n">
         <v>0.6186987682246661</v>
       </c>
+      <c r="I540" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
@@ -14509,6 +16131,9 @@
       <c r="H541" t="n">
         <v>0.6171951026929332</v>
       </c>
+      <c r="I541" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
@@ -14535,6 +16160,9 @@
       <c r="H542" t="n">
         <v>0.6243471351434073</v>
       </c>
+      <c r="I542" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
@@ -14561,6 +16189,9 @@
       <c r="H543" t="n">
         <v>0.6165720081356723</v>
       </c>
+      <c r="I543" t="n">
+        <v>0.4585</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
@@ -14587,6 +16218,9 @@
       <c r="H544" t="n">
         <v>0.5861793209673607</v>
       </c>
+      <c r="I544" t="n">
+        <v>0.4585</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
@@ -14613,6 +16247,9 @@
       <c r="H545" t="n">
         <v>0.5544935059661154</v>
       </c>
+      <c r="I545" t="n">
+        <v>0.4585</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
@@ -14639,6 +16276,9 @@
       <c r="H546" t="n">
         <v>0.5280583687821352</v>
       </c>
+      <c r="I546" t="n">
+        <v>0.914</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
@@ -14665,6 +16305,9 @@
       <c r="H547" t="n">
         <v>0.4994703402030393</v>
       </c>
+      <c r="I547" t="n">
+        <v>0.6613333333333333</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
@@ -14691,6 +16334,9 @@
       <c r="H548" t="n">
         <v>0.4621121310975138</v>
       </c>
+      <c r="I548" t="n">
+        <v>0.6613333333333333</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
@@ -14717,6 +16363,9 @@
       <c r="H549" t="n">
         <v>0.4332905873612185</v>
       </c>
+      <c r="I549" t="n">
+        <v>0.6613333333333333</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
@@ -14743,6 +16392,9 @@
       <c r="H550" t="n">
         <v>0.4130987280409433</v>
       </c>
+      <c r="I550" t="n">
+        <v>0.1131666666666667</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -14761,13 +16413,741 @@
         <v>0.07953444232419198</v>
       </c>
       <c r="F551" t="n">
+        <v>0.5511791929271456</v>
+      </c>
+      <c r="G551" t="n">
+        <v>0.537941642243686</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0.568794363331942</v>
+      </c>
+      <c r="I551" t="n">
+        <v>0.9892</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B552" t="n">
+        <v>0.571289947075705</v>
+      </c>
+      <c r="C552" t="n">
+        <v>0.571289947075705</v>
+      </c>
+      <c r="D552" t="n">
+        <v>0.4747817221441908</v>
+      </c>
+      <c r="E552" t="n">
+        <v>0.55431611821842</v>
+      </c>
+      <c r="F552" t="n">
+        <v>0.5511791929271456</v>
+      </c>
+      <c r="G552" t="n">
+        <v>0.537941642243686</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0.568794363331942</v>
+      </c>
+      <c r="I552" t="n">
+        <v>0.9892</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B553" t="n">
+        <v>0.561590682371489</v>
+      </c>
+      <c r="C553" t="n">
+        <v>0.6459747570477891</v>
+      </c>
+      <c r="D553" t="n">
+        <v>0.5378272664713346</v>
+      </c>
+      <c r="E553" t="n">
+        <v>0.5785644187288485</v>
+      </c>
+      <c r="F553" t="n">
+        <v>0.5590035431562035</v>
+      </c>
+      <c r="G553" t="n">
+        <v>0.5441913001644804</v>
+      </c>
+      <c r="H553" t="n">
+        <v>0.5695759677636945</v>
+      </c>
+      <c r="I553" t="n">
+        <v>0.9892</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B554" t="n">
+        <v>0.5921435003146617</v>
+      </c>
+      <c r="C554" t="n">
+        <v>1</v>
+      </c>
+      <c r="D554" t="n">
+        <v>0.5868088446023911</v>
+      </c>
+      <c r="E554" t="n">
+        <v>0.803588710365574</v>
+      </c>
+      <c r="F554" t="n">
+        <v>0.6288850195017379</v>
+      </c>
+      <c r="G554" t="n">
+        <v>0.5840985940415717</v>
+      </c>
+      <c r="H554" t="n">
+        <v>0.5882969871718448</v>
+      </c>
+      <c r="I554" t="n">
+        <v>0.9892</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B555" t="n">
+        <v>0.7895246516695612</v>
+      </c>
+      <c r="C555" t="n">
+        <v>0.8365663213598192</v>
+      </c>
+      <c r="D555" t="n">
+        <v>0.6532492287009324</v>
+      </c>
+      <c r="E555" t="n">
+        <v>0.6687681262276185</v>
+      </c>
+      <c r="F555" t="n">
+        <v>0.6402801928519896</v>
+      </c>
+      <c r="G555" t="n">
+        <v>0.5971246759163482</v>
+      </c>
+      <c r="H555" t="n">
+        <v>0.5947346782963067</v>
+      </c>
+      <c r="I555" t="n">
+        <v>0.9892</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B556" t="n">
+        <v>0.693016426738047</v>
+      </c>
+      <c r="C556" t="n">
+        <v>0.8220173780535324</v>
+      </c>
+      <c r="D556" t="n">
+        <v>0.6566439759724043</v>
+      </c>
+      <c r="E556" t="n">
+        <v>0.81328797506979</v>
+      </c>
+      <c r="F556" t="n">
+        <v>0.6897109877713611</v>
+      </c>
+      <c r="G556" t="n">
+        <v>0.6303805680938007</v>
+      </c>
+      <c r="H556" t="n">
+        <v>0.6122189420381853</v>
+      </c>
+      <c r="I556" t="n">
+        <v>0.9913333333333334</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B557" t="n">
+        <v>0.7803102715756193</v>
+      </c>
+      <c r="C557" t="n">
+        <v>0.8579049442089011</v>
+      </c>
+      <c r="D557" t="n">
+        <v>0.6988360595605171</v>
+      </c>
+      <c r="E557" t="n">
+        <v>0.8351114825291459</v>
+      </c>
+      <c r="F557" t="n">
+        <v>0.7312539862735853</v>
+      </c>
+      <c r="G557" t="n">
+        <v>0.6618776318530846</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0.6300503452774622</v>
+      </c>
+      <c r="I557" t="n">
+        <v>0.8398571428571427</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B558" t="n">
+        <v>0.8462656785639608</v>
+      </c>
+      <c r="C558" t="n">
+        <v>0.9151309482135004</v>
+      </c>
+      <c r="D558" t="n">
+        <v>0.7483025223018477</v>
+      </c>
+      <c r="E558" t="n">
+        <v>0.8928223711440192</v>
+      </c>
+      <c r="F558" t="n">
+        <v>0.7774163819508521</v>
+      </c>
+      <c r="G558" t="n">
+        <v>0.6974075917439975</v>
+      </c>
+      <c r="H558" t="n">
+        <v>0.6510721073467868</v>
+      </c>
+      <c r="I558" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B559" t="n">
+        <v>0.8802133362785309</v>
+      </c>
+      <c r="C559" t="n">
+        <v>0.914160993993101</v>
+      </c>
+      <c r="D559" t="n">
+        <v>0.7798253869653452</v>
+      </c>
+      <c r="E559" t="n">
+        <v>0.8923374865337452</v>
+      </c>
+      <c r="F559" t="n">
+        <v>0.8102509832602501</v>
+      </c>
+      <c r="G559" t="n">
+        <v>0.7273968063270357</v>
+      </c>
+      <c r="H559" t="n">
+        <v>0.6703733376817435</v>
+      </c>
+      <c r="I559" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B560" t="n">
+        <v>0.8462656785639608</v>
+      </c>
+      <c r="C560" t="n">
+        <v>0.9122210855523025</v>
+      </c>
+      <c r="D560" t="n">
+        <v>0.6556740217520051</v>
+      </c>
+      <c r="E560" t="n">
+        <v>0.6770125521011613</v>
+      </c>
+      <c r="F560" t="n">
+        <v>0.7721828600719389</v>
+      </c>
+      <c r="G560" t="n">
+        <v>0.7196453825999781</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0.6709044748352969</v>
+      </c>
+      <c r="I560" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B561" t="n">
+        <v>0.6362753998436473</v>
+      </c>
+      <c r="C561" t="n">
+        <v>0.6362753998436473</v>
+      </c>
+      <c r="D561" t="n">
+        <v>0.4631425489991762</v>
+      </c>
+      <c r="E561" t="n">
+        <v>0.5232783231650477</v>
+      </c>
+      <c r="F561" t="n">
+        <v>0.7010672780985414</v>
+      </c>
+      <c r="G561" t="n">
+        <v>0.689435065763835</v>
+      </c>
+      <c r="H561" t="n">
+        <v>0.6590943827016769</v>
+      </c>
+      <c r="I561" t="n">
+        <v>0.7844285714285714</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B562" t="n">
+        <v>0.5126091042404325</v>
+      </c>
+      <c r="C562" t="n">
+        <v>0.5979631331371318</v>
+      </c>
+      <c r="D562" t="n">
+        <v>0.4563530544562325</v>
+      </c>
+      <c r="E562" t="n">
+        <v>0.5945682933657342</v>
+      </c>
+      <c r="F562" t="n">
+        <v>0.6706389967463108</v>
+      </c>
+      <c r="G562" t="n">
+        <v>0.6748401777025888</v>
+      </c>
+      <c r="H562" t="n">
+        <v>0.6539322955548015</v>
+      </c>
+      <c r="I562" t="n">
+        <v>0.8545</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B563" t="n">
+        <v>0.5591657968204908</v>
+      </c>
+      <c r="C563" t="n">
+        <v>0.5591657968204908</v>
+      </c>
+      <c r="D563" t="n">
+        <v>0.320077538987678</v>
+      </c>
+      <c r="E563" t="n">
+        <v>0.3952473260699617</v>
+      </c>
+      <c r="F563" t="n">
+        <v>0.5919556622673539</v>
+      </c>
+      <c r="G563" t="n">
+        <v>0.6318258928360306</v>
+      </c>
+      <c r="H563" t="n">
+        <v>0.6332374979960141</v>
+      </c>
+      <c r="I563" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B564" t="n">
+        <v>0.404461613663978</v>
+      </c>
+      <c r="C564" t="n">
+        <v>0.4869058723994051</v>
+      </c>
+      <c r="D564" t="n">
+        <v>0.404461613663978</v>
+      </c>
+      <c r="E564" t="n">
+        <v>0.4515033758541617</v>
+      </c>
+      <c r="F564" t="n">
+        <v>0.5518264375778704</v>
+      </c>
+      <c r="G564" t="n">
+        <v>0.6040839671465124</v>
+      </c>
+      <c r="H564" t="n">
+        <v>0.6186987682246661</v>
+      </c>
+      <c r="I564" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B565" t="n">
+        <v>0.4670222733808478</v>
+      </c>
+      <c r="C565" t="n">
+        <v>0.6226963182578342</v>
+      </c>
+      <c r="D565" t="n">
+        <v>0.4495634674133631</v>
+      </c>
+      <c r="E565" t="n">
+        <v>0.5999029490780047</v>
+      </c>
+      <c r="F565" t="n">
+        <v>0.5655625837207658</v>
+      </c>
+      <c r="G565" t="n">
+        <v>0.6034407335975113</v>
+      </c>
+      <c r="H565" t="n">
+        <v>0.6171951026929332</v>
+      </c>
+      <c r="I565" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B566" t="n">
+        <v>0.6246362266986328</v>
+      </c>
+      <c r="C566" t="n">
+        <v>0.7114450944260053</v>
+      </c>
+      <c r="D566" t="n">
+        <v>0.5935984316452606</v>
+      </c>
+      <c r="E566" t="n">
+        <v>0.7065955083238602</v>
+      </c>
+      <c r="F566" t="n">
+        <v>0.6058577050359357</v>
+      </c>
+      <c r="G566" t="n">
+        <v>0.6193106989400264</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0.6243471351434073</v>
+      </c>
+      <c r="I566" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B567" t="n">
+        <v>0.7172647272484755</v>
+      </c>
+      <c r="C567" t="n">
+        <v>0.7861299043980894</v>
+      </c>
+      <c r="D567" t="n">
+        <v>0.4839961022381328</v>
+      </c>
+      <c r="E567" t="n">
+        <v>0.5271580475467192</v>
+      </c>
+      <c r="F567" t="n">
+        <v>0.5833720886104452</v>
+      </c>
+      <c r="G567" t="n">
+        <v>0.6051333679564407</v>
+      </c>
+      <c r="H567" t="n">
+        <v>0.6165720081356723</v>
+      </c>
+      <c r="I567" t="n">
+        <v>0.4585</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B568" t="n">
+        <v>0.4839961022381328</v>
+      </c>
+      <c r="C568" t="n">
+        <v>0.4912705738912762</v>
+      </c>
+      <c r="D568" t="n">
+        <v>0.2342386254807048</v>
+      </c>
+      <c r="E568" t="n">
+        <v>0.2366634185317774</v>
+      </c>
+      <c r="F568" t="n">
+        <v>0.4843124685879687</v>
+      </c>
+      <c r="G568" t="n">
+        <v>0.5484456834295693</v>
+      </c>
+      <c r="H568" t="n">
+        <v>0.5861793209673607</v>
+      </c>
+      <c r="I568" t="n">
+        <v>0.4585</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B569" t="n">
+        <v>0.2677012135851496</v>
+      </c>
+      <c r="C569" t="n">
+        <v>0.3128030673345346</v>
+      </c>
+      <c r="D569" t="n">
+        <v>0.1551891140167496</v>
+      </c>
+      <c r="E569" t="n">
+        <v>0.1901066334517933</v>
+      </c>
+      <c r="F569" t="n">
+        <v>0.4002536585490615</v>
+      </c>
+      <c r="G569" t="n">
+        <v>0.4933165988176038</v>
+      </c>
+      <c r="H569" t="n">
+        <v>0.5544935059661154</v>
+      </c>
+      <c r="I569" t="n">
+        <v>0.4585</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B570" t="n">
+        <v>0.21096018669075</v>
+      </c>
+      <c r="C570" t="n">
+        <v>0.2769155936790916</v>
+      </c>
+      <c r="D570" t="n">
+        <v>0.1668282871617642</v>
+      </c>
+      <c r="E570" t="n">
+        <v>0.2240542911663635</v>
+      </c>
+      <c r="F570" t="n">
+        <v>0.3499109821540048</v>
+      </c>
+      <c r="G570" t="n">
+        <v>0.4518916284097207</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0.5280583687821352</v>
+      </c>
+      <c r="I570" t="n">
+        <v>0.914</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B571" t="n">
+        <v>0.1935014732231909</v>
+      </c>
+      <c r="C571" t="n">
+        <v>0.2119301409111493</v>
+      </c>
+      <c r="D571" t="n">
+        <v>0.1037827428346205</v>
+      </c>
+      <c r="E571" t="n">
+        <v>0.1707080115434357</v>
+      </c>
+      <c r="F571" t="n">
+        <v>0.298710133408128</v>
+      </c>
+      <c r="G571" t="n">
+        <v>0.4086326104302924</v>
+      </c>
+      <c r="H571" t="n">
+        <v>0.4994703402030393</v>
+      </c>
+      <c r="I571" t="n">
+        <v>0.6613333333333333</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B572" t="n">
+        <v>0.1445198950921343</v>
+      </c>
+      <c r="C572" t="n">
+        <v>0.1619786085596934</v>
+      </c>
+      <c r="D572" t="n">
+        <v>0</v>
+      </c>
+      <c r="E572" t="n">
+        <v>0.03249272638397117</v>
+      </c>
+      <c r="F572" t="n">
+        <v>0.2226480171155117</v>
+      </c>
+      <c r="G572" t="n">
+        <v>0.3507649359616275</v>
+      </c>
+      <c r="H572" t="n">
+        <v>0.4621121310975138</v>
+      </c>
+      <c r="I572" t="n">
+        <v>0.6613333333333333</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B573" t="n">
+        <v>0.06110568213630798</v>
+      </c>
+      <c r="C573" t="n">
+        <v>0.1241513189633774</v>
+      </c>
+      <c r="D573" t="n">
+        <v>0.05577111892396316</v>
+      </c>
+      <c r="E573" t="n">
+        <v>0.1018428343938219</v>
+      </c>
+      <c r="F573" t="n">
+        <v>0.1881322506236004</v>
+      </c>
+      <c r="G573" t="n">
+        <v>0.3124692280281189</v>
+      </c>
+      <c r="H573" t="n">
+        <v>0.4332905873612185</v>
+      </c>
+      <c r="I573" t="n">
+        <v>0.6613333333333333</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B574" t="n">
+        <v>0.1139669846490361</v>
+      </c>
+      <c r="C574" t="n">
+        <v>0.2041706921478062</v>
+      </c>
+      <c r="D574" t="n">
+        <v>0.09117361546920656</v>
+      </c>
+      <c r="E574" t="n">
+        <v>0.180892345857777</v>
+      </c>
+      <c r="F574" t="n">
         <v>0.1860637064047936</v>
       </c>
-      <c r="G551" t="n">
+      <c r="G574" t="n">
         <v>0.2922266307711432</v>
       </c>
-      <c r="H551" t="n">
+      <c r="H574" t="n">
         <v>0.4130987280409433</v>
+      </c>
+      <c r="I574" t="n">
+        <v>0.1131666666666667</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B575" t="n">
+        <v>0.1537341826861507</v>
+      </c>
+      <c r="C575" t="n">
+        <v>0.1847720702394486</v>
+      </c>
+      <c r="D575" t="n">
+        <v>0.04364696866874893</v>
+      </c>
+      <c r="E575" t="n">
+        <v>0.05528614181376352</v>
+      </c>
+      <c r="F575" t="n">
+        <v>0.1486986879502135</v>
+      </c>
+      <c r="G575" t="n">
+        <v>0.2557742478546233</v>
+      </c>
+      <c r="H575" t="n">
+        <v>0.3844737211427689</v>
+      </c>
+      <c r="I575" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B576" t="n">
+        <v>0.0577109348648361</v>
+      </c>
+      <c r="C576" t="n">
+        <v>0.1338505836675934</v>
+      </c>
+      <c r="D576" t="n">
+        <v>0.0004849771101996477</v>
+      </c>
+      <c r="E576" t="n">
+        <v>0.0834141667058635</v>
+      </c>
+      <c r="F576" t="n">
+        <v>0.1486986879502135</v>
+      </c>
+      <c r="G576" t="n">
+        <v>0.2557742478546233</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0.3844737211427689</v>
+      </c>
+      <c r="I576" t="n">
+        <v>0.992</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/x_valid_dataset.xlsx
+++ b/Excel reports/x_valid_dataset.xlsx
@@ -501,7 +501,7 @@
         <v>0.704494304468533</v>
       </c>
       <c r="I2" t="n">
-        <v>0.796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -559,7 +559,7 @@
         <v>0.6860054611786712</v>
       </c>
       <c r="I4" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -675,7 +675,7 @@
         <v>0.6290084420492646</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9419999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -704,7 +704,7 @@
         <v>0.6060775895139948</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9419999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -733,7 +733,7 @@
         <v>0.5754896809851836</v>
       </c>
       <c r="I10" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -762,7 +762,7 @@
         <v>0.5460471116331402</v>
       </c>
       <c r="I11" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -791,7 +791,7 @@
         <v>0.5154345266253137</v>
       </c>
       <c r="I12" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -820,7 +820,7 @@
         <v>0.4935624722006787</v>
       </c>
       <c r="I13" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>0.4362570391067728</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -907,7 +907,7 @@
         <v>0.4080276590734603</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -965,7 +965,7 @@
         <v>0.4048095225920495</v>
       </c>
       <c r="I18" t="n">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="19">
@@ -994,7 +994,7 @@
         <v>0.3986213671528498</v>
       </c>
       <c r="I19" t="n">
-        <v>0.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1081,7 +1081,7 @@
         <v>0.402984544082494</v>
       </c>
       <c r="I22" t="n">
-        <v>0.796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1110,7 +1110,7 @@
         <v>0.3989491708773493</v>
       </c>
       <c r="I23" t="n">
-        <v>0.796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1139,7 +1139,7 @@
         <v>0.3971891626144514</v>
       </c>
       <c r="I24" t="n">
-        <v>0.796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1168,7 +1168,7 @@
         <v>0.3982818190686889</v>
       </c>
       <c r="I25" t="n">
-        <v>0.796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1255,7 +1255,7 @@
         <v>0.6860054611786712</v>
       </c>
       <c r="I28" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1371,7 +1371,7 @@
         <v>0.6290084420492646</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9419999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1400,7 +1400,7 @@
         <v>0.6060775895139948</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9419999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1429,7 +1429,7 @@
         <v>0.5754896809851836</v>
       </c>
       <c r="I34" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1458,7 +1458,7 @@
         <v>0.5460471116331402</v>
       </c>
       <c r="I35" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1487,7 @@
         <v>0.5154345266253137</v>
       </c>
       <c r="I36" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1516,7 +1516,7 @@
         <v>0.4935624722006787</v>
       </c>
       <c r="I37" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1574,7 +1574,7 @@
         <v>0.4362570391067728</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1603,7 +1603,7 @@
         <v>0.4080276590734603</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1661,7 +1661,7 @@
         <v>0.4048095225920495</v>
       </c>
       <c r="I42" t="n">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="43">
@@ -1690,7 +1690,7 @@
         <v>0.3986213671528498</v>
       </c>
       <c r="I43" t="n">
-        <v>0.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1777,7 +1777,7 @@
         <v>0.402984544082494</v>
       </c>
       <c r="I46" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1806,7 +1806,7 @@
         <v>0.3989491708773493</v>
       </c>
       <c r="I47" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1835,7 +1835,7 @@
         <v>0.3971891626144514</v>
       </c>
       <c r="I48" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1864,7 +1864,7 @@
         <v>0.3982818190686889</v>
       </c>
       <c r="I49" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1893,7 +1893,7 @@
         <v>0.4244531684817894</v>
       </c>
       <c r="I50" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1922,7 +1922,7 @@
         <v>0.6860054611786712</v>
       </c>
       <c r="I51" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1951,7 +1951,7 @@
         <v>0.6860054611786712</v>
       </c>
       <c r="I52" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2067,7 +2067,7 @@
         <v>0.6290084420492646</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9419999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2096,7 +2096,7 @@
         <v>0.6060775895139948</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9419999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2125,7 +2125,7 @@
         <v>0.5754896809851836</v>
       </c>
       <c r="I58" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2154,7 +2154,7 @@
         <v>0.5460471116331402</v>
       </c>
       <c r="I59" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2183,7 +2183,7 @@
         <v>0.5154345266253137</v>
       </c>
       <c r="I60" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2212,7 +2212,7 @@
         <v>0.4935624722006787</v>
       </c>
       <c r="I61" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2270,7 +2270,7 @@
         <v>0.4362570391067728</v>
       </c>
       <c r="I63" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2299,7 +2299,7 @@
         <v>0.4080276590734603</v>
       </c>
       <c r="I64" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2357,7 +2357,7 @@
         <v>0.4048095225920495</v>
       </c>
       <c r="I66" t="n">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="67">
@@ -2386,7 +2386,7 @@
         <v>0.3986213671528498</v>
       </c>
       <c r="I67" t="n">
-        <v>0.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2473,7 +2473,7 @@
         <v>0.402984544082494</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2502,7 +2502,7 @@
         <v>0.3989491708773493</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2531,7 +2531,7 @@
         <v>0.3971891626144514</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2560,7 +2560,7 @@
         <v>0.3982818190686889</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2589,7 +2589,7 @@
         <v>0.4244531684817894</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2763,7 +2763,7 @@
         <v>0.6290084420492646</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9419999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2792,7 +2792,7 @@
         <v>0.6060775895139948</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9419999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2821,7 +2821,7 @@
         <v>0.5754896809851836</v>
       </c>
       <c r="I82" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2850,7 +2850,7 @@
         <v>0.5460471116331402</v>
       </c>
       <c r="I83" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2879,7 +2879,7 @@
         <v>0.5154345266253137</v>
       </c>
       <c r="I84" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2908,7 +2908,7 @@
         <v>0.4935624722006787</v>
       </c>
       <c r="I85" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2966,7 +2966,7 @@
         <v>0.4362570391067728</v>
       </c>
       <c r="I87" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2995,7 +2995,7 @@
         <v>0.4080276590734603</v>
       </c>
       <c r="I88" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3053,7 +3053,7 @@
         <v>0.4048095225920495</v>
       </c>
       <c r="I90" t="n">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="91">
@@ -3082,7 +3082,7 @@
         <v>0.3986213671528498</v>
       </c>
       <c r="I91" t="n">
-        <v>0.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3169,7 +3169,7 @@
         <v>0.402984544082494</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3198,7 +3198,7 @@
         <v>0.3989491708773493</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3227,7 +3227,7 @@
         <v>0.3971891626144514</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3256,7 +3256,7 @@
         <v>0.3982818190686889</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3285,7 +3285,7 @@
         <v>0.4244531684817894</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3459,7 +3459,7 @@
         <v>0.6290084420492646</v>
       </c>
       <c r="I104" t="n">
-        <v>0.9419999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3488,7 +3488,7 @@
         <v>0.6060775895139948</v>
       </c>
       <c r="I105" t="n">
-        <v>0.9419999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -3517,7 +3517,7 @@
         <v>0.5754896809851836</v>
       </c>
       <c r="I106" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -3546,7 +3546,7 @@
         <v>0.5460471116331402</v>
       </c>
       <c r="I107" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -3575,7 +3575,7 @@
         <v>0.5154345266253137</v>
       </c>
       <c r="I108" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -3604,7 +3604,7 @@
         <v>0.4935624722006787</v>
       </c>
       <c r="I109" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -3662,7 +3662,7 @@
         <v>0.4362570391067728</v>
       </c>
       <c r="I111" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -3691,7 +3691,7 @@
         <v>0.4080276590734603</v>
       </c>
       <c r="I112" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3749,7 +3749,7 @@
         <v>0.4048095225920495</v>
       </c>
       <c r="I114" t="n">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="115">
@@ -3778,7 +3778,7 @@
         <v>0.3986213671528498</v>
       </c>
       <c r="I115" t="n">
-        <v>0.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3865,7 +3865,7 @@
         <v>0.402984544082494</v>
       </c>
       <c r="I118" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3894,7 +3894,7 @@
         <v>0.3989491708773493</v>
       </c>
       <c r="I119" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -3923,7 +3923,7 @@
         <v>0.3971891626144514</v>
       </c>
       <c r="I120" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3952,7 +3952,7 @@
         <v>0.3982818190686889</v>
       </c>
       <c r="I121" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3981,7 +3981,7 @@
         <v>0.4244531684817894</v>
       </c>
       <c r="I122" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -4155,7 +4155,7 @@
         <v>0.6290084420492646</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9419999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -4184,7 +4184,7 @@
         <v>0.6060775895139948</v>
       </c>
       <c r="I129" t="n">
-        <v>0.9419999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -4213,7 +4213,7 @@
         <v>0.5754896809851836</v>
       </c>
       <c r="I130" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -4242,7 +4242,7 @@
         <v>0.5460471116331402</v>
       </c>
       <c r="I131" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -4271,7 +4271,7 @@
         <v>0.5154345266253137</v>
       </c>
       <c r="I132" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -4300,7 +4300,7 @@
         <v>0.4935624722006787</v>
       </c>
       <c r="I133" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -4358,7 +4358,7 @@
         <v>0.4362570391067728</v>
       </c>
       <c r="I135" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -4387,7 +4387,7 @@
         <v>0.4080276590734603</v>
       </c>
       <c r="I136" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -4445,7 +4445,7 @@
         <v>0.4048095225920495</v>
       </c>
       <c r="I138" t="n">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="139">
@@ -4474,7 +4474,7 @@
         <v>0.3986213671528498</v>
       </c>
       <c r="I139" t="n">
-        <v>0.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -4561,7 +4561,7 @@
         <v>0.402984544082494</v>
       </c>
       <c r="I142" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -4590,7 +4590,7 @@
         <v>0.3989491708773493</v>
       </c>
       <c r="I143" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -4619,7 +4619,7 @@
         <v>0.3971891626144514</v>
       </c>
       <c r="I144" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -4648,7 +4648,7 @@
         <v>0.3982818190686889</v>
       </c>
       <c r="I145" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -4677,7 +4677,7 @@
         <v>0.4244531684817894</v>
       </c>
       <c r="I146" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -4793,7 +4793,7 @@
         <v>0.5122106547986152</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -4822,7 +4822,7 @@
         <v>0.6290084420492646</v>
       </c>
       <c r="I151" t="n">
-        <v>0.9419999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -4851,7 +4851,7 @@
         <v>0.6290084420492646</v>
       </c>
       <c r="I152" t="n">
-        <v>0.9419999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -4880,7 +4880,7 @@
         <v>0.6060775895139948</v>
       </c>
       <c r="I153" t="n">
-        <v>0.9419999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -4909,7 +4909,7 @@
         <v>0.5754896809851836</v>
       </c>
       <c r="I154" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -4938,7 +4938,7 @@
         <v>0.5460471116331402</v>
       </c>
       <c r="I155" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -4967,7 +4967,7 @@
         <v>0.5154345266253137</v>
       </c>
       <c r="I156" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -4996,7 +4996,7 @@
         <v>0.4935624722006787</v>
       </c>
       <c r="I157" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -5054,7 +5054,7 @@
         <v>0.4362570391067728</v>
       </c>
       <c r="I159" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -5083,7 +5083,7 @@
         <v>0.4080276590734603</v>
       </c>
       <c r="I160" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -5141,7 +5141,7 @@
         <v>0.4048095225920495</v>
       </c>
       <c r="I162" t="n">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="163">
@@ -5170,7 +5170,7 @@
         <v>0.3986213671528498</v>
       </c>
       <c r="I163" t="n">
-        <v>0.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -5257,7 +5257,7 @@
         <v>0.402984544082494</v>
       </c>
       <c r="I166" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -5286,7 +5286,7 @@
         <v>0.3989491708773493</v>
       </c>
       <c r="I167" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -5315,7 +5315,7 @@
         <v>0.3971891626144514</v>
       </c>
       <c r="I168" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -5344,7 +5344,7 @@
         <v>0.3982818190686889</v>
       </c>
       <c r="I169" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -5373,7 +5373,7 @@
         <v>0.4244531684817894</v>
       </c>
       <c r="I170" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -5489,7 +5489,7 @@
         <v>0.5122106547986152</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -5518,7 +5518,7 @@
         <v>0.5391931193848636</v>
       </c>
       <c r="I175" t="n">
-        <v>0.9419999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -5547,7 +5547,7 @@
         <v>0.6060775895139948</v>
       </c>
       <c r="I176" t="n">
-        <v>0.9419999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -5576,7 +5576,7 @@
         <v>0.6060775895139948</v>
       </c>
       <c r="I177" t="n">
-        <v>0.9419999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -5605,7 +5605,7 @@
         <v>0.5754896809851836</v>
       </c>
       <c r="I178" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -5634,7 +5634,7 @@
         <v>0.5460471116331402</v>
       </c>
       <c r="I179" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -5663,7 +5663,7 @@
         <v>0.5154345266253137</v>
       </c>
       <c r="I180" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -5692,7 +5692,7 @@
         <v>0.4935624722006787</v>
       </c>
       <c r="I181" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -5750,7 +5750,7 @@
         <v>0.4362570391067728</v>
       </c>
       <c r="I183" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -5779,7 +5779,7 @@
         <v>0.4080276590734603</v>
       </c>
       <c r="I184" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -5837,7 +5837,7 @@
         <v>0.4048095225920495</v>
       </c>
       <c r="I186" t="n">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="187">
@@ -5866,7 +5866,7 @@
         <v>0.3986213671528498</v>
       </c>
       <c r="I187" t="n">
-        <v>0.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -5953,7 +5953,7 @@
         <v>0.402984544082494</v>
       </c>
       <c r="I190" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -5982,7 +5982,7 @@
         <v>0.3989491708773493</v>
       </c>
       <c r="I191" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -6011,7 +6011,7 @@
         <v>0.3971891626144514</v>
       </c>
       <c r="I192" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -6040,7 +6040,7 @@
         <v>0.3982818190686889</v>
       </c>
       <c r="I193" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -6069,7 +6069,7 @@
         <v>0.4244531684817894</v>
       </c>
       <c r="I194" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -6185,7 +6185,7 @@
         <v>0.5122106547986152</v>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -6214,7 +6214,7 @@
         <v>0.5391931193848636</v>
       </c>
       <c r="I199" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -6272,7 +6272,7 @@
         <v>0.5754896809851836</v>
       </c>
       <c r="I201" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -6301,7 +6301,7 @@
         <v>0.5754896809851836</v>
       </c>
       <c r="I202" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -6330,7 +6330,7 @@
         <v>0.5460471116331402</v>
       </c>
       <c r="I203" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -6359,7 +6359,7 @@
         <v>0.5154345266253137</v>
       </c>
       <c r="I204" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -6388,7 +6388,7 @@
         <v>0.4935624722006787</v>
       </c>
       <c r="I205" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -6446,7 +6446,7 @@
         <v>0.4362570391067728</v>
       </c>
       <c r="I207" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -6475,7 +6475,7 @@
         <v>0.4080276590734603</v>
       </c>
       <c r="I208" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -6533,7 +6533,7 @@
         <v>0.4048095225920495</v>
       </c>
       <c r="I210" t="n">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="211">
@@ -6562,7 +6562,7 @@
         <v>0.3986213671528498</v>
       </c>
       <c r="I211" t="n">
-        <v>0.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -6649,7 +6649,7 @@
         <v>0.402984544082494</v>
       </c>
       <c r="I214" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -6678,7 +6678,7 @@
         <v>0.3989491708773493</v>
       </c>
       <c r="I215" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -6707,7 +6707,7 @@
         <v>0.3971891626144514</v>
       </c>
       <c r="I216" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -6736,7 +6736,7 @@
         <v>0.3982818190686889</v>
       </c>
       <c r="I217" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -6765,7 +6765,7 @@
         <v>0.4244531684817894</v>
       </c>
       <c r="I218" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -6881,7 +6881,7 @@
         <v>0.5122106547986152</v>
       </c>
       <c r="I222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -6910,7 +6910,7 @@
         <v>0.5391931193848636</v>
       </c>
       <c r="I223" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -6997,7 +6997,7 @@
         <v>0.5460471116331402</v>
       </c>
       <c r="I226" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -7026,7 +7026,7 @@
         <v>0.5460471116331402</v>
       </c>
       <c r="I227" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -7055,7 +7055,7 @@
         <v>0.5154345266253137</v>
       </c>
       <c r="I228" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -7084,7 +7084,7 @@
         <v>0.4935624722006787</v>
       </c>
       <c r="I229" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -7142,7 +7142,7 @@
         <v>0.4362570391067728</v>
       </c>
       <c r="I231" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -7171,7 +7171,7 @@
         <v>0.4080276590734603</v>
       </c>
       <c r="I232" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -7229,7 +7229,7 @@
         <v>0.4048095225920495</v>
       </c>
       <c r="I234" t="n">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="235">
@@ -7258,7 +7258,7 @@
         <v>0.3986213671528498</v>
       </c>
       <c r="I235" t="n">
-        <v>0.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -7345,7 +7345,7 @@
         <v>0.402984544082494</v>
       </c>
       <c r="I238" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -7374,7 +7374,7 @@
         <v>0.3989491708773493</v>
       </c>
       <c r="I239" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -7403,7 +7403,7 @@
         <v>0.3971891626144514</v>
       </c>
       <c r="I240" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -7432,7 +7432,7 @@
         <v>0.3982818190686889</v>
       </c>
       <c r="I241" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -7461,7 +7461,7 @@
         <v>0.4244531684817894</v>
       </c>
       <c r="I242" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -7577,7 +7577,7 @@
         <v>0.5122106547986152</v>
       </c>
       <c r="I246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -7606,7 +7606,7 @@
         <v>0.5391931193848636</v>
       </c>
       <c r="I247" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -7722,7 +7722,7 @@
         <v>0.5154345266253137</v>
       </c>
       <c r="I251" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -7751,7 +7751,7 @@
         <v>0.5154345266253137</v>
       </c>
       <c r="I252" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -7780,7 +7780,7 @@
         <v>0.4935624722006787</v>
       </c>
       <c r="I253" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -7838,7 +7838,7 @@
         <v>0.4362570391067728</v>
       </c>
       <c r="I255" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -7867,7 +7867,7 @@
         <v>0.4080276590734603</v>
       </c>
       <c r="I256" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -7925,7 +7925,7 @@
         <v>0.4048095225920495</v>
       </c>
       <c r="I258" t="n">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="259">
@@ -7954,7 +7954,7 @@
         <v>0.3986213671528498</v>
       </c>
       <c r="I259" t="n">
-        <v>0.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -8041,7 +8041,7 @@
         <v>0.402984544082494</v>
       </c>
       <c r="I262" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -8070,7 +8070,7 @@
         <v>0.3989491708773493</v>
       </c>
       <c r="I263" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -8099,7 +8099,7 @@
         <v>0.3971891626144514</v>
       </c>
       <c r="I264" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -8128,7 +8128,7 @@
         <v>0.3982818190686889</v>
       </c>
       <c r="I265" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -8157,7 +8157,7 @@
         <v>0.4244531684817894</v>
       </c>
       <c r="I266" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -8273,7 +8273,7 @@
         <v>0.5122106547986152</v>
       </c>
       <c r="I270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -8302,7 +8302,7 @@
         <v>0.5391931193848636</v>
       </c>
       <c r="I271" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -8418,7 +8418,7 @@
         <v>0.4872784765454366</v>
       </c>
       <c r="I275" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -8447,7 +8447,7 @@
         <v>0.4935624722006787</v>
       </c>
       <c r="I276" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -8476,7 +8476,7 @@
         <v>0.526918678412031</v>
       </c>
       <c r="I277" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -8534,7 +8534,7 @@
         <v>0.4733876335464569</v>
       </c>
       <c r="I279" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -8563,7 +8563,7 @@
         <v>0.4470175648199142</v>
       </c>
       <c r="I280" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -8621,7 +8621,7 @@
         <v>0.444011388981619</v>
       </c>
       <c r="I282" t="n">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="283">
@@ -8650,7 +8650,7 @@
         <v>0.4382308127156981</v>
       </c>
       <c r="I283" t="n">
-        <v>0.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -8737,7 +8737,7 @@
         <v>0.4423066115949157</v>
       </c>
       <c r="I286" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -8766,7 +8766,7 @@
         <v>0.4385370258430735</v>
       </c>
       <c r="I287" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -8795,7 +8795,7 @@
         <v>0.4368929394764182</v>
       </c>
       <c r="I288" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -8824,7 +8824,7 @@
         <v>0.4379136287639173</v>
       </c>
       <c r="I289" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -8853,7 +8853,7 @@
         <v>0.4623612178315983</v>
       </c>
       <c r="I290" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -8969,7 +8969,7 @@
         <v>0.5443386095671752</v>
       </c>
       <c r="I294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -8998,7 +8998,7 @@
         <v>0.5695438901901014</v>
       </c>
       <c r="I295" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -9114,7 +9114,7 @@
         <v>0.5210485743888296</v>
       </c>
       <c r="I299" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -9143,7 +9143,7 @@
         <v>0.5020625948720712</v>
       </c>
       <c r="I300" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -9230,7 +9230,7 @@
         <v>0.5226630997954267</v>
       </c>
       <c r="I303" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -9259,7 +9259,7 @@
         <v>0.4987604957816261</v>
       </c>
       <c r="I304" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -9317,7 +9317,7 @@
         <v>0.4960356097980602</v>
       </c>
       <c r="I306" t="n">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="307">
@@ -9346,7 +9346,7 @@
         <v>0.4907959258636454</v>
       </c>
       <c r="I307" t="n">
-        <v>0.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -9433,7 +9433,7 @@
         <v>0.4944903495551458</v>
       </c>
       <c r="I310" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -9462,7 +9462,7 @@
         <v>0.4910734864268499</v>
       </c>
       <c r="I311" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -9491,7 +9491,7 @@
         <v>0.4895832383052326</v>
       </c>
       <c r="I312" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -9520,7 +9520,7 @@
         <v>0.4905084210233066</v>
       </c>
       <c r="I313" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -9549,7 +9549,7 @@
         <v>0.5126684330671399</v>
       </c>
       <c r="I314" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -9665,7 +9665,7 @@
         <v>0.5869751462220965</v>
       </c>
       <c r="I318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -9694,7 +9694,7 @@
         <v>0.6098219521229135</v>
       </c>
       <c r="I319" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -9810,7 +9810,7 @@
         <v>0.5658643749871644</v>
       </c>
       <c r="I323" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -9839,7 +9839,7 @@
         <v>0.548654926088519</v>
       </c>
       <c r="I324" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -9897,7 +9897,7 @@
         <v>0.5226630997954267</v>
       </c>
       <c r="I326" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -9926,7 +9926,7 @@
         <v>0.5226630997954267</v>
       </c>
       <c r="I327" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -9955,7 +9955,7 @@
         <v>0.4987604957816261</v>
       </c>
       <c r="I328" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -10013,7 +10013,7 @@
         <v>0.4960356097980602</v>
       </c>
       <c r="I330" t="n">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="331">
@@ -10042,7 +10042,7 @@
         <v>0.4907959258636454</v>
       </c>
       <c r="I331" t="n">
-        <v>0.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -10129,7 +10129,7 @@
         <v>0.4944903495551458</v>
       </c>
       <c r="I334" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -10158,7 +10158,7 @@
         <v>0.4910734864268499</v>
       </c>
       <c r="I335" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -10187,7 +10187,7 @@
         <v>0.4895832383052326</v>
       </c>
       <c r="I336" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -10216,7 +10216,7 @@
         <v>0.4905084210233066</v>
       </c>
       <c r="I337" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -10245,7 +10245,7 @@
         <v>0.5126684330671399</v>
       </c>
       <c r="I338" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -10361,7 +10361,7 @@
         <v>0.5869751462220965</v>
       </c>
       <c r="I342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -10390,7 +10390,7 @@
         <v>0.6098219521229135</v>
       </c>
       <c r="I343" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -10506,7 +10506,7 @@
         <v>0.5658643749871644</v>
       </c>
       <c r="I347" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -10535,7 +10535,7 @@
         <v>0.548654926088519</v>
       </c>
       <c r="I348" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -10622,7 +10622,7 @@
         <v>0.4987604957816261</v>
       </c>
       <c r="I351" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -10651,7 +10651,7 @@
         <v>0.5275112298240541</v>
       </c>
       <c r="I352" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -10709,7 +10709,7 @@
         <v>0.5249426413221314</v>
       </c>
       <c r="I354" t="n">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="355">
@@ -10738,7 +10738,7 @@
         <v>0.5200035018539787</v>
       </c>
       <c r="I355" t="n">
-        <v>0.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -10825,7 +10825,7 @@
         <v>0.523486016084831</v>
       </c>
       <c r="I358" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -10854,7 +10854,7 @@
         <v>0.5202651417447977</v>
       </c>
       <c r="I359" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -10883,7 +10883,7 @@
         <v>0.5188603731734577</v>
       </c>
       <c r="I360" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -10912,7 +10912,7 @@
         <v>0.5197324880825419</v>
       </c>
       <c r="I361" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -10941,7 +10941,7 @@
         <v>0.5406214179245787</v>
       </c>
       <c r="I362" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -11057,7 +11057,7 @@
         <v>0.6106659519625549</v>
       </c>
       <c r="I366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -11086,7 +11086,7 @@
         <v>0.6322022816645781</v>
       </c>
       <c r="I367" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -11202,7 +11202,7 @@
         <v>0.5907660792384107</v>
       </c>
       <c r="I371" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -11231,7 +11231,7 @@
         <v>0.5745437518338568</v>
       </c>
       <c r="I372" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -11318,7 +11318,7 @@
         <v>0.5721707110650142</v>
       </c>
       <c r="I375" t="n">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -11405,7 +11405,7 @@
         <v>0.5742453970094907</v>
       </c>
       <c r="I378" t="n">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="379">
@@ -11434,7 +11434,7 @@
         <v>0.5698188549825856</v>
       </c>
       <c r="I379" t="n">
-        <v>0.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -11521,7 +11521,7 @@
         <v>0.5729399443345995</v>
       </c>
       <c r="I382" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -11550,7 +11550,7 @@
         <v>0.5700533411679004</v>
       </c>
       <c r="I383" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -11579,7 +11579,7 @@
         <v>0.568794363331942</v>
       </c>
       <c r="I384" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -11608,7 +11608,7 @@
         <v>0.5695759677636945</v>
       </c>
       <c r="I385" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -11637,7 +11637,7 @@
         <v>0.5882969871718448</v>
       </c>
       <c r="I386" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -11753,7 +11753,7 @@
         <v>0.6510721073467868</v>
       </c>
       <c r="I390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -11782,7 +11782,7 @@
         <v>0.6703733376817435</v>
       </c>
       <c r="I391" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -11898,7 +11898,7 @@
         <v>0.6332374979960141</v>
       </c>
       <c r="I395" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -11927,7 +11927,7 @@
         <v>0.6186987682246661</v>
       </c>
       <c r="I396" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -12014,7 +12014,7 @@
         <v>0.6165720081356723</v>
       </c>
       <c r="I399" t="n">
-        <v>0.997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -12043,7 +12043,7 @@
         <v>0.5861793209673607</v>
       </c>
       <c r="I400" t="n">
-        <v>0.997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -12072,7 +12072,7 @@
         <v>0.5742453970094907</v>
       </c>
       <c r="I401" t="n">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="402">
@@ -12101,7 +12101,7 @@
         <v>0.5742453970094907</v>
       </c>
       <c r="I402" t="n">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="403">
@@ -12130,7 +12130,7 @@
         <v>0.5698188549825856</v>
       </c>
       <c r="I403" t="n">
-        <v>0.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -12217,7 +12217,7 @@
         <v>0.5729399443345995</v>
       </c>
       <c r="I406" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -12246,7 +12246,7 @@
         <v>0.5700533411679004</v>
       </c>
       <c r="I407" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -12275,7 +12275,7 @@
         <v>0.568794363331942</v>
       </c>
       <c r="I408" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -12304,7 +12304,7 @@
         <v>0.5695759677636945</v>
       </c>
       <c r="I409" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -12333,7 +12333,7 @@
         <v>0.5882969871718448</v>
       </c>
       <c r="I410" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -12449,7 +12449,7 @@
         <v>0.6510721073467868</v>
       </c>
       <c r="I414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -12478,7 +12478,7 @@
         <v>0.6703733376817435</v>
       </c>
       <c r="I415" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -12594,7 +12594,7 @@
         <v>0.6332374979960141</v>
       </c>
       <c r="I419" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -12623,7 +12623,7 @@
         <v>0.6186987682246661</v>
       </c>
       <c r="I420" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -12710,7 +12710,7 @@
         <v>0.6165720081356723</v>
       </c>
       <c r="I423" t="n">
-        <v>0.4585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -12739,7 +12739,7 @@
         <v>0.5861793209673607</v>
       </c>
       <c r="I424" t="n">
-        <v>0.4585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -12797,7 +12797,7 @@
         <v>0.5698188549825856</v>
       </c>
       <c r="I426" t="n">
-        <v>0.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -12826,7 +12826,7 @@
         <v>0.5698188549825856</v>
       </c>
       <c r="I427" t="n">
-        <v>0.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -12913,7 +12913,7 @@
         <v>0.5729399443345995</v>
       </c>
       <c r="I430" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -12942,7 +12942,7 @@
         <v>0.5700533411679004</v>
       </c>
       <c r="I431" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -12971,7 +12971,7 @@
         <v>0.568794363331942</v>
       </c>
       <c r="I432" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -13000,7 +13000,7 @@
         <v>0.5695759677636945</v>
       </c>
       <c r="I433" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -13029,7 +13029,7 @@
         <v>0.5882969871718448</v>
       </c>
       <c r="I434" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -13145,7 +13145,7 @@
         <v>0.6510721073467868</v>
       </c>
       <c r="I438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -13174,7 +13174,7 @@
         <v>0.6703733376817435</v>
       </c>
       <c r="I439" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -13290,7 +13290,7 @@
         <v>0.6332374979960141</v>
       </c>
       <c r="I443" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -13319,7 +13319,7 @@
         <v>0.6186987682246661</v>
       </c>
       <c r="I444" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -13406,7 +13406,7 @@
         <v>0.6165720081356723</v>
       </c>
       <c r="I447" t="n">
-        <v>0.4585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -13435,7 +13435,7 @@
         <v>0.5861793209673607</v>
       </c>
       <c r="I448" t="n">
-        <v>0.4585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -13609,7 +13609,7 @@
         <v>0.5729399443345995</v>
       </c>
       <c r="I454" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -13638,7 +13638,7 @@
         <v>0.5700533411679004</v>
       </c>
       <c r="I455" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -13667,7 +13667,7 @@
         <v>0.568794363331942</v>
       </c>
       <c r="I456" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -13696,7 +13696,7 @@
         <v>0.5695759677636945</v>
       </c>
       <c r="I457" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
@@ -13725,7 +13725,7 @@
         <v>0.5882969871718448</v>
       </c>
       <c r="I458" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
@@ -13841,7 +13841,7 @@
         <v>0.6510721073467868</v>
       </c>
       <c r="I462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -13870,7 +13870,7 @@
         <v>0.6703733376817435</v>
       </c>
       <c r="I463" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -13986,7 +13986,7 @@
         <v>0.6332374979960141</v>
       </c>
       <c r="I467" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -14015,7 +14015,7 @@
         <v>0.6186987682246661</v>
       </c>
       <c r="I468" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -14102,7 +14102,7 @@
         <v>0.6165720081356723</v>
       </c>
       <c r="I471" t="n">
-        <v>0.4585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
@@ -14131,7 +14131,7 @@
         <v>0.5861793209673607</v>
       </c>
       <c r="I472" t="n">
-        <v>0.4585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -14218,7 +14218,7 @@
         <v>0.4994703402030393</v>
       </c>
       <c r="I475" t="n">
-        <v>0.9333333333333332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
@@ -14305,7 +14305,7 @@
         <v>0.5729399443345995</v>
       </c>
       <c r="I478" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -14334,7 +14334,7 @@
         <v>0.5700533411679004</v>
       </c>
       <c r="I479" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -14363,7 +14363,7 @@
         <v>0.568794363331942</v>
       </c>
       <c r="I480" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -14392,7 +14392,7 @@
         <v>0.5695759677636945</v>
       </c>
       <c r="I481" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -14421,7 +14421,7 @@
         <v>0.5882969871718448</v>
       </c>
       <c r="I482" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -14537,7 +14537,7 @@
         <v>0.6510721073467868</v>
       </c>
       <c r="I486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -14566,7 +14566,7 @@
         <v>0.6703733376817435</v>
       </c>
       <c r="I487" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -14682,7 +14682,7 @@
         <v>0.6332374979960141</v>
       </c>
       <c r="I491" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -14711,7 +14711,7 @@
         <v>0.6186987682246661</v>
       </c>
       <c r="I492" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -14798,7 +14798,7 @@
         <v>0.6165720081356723</v>
       </c>
       <c r="I495" t="n">
-        <v>0.4585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -14827,7 +14827,7 @@
         <v>0.5861793209673607</v>
       </c>
       <c r="I496" t="n">
-        <v>0.4585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -14914,7 +14914,7 @@
         <v>0.4994703402030393</v>
       </c>
       <c r="I499" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -14943,7 +14943,7 @@
         <v>0.4621121310975138</v>
       </c>
       <c r="I500" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
@@ -14972,7 +14972,7 @@
         <v>0.5729399443345995</v>
       </c>
       <c r="I501" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
@@ -15001,7 +15001,7 @@
         <v>0.5729399443345995</v>
       </c>
       <c r="I502" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
@@ -15030,7 +15030,7 @@
         <v>0.5700533411679004</v>
       </c>
       <c r="I503" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
@@ -15059,7 +15059,7 @@
         <v>0.568794363331942</v>
       </c>
       <c r="I504" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -15088,7 +15088,7 @@
         <v>0.5695759677636945</v>
       </c>
       <c r="I505" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -15117,7 +15117,7 @@
         <v>0.5882969871718448</v>
       </c>
       <c r="I506" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -15233,7 +15233,7 @@
         <v>0.6510721073467868</v>
       </c>
       <c r="I510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -15262,7 +15262,7 @@
         <v>0.6703733376817435</v>
       </c>
       <c r="I511" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
@@ -15378,7 +15378,7 @@
         <v>0.6332374979960141</v>
       </c>
       <c r="I515" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -15407,7 +15407,7 @@
         <v>0.6186987682246661</v>
       </c>
       <c r="I516" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -15494,7 +15494,7 @@
         <v>0.6165720081356723</v>
       </c>
       <c r="I519" t="n">
-        <v>0.4585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -15523,7 +15523,7 @@
         <v>0.5861793209673607</v>
       </c>
       <c r="I520" t="n">
-        <v>0.4585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -15610,7 +15610,7 @@
         <v>0.4994703402030393</v>
       </c>
       <c r="I523" t="n">
-        <v>0.6613333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -15639,7 +15639,7 @@
         <v>0.4621121310975138</v>
       </c>
       <c r="I524" t="n">
-        <v>0.6613333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -15697,7 +15697,7 @@
         <v>0.5700533411679004</v>
       </c>
       <c r="I526" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -15726,7 +15726,7 @@
         <v>0.5700533411679004</v>
       </c>
       <c r="I527" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -15755,7 +15755,7 @@
         <v>0.568794363331942</v>
       </c>
       <c r="I528" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -15784,7 +15784,7 @@
         <v>0.5695759677636945</v>
       </c>
       <c r="I529" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -15813,7 +15813,7 @@
         <v>0.5882969871718448</v>
       </c>
       <c r="I530" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
@@ -15929,7 +15929,7 @@
         <v>0.6510721073467868</v>
       </c>
       <c r="I534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -15958,7 +15958,7 @@
         <v>0.6703733376817435</v>
       </c>
       <c r="I535" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
@@ -16074,7 +16074,7 @@
         <v>0.6332374979960141</v>
       </c>
       <c r="I539" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -16103,7 +16103,7 @@
         <v>0.6186987682246661</v>
       </c>
       <c r="I540" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -16190,7 +16190,7 @@
         <v>0.6165720081356723</v>
       </c>
       <c r="I543" t="n">
-        <v>0.4585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -16219,7 +16219,7 @@
         <v>0.5861793209673607</v>
       </c>
       <c r="I544" t="n">
-        <v>0.4585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
@@ -16306,7 +16306,7 @@
         <v>0.4994703402030393</v>
       </c>
       <c r="I547" t="n">
-        <v>0.6613333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
@@ -16335,7 +16335,7 @@
         <v>0.4621121310975138</v>
       </c>
       <c r="I548" t="n">
-        <v>0.6613333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -16422,7 +16422,7 @@
         <v>0.568794363331942</v>
       </c>
       <c r="I551" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -16451,7 +16451,7 @@
         <v>0.568794363331942</v>
       </c>
       <c r="I552" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -16480,7 +16480,7 @@
         <v>0.5695759677636945</v>
       </c>
       <c r="I553" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -16509,7 +16509,7 @@
         <v>0.5882969871718448</v>
       </c>
       <c r="I554" t="n">
-        <v>0.9892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
@@ -16625,7 +16625,7 @@
         <v>0.6510721073467868</v>
       </c>
       <c r="I558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
@@ -16654,7 +16654,7 @@
         <v>0.6703733376817435</v>
       </c>
       <c r="I559" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -16770,7 +16770,7 @@
         <v>0.6332374979960141</v>
       </c>
       <c r="I563" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -16799,7 +16799,7 @@
         <v>0.6186987682246661</v>
       </c>
       <c r="I564" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
@@ -16886,7 +16886,7 @@
         <v>0.6165720081356723</v>
       </c>
       <c r="I567" t="n">
-        <v>0.4585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -16915,7 +16915,7 @@
         <v>0.5861793209673607</v>
       </c>
       <c r="I568" t="n">
-        <v>0.4585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -17002,7 +17002,7 @@
         <v>0.4994703402030393</v>
       </c>
       <c r="I571" t="n">
-        <v>0.6613333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
@@ -17031,7 +17031,7 @@
         <v>0.4621121310975138</v>
       </c>
       <c r="I572" t="n">
-        <v>0.6613333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">

--- a/Excel reports/x_valid_dataset.xlsx
+++ b/Excel reports/x_valid_dataset.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>APISentiment</t>
+          <t>CombinedVaderSentiment</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
         <v>0.3099189615015082</v>
       </c>
       <c r="I13" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="14">
@@ -849,7 +849,7 @@
         <v>0.3021304818983255</v>
       </c>
       <c r="I14" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="15">
@@ -878,7 +878,7 @@
         <v>0.2986233558912917</v>
       </c>
       <c r="I15" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -907,7 +907,7 @@
         <v>0.3101103813978659</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="17">
@@ -936,7 +936,7 @@
         <v>0.3250201297638102</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="18">
@@ -965,7 +965,7 @@
         <v>0.3331089825252566</v>
       </c>
       <c r="I18" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -994,7 +994,7 @@
         <v>0.3442492118834852</v>
       </c>
       <c r="I19" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="20">
@@ -1023,7 +1023,7 @@
         <v>0.3450911724895985</v>
       </c>
       <c r="I20" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="21">
@@ -1052,7 +1052,7 @@
         <v>0.3381471912352629</v>
       </c>
       <c r="I21" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="22">
@@ -1081,7 +1081,7 @@
         <v>0.3306733149240331</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1110,7 +1110,7 @@
         <v>0.3235963314396159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -1139,7 +1139,7 @@
         <v>0.3231558665151487</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="25">
@@ -1168,7 +1168,7 @@
         <v>0.3244792830950087</v>
       </c>
       <c r="I25" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="26">
@@ -1516,7 +1516,7 @@
         <v>0.3099189615015082</v>
       </c>
       <c r="I37" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="38">
@@ -1545,7 +1545,7 @@
         <v>0.3021304818983255</v>
       </c>
       <c r="I38" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="39">
@@ -1574,7 +1574,7 @@
         <v>0.2986233558912917</v>
       </c>
       <c r="I39" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -1603,7 +1603,7 @@
         <v>0.3101103813978659</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="41">
@@ -1632,7 +1632,7 @@
         <v>0.3250201297638102</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="42">
@@ -1661,7 +1661,7 @@
         <v>0.3331089825252566</v>
       </c>
       <c r="I42" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1690,7 +1690,7 @@
         <v>0.3442492118834852</v>
       </c>
       <c r="I43" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="44">
@@ -1719,7 +1719,7 @@
         <v>0.3450911724895985</v>
       </c>
       <c r="I44" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="45">
@@ -1748,7 +1748,7 @@
         <v>0.3381471912352629</v>
       </c>
       <c r="I45" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="46">
@@ -1777,7 +1777,7 @@
         <v>0.3306733149240331</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1806,7 +1806,7 @@
         <v>0.3235963314396159</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1835,7 +1835,7 @@
         <v>0.3231558665151487</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="49">
@@ -1864,7 +1864,7 @@
         <v>0.3244792830950087</v>
       </c>
       <c r="I49" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="50">
@@ -1893,7 +1893,7 @@
         <v>0.3291139053794162</v>
       </c>
       <c r="I50" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="51">
@@ -2212,7 +2212,7 @@
         <v>0.3099189615015082</v>
       </c>
       <c r="I61" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="62">
@@ -2241,7 +2241,7 @@
         <v>0.3021304818983255</v>
       </c>
       <c r="I62" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="63">
@@ -2270,7 +2270,7 @@
         <v>0.2986233558912917</v>
       </c>
       <c r="I63" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="64">
@@ -2299,7 +2299,7 @@
         <v>0.3101103813978659</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="65">
@@ -2328,7 +2328,7 @@
         <v>0.3250201297638102</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="66">
@@ -2357,7 +2357,7 @@
         <v>0.3331089825252566</v>
       </c>
       <c r="I66" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="67">
@@ -2386,7 +2386,7 @@
         <v>0.3442492118834852</v>
       </c>
       <c r="I67" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="68">
@@ -2415,7 +2415,7 @@
         <v>0.3450911724895985</v>
       </c>
       <c r="I68" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="69">
@@ -2444,7 +2444,7 @@
         <v>0.3381471912352629</v>
       </c>
       <c r="I69" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="70">
@@ -2473,7 +2473,7 @@
         <v>0.3306733149240331</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="71">
@@ -2502,7 +2502,7 @@
         <v>0.3235963314396159</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="72">
@@ -2531,7 +2531,7 @@
         <v>0.3231558665151487</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="73">
@@ -2560,7 +2560,7 @@
         <v>0.3244792830950087</v>
       </c>
       <c r="I73" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="74">
@@ -2589,7 +2589,7 @@
         <v>0.3291139053794162</v>
       </c>
       <c r="I74" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="75">
@@ -2618,7 +2618,7 @@
         <v>0.3423425641385544</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="76">
@@ -2908,7 +2908,7 @@
         <v>0.3099189615015082</v>
       </c>
       <c r="I85" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="86">
@@ -2937,7 +2937,7 @@
         <v>0.3021304818983255</v>
       </c>
       <c r="I86" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="87">
@@ -2966,7 +2966,7 @@
         <v>0.2986233558912917</v>
       </c>
       <c r="I87" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="88">
@@ -2995,7 +2995,7 @@
         <v>0.3101103813978659</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="89">
@@ -3024,7 +3024,7 @@
         <v>0.3250201297638102</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="90">
@@ -3053,7 +3053,7 @@
         <v>0.3331089825252566</v>
       </c>
       <c r="I90" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="91">
@@ -3082,7 +3082,7 @@
         <v>0.3442492118834852</v>
       </c>
       <c r="I91" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="92">
@@ -3111,7 +3111,7 @@
         <v>0.3450911724895985</v>
       </c>
       <c r="I92" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="93">
@@ -3140,7 +3140,7 @@
         <v>0.3381471912352629</v>
       </c>
       <c r="I93" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="94">
@@ -3169,7 +3169,7 @@
         <v>0.3306733149240331</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="95">
@@ -3198,7 +3198,7 @@
         <v>0.3235963314396159</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="96">
@@ -3227,7 +3227,7 @@
         <v>0.3231558665151487</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="97">
@@ -3256,7 +3256,7 @@
         <v>0.3244792830950087</v>
       </c>
       <c r="I97" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="98">
@@ -3285,7 +3285,7 @@
         <v>0.3291139053794162</v>
       </c>
       <c r="I98" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="99">
@@ -3314,7 +3314,7 @@
         <v>0.3423425641385544</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="100">
@@ -3343,7 +3343,7 @@
         <v>0.36327674984729</v>
       </c>
       <c r="I100" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="101">
@@ -3604,7 +3604,7 @@
         <v>0.3099189615015082</v>
       </c>
       <c r="I109" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="110">
@@ -3633,7 +3633,7 @@
         <v>0.3021304818983255</v>
       </c>
       <c r="I110" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="111">
@@ -3662,7 +3662,7 @@
         <v>0.2986233558912917</v>
       </c>
       <c r="I111" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="112">
@@ -3691,7 +3691,7 @@
         <v>0.3101103813978659</v>
       </c>
       <c r="I112" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="113">
@@ -3720,7 +3720,7 @@
         <v>0.3250201297638102</v>
       </c>
       <c r="I113" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="114">
@@ -3749,7 +3749,7 @@
         <v>0.3331089825252566</v>
       </c>
       <c r="I114" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="115">
@@ -3778,7 +3778,7 @@
         <v>0.3442492118834852</v>
       </c>
       <c r="I115" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="116">
@@ -3807,7 +3807,7 @@
         <v>0.3450911724895985</v>
       </c>
       <c r="I116" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="117">
@@ -3836,7 +3836,7 @@
         <v>0.3381471912352629</v>
       </c>
       <c r="I117" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="118">
@@ -3865,7 +3865,7 @@
         <v>0.3306733149240331</v>
       </c>
       <c r="I118" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="119">
@@ -3894,7 +3894,7 @@
         <v>0.3235963314396159</v>
       </c>
       <c r="I119" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="120">
@@ -3923,7 +3923,7 @@
         <v>0.3231558665151487</v>
       </c>
       <c r="I120" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="121">
@@ -3952,7 +3952,7 @@
         <v>0.3244792830950087</v>
       </c>
       <c r="I121" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="122">
@@ -3981,7 +3981,7 @@
         <v>0.3291139053794162</v>
       </c>
       <c r="I122" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="123">
@@ -4010,7 +4010,7 @@
         <v>0.3423425641385544</v>
       </c>
       <c r="I123" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="124">
@@ -4039,7 +4039,7 @@
         <v>0.36327674984729</v>
       </c>
       <c r="I124" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="125">
@@ -4068,7 +4068,7 @@
         <v>0.3992598322295034</v>
       </c>
       <c r="I125" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="126">
@@ -4300,7 +4300,7 @@
         <v>0.3099189615015082</v>
       </c>
       <c r="I133" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="134">
@@ -4329,7 +4329,7 @@
         <v>0.3021304818983255</v>
       </c>
       <c r="I134" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="135">
@@ -4358,7 +4358,7 @@
         <v>0.2986233558912917</v>
       </c>
       <c r="I135" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="136">
@@ -4387,7 +4387,7 @@
         <v>0.3101103813978659</v>
       </c>
       <c r="I136" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="137">
@@ -4416,7 +4416,7 @@
         <v>0.3250201297638102</v>
       </c>
       <c r="I137" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="138">
@@ -4445,7 +4445,7 @@
         <v>0.3331089825252566</v>
       </c>
       <c r="I138" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="139">
@@ -4474,7 +4474,7 @@
         <v>0.3442492118834852</v>
       </c>
       <c r="I139" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="140">
@@ -4503,7 +4503,7 @@
         <v>0.3450911724895985</v>
       </c>
       <c r="I140" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="141">
@@ -4532,7 +4532,7 @@
         <v>0.3381471912352629</v>
       </c>
       <c r="I141" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="142">
@@ -4561,7 +4561,7 @@
         <v>0.3306733149240331</v>
       </c>
       <c r="I142" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="143">
@@ -4590,7 +4590,7 @@
         <v>0.3235963314396159</v>
       </c>
       <c r="I143" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="144">
@@ -4619,7 +4619,7 @@
         <v>0.3231558665151487</v>
       </c>
       <c r="I144" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="145">
@@ -4648,7 +4648,7 @@
         <v>0.3244792830950087</v>
       </c>
       <c r="I145" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="146">
@@ -4677,7 +4677,7 @@
         <v>0.3291139053794162</v>
       </c>
       <c r="I146" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="147">
@@ -4706,7 +4706,7 @@
         <v>0.3423425641385544</v>
       </c>
       <c r="I147" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="148">
@@ -4735,7 +4735,7 @@
         <v>0.36327674984729</v>
       </c>
       <c r="I148" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="149">
@@ -4764,7 +4764,7 @@
         <v>0.3992598322295034</v>
       </c>
       <c r="I149" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="150">
@@ -4996,7 +4996,7 @@
         <v>0.2674496296501308</v>
       </c>
       <c r="I157" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="158">
@@ -5025,7 +5025,7 @@
         <v>0.2607284339694378</v>
       </c>
       <c r="I158" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="159">
@@ -5054,7 +5054,7 @@
         <v>0.2577019023007294</v>
       </c>
       <c r="I159" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="160">
@@ -5083,7 +5083,7 @@
         <v>0.267614818576102</v>
       </c>
       <c r="I160" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="161">
@@ -5112,7 +5112,7 @@
         <v>0.2804814294453729</v>
       </c>
       <c r="I161" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="162">
@@ -5141,7 +5141,7 @@
         <v>0.2874618370489029</v>
       </c>
       <c r="I162" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="163">
@@ -5170,7 +5170,7 @@
         <v>0.2970754799239332</v>
       </c>
       <c r="I163" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="164">
@@ -5199,7 +5199,7 @@
         <v>0.2978020635804931</v>
       </c>
       <c r="I164" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="165">
@@ -5228,7 +5228,7 @@
         <v>0.2918096415429003</v>
       </c>
       <c r="I165" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="166">
@@ -5257,7 +5257,7 @@
         <v>0.2853599379113282</v>
       </c>
       <c r="I166" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="167">
@@ -5286,7 +5286,7 @@
         <v>0.2792527394269972</v>
       </c>
       <c r="I167" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="168">
@@ -5315,7 +5315,7 @@
         <v>0.278872633026434</v>
       </c>
       <c r="I168" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="169">
@@ -5344,7 +5344,7 @@
         <v>0.2800146969790286</v>
       </c>
       <c r="I169" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="170">
@@ -5373,7 +5373,7 @@
         <v>0.2840142199753877</v>
       </c>
       <c r="I170" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="171">
@@ -5402,7 +5402,7 @@
         <v>0.2954301071116843</v>
       </c>
       <c r="I171" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="172">
@@ -5431,7 +5431,7 @@
         <v>0.3134956045814192</v>
       </c>
       <c r="I172" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="173">
@@ -5460,7 +5460,7 @@
         <v>0.3445477932250828</v>
       </c>
       <c r="I173" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="174">
@@ -5518,7 +5518,7 @@
         <v>0.3862209246709208</v>
       </c>
       <c r="I175" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="176">
@@ -5692,7 +5692,7 @@
         <v>0.2633385264289523</v>
       </c>
       <c r="I181" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="182">
@@ -5721,7 +5721,7 @@
         <v>0.2567206456388023</v>
       </c>
       <c r="I182" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="183">
@@ -5750,7 +5750,7 @@
         <v>0.2537406363156604</v>
       </c>
       <c r="I183" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="184">
@@ -5779,7 +5779,7 @@
         <v>0.2635011761525826</v>
       </c>
       <c r="I184" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="185">
@@ -5808,7 +5808,7 @@
         <v>0.2761700078532695</v>
       </c>
       <c r="I185" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="186">
@@ -5837,7 +5837,7 @@
         <v>0.2830431160889837</v>
       </c>
       <c r="I186" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="187">
@@ -5866,7 +5866,7 @@
         <v>0.2925089828080236</v>
       </c>
       <c r="I187" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="188">
@@ -5895,7 +5895,7 @@
         <v>0.2932243977805405</v>
       </c>
       <c r="I188" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="189">
@@ -5924,7 +5924,7 @@
         <v>0.2873240882860596</v>
       </c>
       <c r="I189" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="190">
@@ -5953,7 +5953,7 @@
         <v>0.2809735263037398</v>
       </c>
       <c r="I190" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="191">
@@ -5982,7 +5982,7 @@
         <v>0.2749602046492034</v>
       </c>
       <c r="I191" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="192">
@@ -6011,7 +6011,7 @@
         <v>0.2745859410559374</v>
       </c>
       <c r="I192" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="193">
@@ -6040,7 +6040,7 @@
         <v>0.2757104497671938</v>
       </c>
       <c r="I193" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="194">
@@ -6069,7 +6069,7 @@
         <v>0.2796484940772859</v>
       </c>
       <c r="I194" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="195">
@@ -6098,7 +6098,7 @@
         <v>0.2908889018515806</v>
       </c>
       <c r="I195" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="196">
@@ -6127,7 +6127,7 @@
         <v>0.3086767054432676</v>
       </c>
       <c r="I196" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="197">
@@ -6156,7 +6156,7 @@
         <v>0.3392515752253399</v>
       </c>
       <c r="I197" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="198">
@@ -6214,7 +6214,7 @@
         <v>0.3802841279380995</v>
       </c>
       <c r="I199" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="200">
@@ -6243,7 +6243,7 @@
         <v>0.4085804541859848</v>
       </c>
       <c r="I200" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="201">
@@ -6388,7 +6388,7 @@
         <v>0.2633385264289523</v>
       </c>
       <c r="I205" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="206">
@@ -6417,7 +6417,7 @@
         <v>0.2567206456388023</v>
       </c>
       <c r="I206" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="207">
@@ -6446,7 +6446,7 @@
         <v>0.2537406363156604</v>
       </c>
       <c r="I207" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="208">
@@ -6475,7 +6475,7 @@
         <v>0.2635011761525826</v>
       </c>
       <c r="I208" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="209">
@@ -6504,7 +6504,7 @@
         <v>0.2761700078532695</v>
       </c>
       <c r="I209" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="210">
@@ -6533,7 +6533,7 @@
         <v>0.2830431160889837</v>
       </c>
       <c r="I210" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="211">
@@ -6562,7 +6562,7 @@
         <v>0.2925089828080236</v>
       </c>
       <c r="I211" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="212">
@@ -6591,7 +6591,7 @@
         <v>0.2932243977805405</v>
       </c>
       <c r="I212" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="213">
@@ -6620,7 +6620,7 @@
         <v>0.2873240882860596</v>
       </c>
       <c r="I213" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="214">
@@ -6649,7 +6649,7 @@
         <v>0.2809735263037398</v>
       </c>
       <c r="I214" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="215">
@@ -6678,7 +6678,7 @@
         <v>0.2749602046492034</v>
       </c>
       <c r="I215" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="216">
@@ -6707,7 +6707,7 @@
         <v>0.2745859410559374</v>
       </c>
       <c r="I216" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="217">
@@ -6736,7 +6736,7 @@
         <v>0.2757104497671938</v>
       </c>
       <c r="I217" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="218">
@@ -6765,7 +6765,7 @@
         <v>0.2796484940772859</v>
       </c>
       <c r="I218" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="219">
@@ -6794,7 +6794,7 @@
         <v>0.2908889018515806</v>
       </c>
       <c r="I219" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="220">
@@ -6823,7 +6823,7 @@
         <v>0.3086767054432676</v>
       </c>
       <c r="I220" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="221">
@@ -6852,7 +6852,7 @@
         <v>0.3392515752253399</v>
       </c>
       <c r="I221" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="222">
@@ -6910,7 +6910,7 @@
         <v>0.3802841279380995</v>
       </c>
       <c r="I223" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="224">
@@ -6939,7 +6939,7 @@
         <v>0.4085804541859848</v>
       </c>
       <c r="I224" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="225">
@@ -6968,7 +6968,7 @@
         <v>0.4335882986714845</v>
       </c>
       <c r="I225" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="226">
@@ -7084,7 +7084,7 @@
         <v>0.2633385264289523</v>
       </c>
       <c r="I229" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="230">
@@ -7113,7 +7113,7 @@
         <v>0.2567206456388023</v>
       </c>
       <c r="I230" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="231">
@@ -7142,7 +7142,7 @@
         <v>0.2537406363156604</v>
       </c>
       <c r="I231" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="232">
@@ -7171,7 +7171,7 @@
         <v>0.2635011761525826</v>
       </c>
       <c r="I232" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="233">
@@ -7200,7 +7200,7 @@
         <v>0.2761700078532695</v>
       </c>
       <c r="I233" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="234">
@@ -7229,7 +7229,7 @@
         <v>0.2830431160889837</v>
       </c>
       <c r="I234" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="235">
@@ -7258,7 +7258,7 @@
         <v>0.2925089828080236</v>
       </c>
       <c r="I235" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="236">
@@ -7287,7 +7287,7 @@
         <v>0.2932243977805405</v>
       </c>
       <c r="I236" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="237">
@@ -7316,7 +7316,7 @@
         <v>0.2873240882860596</v>
       </c>
       <c r="I237" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="238">
@@ -7345,7 +7345,7 @@
         <v>0.2809735263037398</v>
       </c>
       <c r="I238" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="239">
@@ -7374,7 +7374,7 @@
         <v>0.2749602046492034</v>
       </c>
       <c r="I239" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="240">
@@ -7403,7 +7403,7 @@
         <v>0.2745859410559374</v>
       </c>
       <c r="I240" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="241">
@@ -7432,7 +7432,7 @@
         <v>0.2757104497671938</v>
       </c>
       <c r="I241" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="242">
@@ -7461,7 +7461,7 @@
         <v>0.2796484940772859</v>
       </c>
       <c r="I242" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="243">
@@ -7490,7 +7490,7 @@
         <v>0.2908889018515806</v>
       </c>
       <c r="I243" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="244">
@@ -7519,7 +7519,7 @@
         <v>0.3086767054432676</v>
       </c>
       <c r="I244" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="245">
@@ -7548,7 +7548,7 @@
         <v>0.3392515752253399</v>
       </c>
       <c r="I245" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="246">
@@ -7606,7 +7606,7 @@
         <v>0.3802841279380995</v>
       </c>
       <c r="I247" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="248">
@@ -7635,7 +7635,7 @@
         <v>0.4085804541859848</v>
       </c>
       <c r="I248" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="249">
@@ -7664,7 +7664,7 @@
         <v>0.4335882986714845</v>
       </c>
       <c r="I249" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="250">
@@ -7780,7 +7780,7 @@
         <v>0.2633385264289523</v>
       </c>
       <c r="I253" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="254">
@@ -7809,7 +7809,7 @@
         <v>0.2567206456388023</v>
       </c>
       <c r="I254" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="255">
@@ -7838,7 +7838,7 @@
         <v>0.2537406363156604</v>
       </c>
       <c r="I255" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="256">
@@ -7867,7 +7867,7 @@
         <v>0.2635011761525826</v>
       </c>
       <c r="I256" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="257">
@@ -7896,7 +7896,7 @@
         <v>0.2761700078532695</v>
       </c>
       <c r="I257" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="258">
@@ -7925,7 +7925,7 @@
         <v>0.2830431160889837</v>
       </c>
       <c r="I258" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="259">
@@ -7954,7 +7954,7 @@
         <v>0.2925089828080236</v>
       </c>
       <c r="I259" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="260">
@@ -7983,7 +7983,7 @@
         <v>0.2932243977805405</v>
       </c>
       <c r="I260" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="261">
@@ -8012,7 +8012,7 @@
         <v>0.2873240882860596</v>
       </c>
       <c r="I261" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="262">
@@ -8041,7 +8041,7 @@
         <v>0.2809735263037398</v>
       </c>
       <c r="I262" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="263">
@@ -8070,7 +8070,7 @@
         <v>0.2749602046492034</v>
       </c>
       <c r="I263" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="264">
@@ -8099,7 +8099,7 @@
         <v>0.2745859410559374</v>
       </c>
       <c r="I264" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="265">
@@ -8128,7 +8128,7 @@
         <v>0.2757104497671938</v>
       </c>
       <c r="I265" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="266">
@@ -8157,7 +8157,7 @@
         <v>0.2796484940772859</v>
       </c>
       <c r="I266" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="267">
@@ -8186,7 +8186,7 @@
         <v>0.2908889018515806</v>
       </c>
       <c r="I267" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="268">
@@ -8215,7 +8215,7 @@
         <v>0.3086767054432676</v>
       </c>
       <c r="I268" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="269">
@@ -8244,7 +8244,7 @@
         <v>0.3392515752253399</v>
       </c>
       <c r="I269" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="270">
@@ -8302,7 +8302,7 @@
         <v>0.3802841279380995</v>
       </c>
       <c r="I271" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="272">
@@ -8331,7 +8331,7 @@
         <v>0.4085804541859848</v>
       </c>
       <c r="I272" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="273">
@@ -8360,7 +8360,7 @@
         <v>0.4335882986714845</v>
       </c>
       <c r="I273" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="274">
@@ -8447,7 +8447,7 @@
         <v>0.2633385264289523</v>
       </c>
       <c r="I276" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="277">
@@ -8476,7 +8476,7 @@
         <v>0.2482521718379608</v>
       </c>
       <c r="I277" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="278">
@@ -8505,7 +8505,7 @@
         <v>0.2414987610929766</v>
       </c>
       <c r="I278" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="279">
@@ -8534,7 +8534,7 @@
         <v>0.2384577230898422</v>
       </c>
       <c r="I279" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="280">
@@ -8563,7 +8563,7 @@
         <v>0.2484181525236311</v>
       </c>
       <c r="I280" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="281">
@@ -8592,7 +8592,7 @@
         <v>0.2613464337735982</v>
       </c>
       <c r="I281" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="282">
@@ -8621,7 +8621,7 @@
         <v>0.268360298858566</v>
       </c>
       <c r="I282" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="283">
@@ -8650,7 +8650,7 @@
         <v>0.2780200204579787</v>
       </c>
       <c r="I283" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="284">
@@ -8679,7 +8679,7 @@
         <v>0.2787500866703695</v>
       </c>
       <c r="I284" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="285">
@@ -8708,7 +8708,7 @@
         <v>0.2727289426210437</v>
       </c>
       <c r="I285" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="286">
@@ -8737,7 +8737,7 @@
         <v>0.2662483252016547</v>
       </c>
       <c r="I286" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="287">
@@ -8766,7 +8766,7 @@
         <v>0.2601118545757051</v>
       </c>
       <c r="I287" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="288">
@@ -8795,7 +8795,7 @@
         <v>0.2597299263040473</v>
       </c>
       <c r="I288" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="289">
@@ -8824,7 +8824,7 @@
         <v>0.2608774642326136</v>
       </c>
       <c r="I289" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="290">
@@ -8853,7 +8853,7 @@
         <v>0.2648961571648863</v>
       </c>
       <c r="I290" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="291">
@@ -8882,7 +8882,7 @@
         <v>0.2763667612824325</v>
       </c>
       <c r="I291" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="292">
@@ -8911,7 +8911,7 @@
         <v>0.2945188476851621</v>
       </c>
       <c r="I292" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="293">
@@ -8940,7 +8940,7 @@
         <v>0.3257198711940876</v>
       </c>
       <c r="I293" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="294">
@@ -8998,7 +8998,7 @@
         <v>0.367592744274081</v>
       </c>
       <c r="I295" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="296">
@@ -9027,7 +9027,7 @@
         <v>0.3964685611383665</v>
       </c>
       <c r="I296" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="297">
@@ -9056,7 +9056,7 @@
         <v>0.4219885502425277</v>
       </c>
       <c r="I297" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="298">
@@ -9143,7 +9143,7 @@
         <v>0.5257956001985015</v>
       </c>
       <c r="I300" t="n">
-        <v>0.991</v>
+        <v>0.86465</v>
       </c>
     </row>
     <row r="301">
@@ -9172,7 +9172,7 @@
         <v>0.2414987610929766</v>
       </c>
       <c r="I301" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="302">
@@ -9201,7 +9201,7 @@
         <v>0.2028195706099022</v>
       </c>
       <c r="I302" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="303">
@@ -9230,7 +9230,7 @@
         <v>0.199763887563989</v>
       </c>
       <c r="I303" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="304">
@@ -9259,7 +9259,7 @@
         <v>0.209772284473029</v>
       </c>
       <c r="I304" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="305">
@@ -9288,7 +9288,7 @@
         <v>0.2227628257906989</v>
       </c>
       <c r="I305" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="306">
@@ -9317,7 +9317,7 @@
         <v>0.229810468274735</v>
       </c>
       <c r="I306" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="307">
@@ -9346,7 +9346,7 @@
         <v>0.2395167091994271</v>
       </c>
       <c r="I307" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="308">
@@ -9375,7 +9375,7 @@
         <v>0.2402502912675555</v>
       </c>
       <c r="I308" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="309">
@@ -9404,7 +9404,7 @@
         <v>0.2342001505690301</v>
       </c>
       <c r="I309" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="310">
@@ -9433,7 +9433,7 @@
         <v>0.2276883237667784</v>
       </c>
       <c r="I310" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="311">
@@ -9462,7 +9462,7 @@
         <v>0.2215223011014477</v>
       </c>
       <c r="I311" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="312">
@@ -9491,7 +9491,7 @@
         <v>0.2211385335381168</v>
       </c>
       <c r="I312" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="313">
@@ -9520,7 +9520,7 @@
         <v>0.2222915977843539</v>
       </c>
       <c r="I313" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="314">
@@ -9549,7 +9549,7 @@
         <v>0.2263296439538592</v>
       </c>
       <c r="I314" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="315">
@@ -9578,7 +9578,7 @@
         <v>0.2378554882518394</v>
       </c>
       <c r="I315" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="316">
@@ -9607,7 +9607,7 @@
         <v>0.2560949915436765</v>
       </c>
       <c r="I316" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="317">
@@ -9636,7 +9636,7 @@
         <v>0.2874462730643595</v>
       </c>
       <c r="I317" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="318">
@@ -9694,7 +9694,7 @@
         <v>0.3295207976912573</v>
       </c>
       <c r="I319" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="320">
@@ -9723,7 +9723,7 @@
         <v>0.3585356748279938</v>
       </c>
       <c r="I320" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="321">
@@ -9752,7 +9752,7 @@
         <v>0.3841785631960771</v>
       </c>
       <c r="I321" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="322">
@@ -9839,7 +9839,7 @@
         <v>0.4884855275516003</v>
       </c>
       <c r="I324" t="n">
-        <v>0.991</v>
+        <v>0.86465</v>
       </c>
     </row>
     <row r="325">
@@ -9868,7 +9868,7 @@
         <v>0.509056434736603</v>
       </c>
       <c r="I325" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="326">
@@ -9897,7 +9897,7 @@
         <v>0.199763887563989</v>
       </c>
       <c r="I326" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="327">
@@ -9926,7 +9926,7 @@
         <v>0.199763887563989</v>
       </c>
       <c r="I327" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="328">
@@ -9955,7 +9955,7 @@
         <v>0.209772284473029</v>
       </c>
       <c r="I328" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="329">
@@ -9984,7 +9984,7 @@
         <v>0.2227628257906989</v>
       </c>
       <c r="I329" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="330">
@@ -10013,7 +10013,7 @@
         <v>0.229810468274735</v>
       </c>
       <c r="I330" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="331">
@@ -10042,7 +10042,7 @@
         <v>0.2395167091994271</v>
       </c>
       <c r="I331" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="332">
@@ -10071,7 +10071,7 @@
         <v>0.2402502912675555</v>
       </c>
       <c r="I332" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="333">
@@ -10100,7 +10100,7 @@
         <v>0.2342001505690301</v>
       </c>
       <c r="I333" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="334">
@@ -10129,7 +10129,7 @@
         <v>0.2276883237667784</v>
       </c>
       <c r="I334" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="335">
@@ -10158,7 +10158,7 @@
         <v>0.2215223011014477</v>
       </c>
       <c r="I335" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="336">
@@ -10187,7 +10187,7 @@
         <v>0.2211385335381168</v>
       </c>
       <c r="I336" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="337">
@@ -10216,7 +10216,7 @@
         <v>0.2222915977843539</v>
       </c>
       <c r="I337" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="338">
@@ -10245,7 +10245,7 @@
         <v>0.2263296439538592</v>
       </c>
       <c r="I338" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="339">
@@ -10274,7 +10274,7 @@
         <v>0.2378554882518394</v>
       </c>
       <c r="I339" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="340">
@@ -10303,7 +10303,7 @@
         <v>0.2560949915436765</v>
       </c>
       <c r="I340" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="341">
@@ -10332,7 +10332,7 @@
         <v>0.2874462730643595</v>
       </c>
       <c r="I341" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="342">
@@ -10390,7 +10390,7 @@
         <v>0.3295207976912573</v>
       </c>
       <c r="I343" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="344">
@@ -10419,7 +10419,7 @@
         <v>0.3585356748279938</v>
       </c>
       <c r="I344" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="345">
@@ -10448,7 +10448,7 @@
         <v>0.3841785631960771</v>
       </c>
       <c r="I345" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="346">
@@ -10535,7 +10535,7 @@
         <v>0.4884855275516003</v>
       </c>
       <c r="I348" t="n">
-        <v>0.991</v>
+        <v>0.86465</v>
       </c>
     </row>
     <row r="349">
@@ -10564,7 +10564,7 @@
         <v>0.509056434736603</v>
       </c>
       <c r="I349" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="350">
@@ -10622,7 +10622,7 @@
         <v>0.209772284473029</v>
       </c>
       <c r="I351" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="352">
@@ -10651,7 +10651,7 @@
         <v>0.209772284473029</v>
       </c>
       <c r="I352" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="353">
@@ -10680,7 +10680,7 @@
         <v>0.2227628257906989</v>
       </c>
       <c r="I353" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="354">
@@ -10709,7 +10709,7 @@
         <v>0.229810468274735</v>
       </c>
       <c r="I354" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="355">
@@ -10738,7 +10738,7 @@
         <v>0.2395167091994271</v>
       </c>
       <c r="I355" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="356">
@@ -10767,7 +10767,7 @@
         <v>0.2402502912675555</v>
       </c>
       <c r="I356" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="357">
@@ -10796,7 +10796,7 @@
         <v>0.2342001505690301</v>
       </c>
       <c r="I357" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="358">
@@ -10825,7 +10825,7 @@
         <v>0.2276883237667784</v>
       </c>
       <c r="I358" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="359">
@@ -10854,7 +10854,7 @@
         <v>0.2215223011014477</v>
       </c>
       <c r="I359" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="360">
@@ -10883,7 +10883,7 @@
         <v>0.2211385335381168</v>
       </c>
       <c r="I360" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="361">
@@ -10912,7 +10912,7 @@
         <v>0.2222915977843539</v>
       </c>
       <c r="I361" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="362">
@@ -10941,7 +10941,7 @@
         <v>0.2263296439538592</v>
       </c>
       <c r="I362" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="363">
@@ -10970,7 +10970,7 @@
         <v>0.2378554882518394</v>
       </c>
       <c r="I363" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="364">
@@ -10999,7 +10999,7 @@
         <v>0.2560949915436765</v>
       </c>
       <c r="I364" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="365">
@@ -11028,7 +11028,7 @@
         <v>0.2874462730643595</v>
       </c>
       <c r="I365" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="366">
@@ -11086,7 +11086,7 @@
         <v>0.3295207976912573</v>
       </c>
       <c r="I367" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="368">
@@ -11115,7 +11115,7 @@
         <v>0.3585356748279938</v>
       </c>
       <c r="I368" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="369">
@@ -11144,7 +11144,7 @@
         <v>0.3841785631960771</v>
       </c>
       <c r="I369" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="370">
@@ -11231,7 +11231,7 @@
         <v>0.4884855275516003</v>
       </c>
       <c r="I372" t="n">
-        <v>0.991</v>
+        <v>0.86465</v>
       </c>
     </row>
     <row r="373">
@@ -11260,7 +11260,7 @@
         <v>0.509056434736603</v>
       </c>
       <c r="I373" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="374">
@@ -11318,7 +11318,7 @@
         <v>0.5180667813395903</v>
       </c>
       <c r="I375" t="n">
-        <v>0.98</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="376">
@@ -11347,7 +11347,7 @@
         <v>0.2227628257906989</v>
       </c>
       <c r="I376" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="377">
@@ -11376,7 +11376,7 @@
         <v>0.2227628257906989</v>
       </c>
       <c r="I377" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="378">
@@ -11405,7 +11405,7 @@
         <v>0.229810468274735</v>
       </c>
       <c r="I378" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="379">
@@ -11434,7 +11434,7 @@
         <v>0.2395167091994271</v>
       </c>
       <c r="I379" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="380">
@@ -11463,7 +11463,7 @@
         <v>0.2402502912675555</v>
       </c>
       <c r="I380" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="381">
@@ -11492,7 +11492,7 @@
         <v>0.2342001505690301</v>
       </c>
       <c r="I381" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="382">
@@ -11521,7 +11521,7 @@
         <v>0.2276883237667784</v>
       </c>
       <c r="I382" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="383">
@@ -11550,7 +11550,7 @@
         <v>0.2215223011014477</v>
       </c>
       <c r="I383" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="384">
@@ -11579,7 +11579,7 @@
         <v>0.2211385335381168</v>
       </c>
       <c r="I384" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="385">
@@ -11608,7 +11608,7 @@
         <v>0.2222915977843539</v>
       </c>
       <c r="I385" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="386">
@@ -11637,7 +11637,7 @@
         <v>0.2263296439538592</v>
       </c>
       <c r="I386" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="387">
@@ -11666,7 +11666,7 @@
         <v>0.2378554882518394</v>
       </c>
       <c r="I387" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="388">
@@ -11695,7 +11695,7 @@
         <v>0.2560949915436765</v>
       </c>
       <c r="I388" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="389">
@@ -11724,7 +11724,7 @@
         <v>0.2874462730643595</v>
       </c>
       <c r="I389" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="390">
@@ -11782,7 +11782,7 @@
         <v>0.3295207976912573</v>
       </c>
       <c r="I391" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="392">
@@ -11811,7 +11811,7 @@
         <v>0.3585356748279938</v>
       </c>
       <c r="I392" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="393">
@@ -11840,7 +11840,7 @@
         <v>0.3841785631960771</v>
       </c>
       <c r="I393" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="394">
@@ -11927,7 +11927,7 @@
         <v>0.4884855275516003</v>
       </c>
       <c r="I396" t="n">
-        <v>0.991</v>
+        <v>0.86465</v>
       </c>
     </row>
     <row r="397">
@@ -11956,7 +11956,7 @@
         <v>0.509056434736603</v>
       </c>
       <c r="I397" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="398">
@@ -12014,7 +12014,7 @@
         <v>0.5180667813395903</v>
       </c>
       <c r="I399" t="n">
-        <v>0.98</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="400">
@@ -12043,7 +12043,7 @@
         <v>0.5475496226593786</v>
       </c>
       <c r="I400" t="n">
-        <v>0.95</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="401">
@@ -12072,7 +12072,7 @@
         <v>0.229810468274735</v>
       </c>
       <c r="I401" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="402">
@@ -12101,7 +12101,7 @@
         <v>0.229810468274735</v>
       </c>
       <c r="I402" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="403">
@@ -12130,7 +12130,7 @@
         <v>0.2395167091994271</v>
       </c>
       <c r="I403" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="404">
@@ -12159,7 +12159,7 @@
         <v>0.2402502912675555</v>
       </c>
       <c r="I404" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="405">
@@ -12188,7 +12188,7 @@
         <v>0.2342001505690301</v>
       </c>
       <c r="I405" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="406">
@@ -12217,7 +12217,7 @@
         <v>0.2276883237667784</v>
       </c>
       <c r="I406" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="407">
@@ -12246,7 +12246,7 @@
         <v>0.2215223011014477</v>
       </c>
       <c r="I407" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="408">
@@ -12275,7 +12275,7 @@
         <v>0.2211385335381168</v>
       </c>
       <c r="I408" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="409">
@@ -12304,7 +12304,7 @@
         <v>0.2222915977843539</v>
       </c>
       <c r="I409" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="410">
@@ -12333,7 +12333,7 @@
         <v>0.2263296439538592</v>
       </c>
       <c r="I410" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="411">
@@ -12362,7 +12362,7 @@
         <v>0.2378554882518394</v>
       </c>
       <c r="I411" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="412">
@@ -12391,7 +12391,7 @@
         <v>0.2560949915436765</v>
       </c>
       <c r="I412" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="413">
@@ -12420,7 +12420,7 @@
         <v>0.2874462730643595</v>
       </c>
       <c r="I413" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="414">
@@ -12478,7 +12478,7 @@
         <v>0.3295207976912573</v>
       </c>
       <c r="I415" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="416">
@@ -12507,7 +12507,7 @@
         <v>0.3585356748279938</v>
       </c>
       <c r="I416" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="417">
@@ -12536,7 +12536,7 @@
         <v>0.3841785631960771</v>
       </c>
       <c r="I417" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="418">
@@ -12623,7 +12623,7 @@
         <v>0.4884855275516003</v>
       </c>
       <c r="I420" t="n">
-        <v>0.991</v>
+        <v>0.86465</v>
       </c>
     </row>
     <row r="421">
@@ -12652,7 +12652,7 @@
         <v>0.509056434736603</v>
       </c>
       <c r="I421" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="422">
@@ -12710,7 +12710,7 @@
         <v>0.5180667813395903</v>
       </c>
       <c r="I423" t="n">
-        <v>0.98</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="424">
@@ -12739,7 +12739,7 @@
         <v>0.5475496226593786</v>
       </c>
       <c r="I424" t="n">
-        <v>0.95</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="425">
@@ -12768,7 +12768,7 @@
         <v>0.5721869751634387</v>
       </c>
       <c r="I425" t="n">
-        <v>0.988</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="426">
@@ -12797,7 +12797,7 @@
         <v>0.2395167091994271</v>
       </c>
       <c r="I426" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="427">
@@ -12826,7 +12826,7 @@
         <v>0.2395167091994271</v>
       </c>
       <c r="I427" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="428">
@@ -12855,7 +12855,7 @@
         <v>0.2402502912675555</v>
       </c>
       <c r="I428" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="429">
@@ -12884,7 +12884,7 @@
         <v>0.2342001505690301</v>
       </c>
       <c r="I429" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="430">
@@ -12913,7 +12913,7 @@
         <v>0.2276883237667784</v>
       </c>
       <c r="I430" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="431">
@@ -12942,7 +12942,7 @@
         <v>0.2215223011014477</v>
       </c>
       <c r="I431" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="432">
@@ -12971,7 +12971,7 @@
         <v>0.2211385335381168</v>
       </c>
       <c r="I432" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="433">
@@ -13000,7 +13000,7 @@
         <v>0.2222915977843539</v>
       </c>
       <c r="I433" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="434">
@@ -13029,7 +13029,7 @@
         <v>0.2263296439538592</v>
       </c>
       <c r="I434" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="435">
@@ -13058,7 +13058,7 @@
         <v>0.2378554882518394</v>
       </c>
       <c r="I435" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="436">
@@ -13087,7 +13087,7 @@
         <v>0.2560949915436765</v>
       </c>
       <c r="I436" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="437">
@@ -13116,7 +13116,7 @@
         <v>0.2874462730643595</v>
       </c>
       <c r="I437" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="438">
@@ -13174,7 +13174,7 @@
         <v>0.3295207976912573</v>
       </c>
       <c r="I439" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="440">
@@ -13203,7 +13203,7 @@
         <v>0.3585356748279938</v>
       </c>
       <c r="I440" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="441">
@@ -13232,7 +13232,7 @@
         <v>0.3841785631960771</v>
       </c>
       <c r="I441" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="442">
@@ -13319,7 +13319,7 @@
         <v>0.4884855275516003</v>
       </c>
       <c r="I444" t="n">
-        <v>0.991</v>
+        <v>0.86465</v>
       </c>
     </row>
     <row r="445">
@@ -13348,7 +13348,7 @@
         <v>0.509056434736603</v>
       </c>
       <c r="I445" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="446">
@@ -13406,7 +13406,7 @@
         <v>0.5180667813395903</v>
       </c>
       <c r="I447" t="n">
-        <v>0.98</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="448">
@@ -13435,7 +13435,7 @@
         <v>0.5475496226593786</v>
       </c>
       <c r="I448" t="n">
-        <v>0.95</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="449">
@@ -13464,7 +13464,7 @@
         <v>0.5721869751634387</v>
       </c>
       <c r="I449" t="n">
-        <v>0.988</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="450">
@@ -13493,7 +13493,7 @@
         <v>0.5961142870952646</v>
       </c>
       <c r="I450" t="n">
-        <v>0.9935</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="451">
@@ -13522,7 +13522,7 @@
         <v>0.2402502912675555</v>
       </c>
       <c r="I451" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="452">
@@ -13551,7 +13551,7 @@
         <v>0.2402502912675555</v>
       </c>
       <c r="I452" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="453">
@@ -13580,7 +13580,7 @@
         <v>0.2342001505690301</v>
       </c>
       <c r="I453" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="454">
@@ -13609,7 +13609,7 @@
         <v>0.2276883237667784</v>
       </c>
       <c r="I454" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="455">
@@ -13638,7 +13638,7 @@
         <v>0.2215223011014477</v>
       </c>
       <c r="I455" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="456">
@@ -13667,7 +13667,7 @@
         <v>0.2211385335381168</v>
       </c>
       <c r="I456" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="457">
@@ -13696,7 +13696,7 @@
         <v>0.2222915977843539</v>
       </c>
       <c r="I457" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="458">
@@ -13725,7 +13725,7 @@
         <v>0.2263296439538592</v>
       </c>
       <c r="I458" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="459">
@@ -13754,7 +13754,7 @@
         <v>0.2378554882518394</v>
       </c>
       <c r="I459" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="460">
@@ -13783,7 +13783,7 @@
         <v>0.2560949915436765</v>
       </c>
       <c r="I460" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="461">
@@ -13812,7 +13812,7 @@
         <v>0.2874462730643595</v>
       </c>
       <c r="I461" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="462">
@@ -13870,7 +13870,7 @@
         <v>0.3295207976912573</v>
       </c>
       <c r="I463" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="464">
@@ -13899,7 +13899,7 @@
         <v>0.3585356748279938</v>
       </c>
       <c r="I464" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="465">
@@ -13928,7 +13928,7 @@
         <v>0.3841785631960771</v>
       </c>
       <c r="I465" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="466">
@@ -14015,7 +14015,7 @@
         <v>0.4884855275516003</v>
       </c>
       <c r="I468" t="n">
-        <v>0.991</v>
+        <v>0.86465</v>
       </c>
     </row>
     <row r="469">
@@ -14044,7 +14044,7 @@
         <v>0.509056434736603</v>
       </c>
       <c r="I469" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="470">
@@ -14102,7 +14102,7 @@
         <v>0.5180667813395903</v>
       </c>
       <c r="I471" t="n">
-        <v>0.98</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="472">
@@ -14131,7 +14131,7 @@
         <v>0.5475496226593786</v>
       </c>
       <c r="I472" t="n">
-        <v>0.95</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="473">
@@ -14160,7 +14160,7 @@
         <v>0.5721869751634387</v>
       </c>
       <c r="I473" t="n">
-        <v>0.988</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="474">
@@ -14189,7 +14189,7 @@
         <v>0.5961142870952646</v>
       </c>
       <c r="I474" t="n">
-        <v>0.9935</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="475">
@@ -14218,7 +14218,7 @@
         <v>0.6257631406102392</v>
       </c>
       <c r="I475" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="476">
@@ -14247,7 +14247,7 @@
         <v>0.2342001505690301</v>
       </c>
       <c r="I476" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="477">
@@ -14276,7 +14276,7 @@
         <v>0.2342001505690301</v>
       </c>
       <c r="I477" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="478">
@@ -14305,7 +14305,7 @@
         <v>0.2276883237667784</v>
       </c>
       <c r="I478" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="479">
@@ -14334,7 +14334,7 @@
         <v>0.2215223011014477</v>
       </c>
       <c r="I479" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="480">
@@ -14363,7 +14363,7 @@
         <v>0.2211385335381168</v>
       </c>
       <c r="I480" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="481">
@@ -14392,7 +14392,7 @@
         <v>0.2222915977843539</v>
       </c>
       <c r="I481" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="482">
@@ -14421,7 +14421,7 @@
         <v>0.2263296439538592</v>
       </c>
       <c r="I482" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="483">
@@ -14450,7 +14450,7 @@
         <v>0.2378554882518394</v>
       </c>
       <c r="I483" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="484">
@@ -14479,7 +14479,7 @@
         <v>0.2560949915436765</v>
       </c>
       <c r="I484" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="485">
@@ -14508,7 +14508,7 @@
         <v>0.2874462730643595</v>
       </c>
       <c r="I485" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="486">
@@ -14566,7 +14566,7 @@
         <v>0.3295207976912573</v>
       </c>
       <c r="I487" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="488">
@@ -14595,7 +14595,7 @@
         <v>0.3585356748279938</v>
       </c>
       <c r="I488" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="489">
@@ -14624,7 +14624,7 @@
         <v>0.3841785631960771</v>
       </c>
       <c r="I489" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="490">
@@ -14711,7 +14711,7 @@
         <v>0.4884855275516003</v>
       </c>
       <c r="I492" t="n">
-        <v>0.991</v>
+        <v>0.86465</v>
       </c>
     </row>
     <row r="493">
@@ -14740,7 +14740,7 @@
         <v>0.509056434736603</v>
       </c>
       <c r="I493" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="494">
@@ -14798,7 +14798,7 @@
         <v>0.5180667813395903</v>
       </c>
       <c r="I495" t="n">
-        <v>0.98</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="496">
@@ -14827,7 +14827,7 @@
         <v>0.5475496226593786</v>
       </c>
       <c r="I496" t="n">
-        <v>0.95</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="497">
@@ -14856,7 +14856,7 @@
         <v>0.5721869751634387</v>
       </c>
       <c r="I497" t="n">
-        <v>0.988</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="498">
@@ -14885,7 +14885,7 @@
         <v>0.5961142870952646</v>
       </c>
       <c r="I498" t="n">
-        <v>0.9935</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="499">
@@ -14914,7 +14914,7 @@
         <v>0.6257631406102392</v>
       </c>
       <c r="I499" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="500">
@@ -14972,7 +14972,7 @@
         <v>0.2276883237667784</v>
       </c>
       <c r="I501" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="502">
@@ -15001,7 +15001,7 @@
         <v>0.2276883237667784</v>
       </c>
       <c r="I502" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="503">
@@ -15030,7 +15030,7 @@
         <v>0.2215223011014477</v>
       </c>
       <c r="I503" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="504">
@@ -15059,7 +15059,7 @@
         <v>0.2211385335381168</v>
       </c>
       <c r="I504" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="505">
@@ -15088,7 +15088,7 @@
         <v>0.2222915977843539</v>
       </c>
       <c r="I505" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="506">
@@ -15117,7 +15117,7 @@
         <v>0.2263296439538592</v>
       </c>
       <c r="I506" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="507">
@@ -15146,7 +15146,7 @@
         <v>0.2378554882518394</v>
       </c>
       <c r="I507" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="508">
@@ -15175,7 +15175,7 @@
         <v>0.2560949915436765</v>
       </c>
       <c r="I508" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="509">
@@ -15204,7 +15204,7 @@
         <v>0.2874462730643595</v>
       </c>
       <c r="I509" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="510">
@@ -15262,7 +15262,7 @@
         <v>0.3295207976912573</v>
       </c>
       <c r="I511" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="512">
@@ -15291,7 +15291,7 @@
         <v>0.3585356748279938</v>
       </c>
       <c r="I512" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="513">
@@ -15320,7 +15320,7 @@
         <v>0.3841785631960771</v>
       </c>
       <c r="I513" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="514">
@@ -15407,7 +15407,7 @@
         <v>0.4884855275516003</v>
       </c>
       <c r="I516" t="n">
-        <v>0.991</v>
+        <v>0.86465</v>
       </c>
     </row>
     <row r="517">
@@ -15436,7 +15436,7 @@
         <v>0.509056434736603</v>
       </c>
       <c r="I517" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="518">
@@ -15494,7 +15494,7 @@
         <v>0.5180667813395903</v>
       </c>
       <c r="I519" t="n">
-        <v>0.98</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="520">
@@ -15523,7 +15523,7 @@
         <v>0.5475496226593786</v>
       </c>
       <c r="I520" t="n">
-        <v>0.95</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="521">
@@ -15552,7 +15552,7 @@
         <v>0.5721869751634387</v>
       </c>
       <c r="I521" t="n">
-        <v>0.988</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="522">
@@ -15581,7 +15581,7 @@
         <v>0.5961142870952646</v>
       </c>
       <c r="I522" t="n">
-        <v>0.9935</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="523">
@@ -15610,7 +15610,7 @@
         <v>0.6257631406102392</v>
       </c>
       <c r="I523" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="524">
@@ -15668,7 +15668,7 @@
         <v>0.6428213917759376</v>
       </c>
       <c r="I525" t="n">
-        <v>0.959</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="526">
@@ -15697,7 +15697,7 @@
         <v>0.2215223011014477</v>
       </c>
       <c r="I526" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="527">
@@ -15726,7 +15726,7 @@
         <v>0.2215223011014477</v>
       </c>
       <c r="I527" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="528">
@@ -15755,7 +15755,7 @@
         <v>0.2211385335381168</v>
       </c>
       <c r="I528" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="529">
@@ -15784,7 +15784,7 @@
         <v>0.2222915977843539</v>
       </c>
       <c r="I529" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="530">
@@ -15813,7 +15813,7 @@
         <v>0.2263296439538592</v>
       </c>
       <c r="I530" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="531">
@@ -15842,7 +15842,7 @@
         <v>0.2378554882518394</v>
       </c>
       <c r="I531" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="532">
@@ -15871,7 +15871,7 @@
         <v>0.2560949915436765</v>
       </c>
       <c r="I532" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="533">
@@ -15900,7 +15900,7 @@
         <v>0.2874462730643595</v>
       </c>
       <c r="I533" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="534">
@@ -15958,7 +15958,7 @@
         <v>0.3295207976912573</v>
       </c>
       <c r="I535" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="536">
@@ -15987,7 +15987,7 @@
         <v>0.3585356748279938</v>
       </c>
       <c r="I536" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="537">
@@ -16016,7 +16016,7 @@
         <v>0.3841785631960771</v>
       </c>
       <c r="I537" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="538">
@@ -16103,7 +16103,7 @@
         <v>0.4884855275516003</v>
       </c>
       <c r="I540" t="n">
-        <v>0.991</v>
+        <v>0.86465</v>
       </c>
     </row>
     <row r="541">
@@ -16132,7 +16132,7 @@
         <v>0.509056434736603</v>
       </c>
       <c r="I541" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="542">
@@ -16190,7 +16190,7 @@
         <v>0.5180667813395903</v>
       </c>
       <c r="I543" t="n">
-        <v>0.98</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="544">
@@ -16219,7 +16219,7 @@
         <v>0.5475496226593786</v>
       </c>
       <c r="I544" t="n">
-        <v>0.95</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="545">
@@ -16248,7 +16248,7 @@
         <v>0.5721869751634387</v>
       </c>
       <c r="I545" t="n">
-        <v>0.988</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="546">
@@ -16277,7 +16277,7 @@
         <v>0.5961142870952646</v>
       </c>
       <c r="I546" t="n">
-        <v>0.9935</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="547">
@@ -16306,7 +16306,7 @@
         <v>0.6257631406102392</v>
       </c>
       <c r="I547" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="548">
@@ -16364,7 +16364,7 @@
         <v>0.6428213917759376</v>
       </c>
       <c r="I549" t="n">
-        <v>0.959</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="550">
@@ -16393,7 +16393,7 @@
         <v>0.642288863918431</v>
       </c>
       <c r="I550" t="n">
-        <v>0.992</v>
+        <v>0.90655</v>
       </c>
     </row>
     <row r="551">
@@ -16422,7 +16422,7 @@
         <v>0.2211385335381168</v>
       </c>
       <c r="I551" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="552">
@@ -16451,7 +16451,7 @@
         <v>0.1504681513895615</v>
       </c>
       <c r="I552" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="553">
@@ -16480,7 +16480,7 @@
         <v>0.1517258394930984</v>
       </c>
       <c r="I553" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="554">
@@ -16509,7 +16509,7 @@
         <v>0.1561302797881582</v>
       </c>
       <c r="I554" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="555">
@@ -16538,7 +16538,7 @@
         <v>0.1687019272953063</v>
       </c>
       <c r="I555" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="556">
@@ -16567,7 +16567,7 @@
         <v>0.1885964009809022</v>
       </c>
       <c r="I556" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="557">
@@ -16596,7 +16596,7 @@
         <v>0.2227923566077243</v>
       </c>
       <c r="I557" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="558">
@@ -16654,7 +16654,7 @@
         <v>0.2686845341320095</v>
       </c>
       <c r="I559" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="560">
@@ -16683,7 +16683,7 @@
         <v>0.3003320905622297</v>
       </c>
       <c r="I560" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="561">
@@ -16712,7 +16712,7 @@
         <v>0.3283016991474492</v>
       </c>
       <c r="I561" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="562">
@@ -16799,7 +16799,7 @@
         <v>0.4420730077402685</v>
       </c>
       <c r="I564" t="n">
-        <v>0.991</v>
+        <v>0.86465</v>
       </c>
     </row>
     <row r="565">
@@ -16828,7 +16828,7 @@
         <v>0.4645104264096698</v>
       </c>
       <c r="I565" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="566">
@@ -16886,7 +16886,7 @@
         <v>0.4743383312886065</v>
       </c>
       <c r="I567" t="n">
-        <v>0.98</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="568">
@@ -16915,7 +16915,7 @@
         <v>0.5064963128645429</v>
       </c>
       <c r="I568" t="n">
-        <v>0.95</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="569">
@@ -16944,7 +16944,7 @@
         <v>0.5333691477895013</v>
       </c>
       <c r="I569" t="n">
-        <v>0.988</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="570">
@@ -16973,7 +16973,7 @@
         <v>0.5594675162581093</v>
       </c>
       <c r="I570" t="n">
-        <v>0.9935</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="571">
@@ -17002,7 +17002,7 @@
         <v>0.5918065732282478</v>
       </c>
       <c r="I571" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="572">
@@ -17060,7 +17060,7 @@
         <v>0.6104126132891168</v>
       </c>
       <c r="I573" t="n">
-        <v>0.959</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="574">
@@ -17089,7 +17089,7 @@
         <v>0.6098317662518647</v>
       </c>
       <c r="I574" t="n">
-        <v>0.992</v>
+        <v>0.90655</v>
       </c>
     </row>
     <row r="575">
@@ -17118,7 +17118,7 @@
         <v>0.6230891446091723</v>
       </c>
       <c r="I575" t="n">
-        <v>0.985</v>
+        <v>0.7800499999999999</v>
       </c>
     </row>
     <row r="576">
@@ -17147,7 +17147,7 @@
         <v>0.6230891446091723</v>
       </c>
       <c r="I576" t="n">
-        <v>0.985</v>
+        <v>0.7800499999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/x_valid_dataset.xlsx
+++ b/Excel reports/x_valid_dataset.xlsx
@@ -477,118 +477,118 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5466471816841164</v>
+        <v>0.1193181818181815</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7740531655311549</v>
+        <v>0.3499999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.325073346723698</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5087471111733919</v>
+        <v>0.3465909090909089</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7330932556305345</v>
+        <v>0.3169398559940427</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7764556170577342</v>
+        <v>0.3573317467745713</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7580760576450173</v>
+        <v>0.3745878570013179</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8704499999999999</v>
+        <v>0.3519</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5218661096986723</v>
+        <v>0.2534090909090914</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6428576194956592</v>
+        <v>0.5505681818181819</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.1477272727272725</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5014580372216551</v>
+        <v>0.3954545454545461</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6669117646565687</v>
+        <v>0.3393726244113296</v>
       </c>
       <c r="G3" t="n">
-        <v>0.734148297082952</v>
+        <v>0.3631967927253368</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7375466160111478</v>
+        <v>0.3762571920775769</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9975000000000001</v>
+        <v>1.23185</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4300297835520945</v>
+        <v>0.3545454545454552</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7259479466253834</v>
+        <v>0.5630681818181819</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2769681278179266</v>
+        <v>0.2875000000000002</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7215749471169566</v>
+        <v>0.4920454545454545</v>
       </c>
       <c r="F4" t="n">
-        <v>0.682529816788109</v>
+        <v>0.3829934330210803</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7322139355497219</v>
+        <v>0.3830196637745849</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7362688824996132</v>
+        <v>0.3855202530750065</v>
       </c>
       <c r="I4" t="n">
-        <v>1.1598</v>
+        <v>0.32155</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6020414745416247</v>
+        <v>0.5556818181818184</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9839649270314095</v>
+        <v>0.7499999999999996</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4664729289977023</v>
+        <v>0.4528409090909092</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7842572017696635</v>
+        <v>0.7454545454545459</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7115947839256956</v>
+        <v>0.486553750859214</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7402205918912514</v>
+        <v>0.4387788763407325</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7401079480412182</v>
+        <v>0.4143149964653698</v>
       </c>
       <c r="I5" t="n">
-        <v>0.998</v>
+        <v>0.18315</v>
       </c>
     </row>
     <row r="6">
@@ -596,144 +596,144 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7317789833554652</v>
+        <v>0.748863636363637</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.645772581782431</v>
+        <v>0.6761363636363642</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9081636738534222</v>
+        <v>0.9931818181818179</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6669117646565687</v>
+        <v>0.3393726244113296</v>
       </c>
       <c r="G6" t="n">
-        <v>0.734148297082952</v>
+        <v>0.3631967927253368</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7375466160111478</v>
+        <v>0.3762571920775769</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9975000000000001</v>
+        <v>1.23185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4211766860064338</v>
+        <v>0.07911527009783133</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5188239602481618</v>
+        <v>0.3015737983836668</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4047061695772059</v>
+        <v>0.1854529987239479</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5382370720699645</v>
+        <v>0.143469085054845</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5925009136561895</v>
+        <v>0.1613042769870665</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5952435571763769</v>
+        <v>0.1710815219296196</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9975000000000001</v>
+        <v>1.23185</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3470593620749081</v>
+        <v>0.1548277328796264</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5858827478745404</v>
+        <v>0.310931518502765</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2235295912798713</v>
+        <v>0.1046363249680991</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5823534797219669</v>
+        <v>0.2577626541897067</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5508417599705373</v>
+        <v>0.1761243905219489</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5909397699740014</v>
+        <v>0.1761440273259336</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5942123509800247</v>
+        <v>0.1780160125104262</v>
       </c>
       <c r="I8" t="n">
-        <v>1.1598</v>
+        <v>0.32155</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4858829273897059</v>
+        <v>0.3054019566142071</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.4508719693747341</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3764711267807904</v>
+        <v>0.2284134410888986</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6329417509191176</v>
+        <v>0.447469162058699</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5742989002415601</v>
+        <v>0.253651468103878</v>
       </c>
       <c r="G9" t="n">
-        <v>0.597401613196327</v>
+        <v>0.2178863557463589</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5973107029751529</v>
+        <v>0.1995722644742881</v>
       </c>
       <c r="I9" t="n">
-        <v>0.998</v>
+        <v>0.18315</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5905887379365808</v>
+        <v>0.4500212675457259</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8070588953354779</v>
+        <v>0.6380263717566995</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5211765064912683</v>
+        <v>0.3955763504891542</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7329415714039522</v>
+        <v>0.6329221607826457</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6196253777165285</v>
+        <v>0.3620145231549545</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6182539144590381</v>
+        <v>0.2817380180596338</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6081611724494564</v>
+        <v>0.2342402561789571</v>
       </c>
       <c r="I10" t="n">
-        <v>0.19515</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="11">
@@ -741,144 +741,144 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.798823637120864</v>
+        <v>0.6312207571246282</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6929411046645221</v>
+        <v>0.5657167162909408</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9952940099379596</v>
+        <v>0.9868141216503626</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5508417599705373</v>
+        <v>0.1761243905219489</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5909397699740014</v>
+        <v>0.1761440273259336</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5942123509800247</v>
+        <v>0.1780160125104262</v>
       </c>
       <c r="I11" t="n">
-        <v>1.1598</v>
+        <v>0.32155</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1193184872303053</v>
+        <v>0.04847986852917036</v>
       </c>
       <c r="C12" t="n">
-        <v>0.350000086697635</v>
+        <v>0.1992604765817582</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3465911356870007</v>
+        <v>0.1479046836483153</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3161536896643374</v>
+        <v>0.0690503048960973</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3548847086224914</v>
+        <v>0.06906927208022555</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3580457232707352</v>
+        <v>0.07087742210846797</v>
       </c>
       <c r="I12" t="n">
-        <v>1.1598</v>
+        <v>0.32155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2534093844988096</v>
+        <v>0.1939194741166803</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5511359991122162</v>
+        <v>0.3344289235825795</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1477275682873923</v>
+        <v>0.1195562859490549</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3954547897842443</v>
+        <v>0.3311421528348398</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3388111468414534</v>
+        <v>0.1439336900214528</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3611262595704534</v>
+        <v>0.1093881768117045</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3610384485918167</v>
+        <v>0.0916986005665778</v>
       </c>
       <c r="I13" t="n">
-        <v>0.998</v>
+        <v>0.18315</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B14" t="n">
-        <v>0.354545643703931</v>
+        <v>0.3336072308956451</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5636360641354425</v>
+        <v>0.5152013147082987</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2874997615815036</v>
+        <v>0.2810188989317996</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4920454919830697</v>
+        <v>0.510271158586688</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3825923883104859</v>
+        <v>0.2486015381829486</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3812676799416246</v>
+        <v>0.1710624817001635</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3715190120631166</v>
+        <v>0.1251844052081869</v>
       </c>
       <c r="I14" t="n">
-        <v>0.19515</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5556815561185122</v>
+        <v>0.5086277732128182</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7499995665118246</v>
+        <v>0.8648315529991775</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4534086909177292</v>
+        <v>0.4453574363188169</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7454540095055288</v>
+        <v>0.8520953163516847</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4862671372233546</v>
+        <v>0.4210283319454444</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4372963460283795</v>
+        <v>0.2758367639542438</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4014338118585093</v>
+        <v>0.1833372780996673</v>
       </c>
       <c r="I15" t="n">
-        <v>0.86225</v>
+        <v>0.9715</v>
       </c>
     </row>
     <row r="16">
@@ -886,144 +886,144 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7488638274925137</v>
+        <v>0.9046836483155292</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6761366493444791</v>
+        <v>0.6179129005751844</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9931812310023808</v>
+        <v>0.7888249794576823</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3388111468414534</v>
+        <v>0.1439336900214528</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3611262595704534</v>
+        <v>0.1093881768117045</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3610384485918167</v>
+        <v>0.0916986005665778</v>
       </c>
       <c r="I16" t="n">
-        <v>0.998</v>
+        <v>0.18315</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07908169554290044</v>
+        <v>0.1125406980698979</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3018705000499544</v>
+        <v>0.2672354387733096</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.03067008968592813</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1853742621995762</v>
+        <v>0.2636168483474995</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1429878282204202</v>
+        <v>0.05750854230485394</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1596862254859436</v>
+        <v>0.01947544752893812</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1596205165368848</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.998</v>
+        <v>0.18315</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1547619511017863</v>
+        <v>0.2663307911668577</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3112242978164092</v>
+        <v>0.4662579121929046</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1045915222854978</v>
+        <v>0.2084333443538846</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2576530777744475</v>
+        <v>0.4608300265541881</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1757493280929989</v>
+        <v>0.172743252090378</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1747580489149438</v>
+        <v>0.0873761519943612</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1674631214358896</v>
+        <v>0.03686640212433541</v>
       </c>
       <c r="I18" t="n">
-        <v>0.19515</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B19" t="n">
-        <v>0.305271940033969</v>
+        <v>0.4590207313412831</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4506800933693005</v>
+        <v>0.8511854687385294</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2287411622894941</v>
+        <v>0.3893628656444253</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4472786533852859</v>
+        <v>0.8371634308385136</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2533291353193661</v>
+        <v>0.3625775888755594</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2166842957565351</v>
+        <v>0.2027280410473079</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1898483639918411</v>
+        <v>0.1008901644214703</v>
       </c>
       <c r="I19" t="n">
-        <v>0.86225</v>
+        <v>0.9715</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4498302199420529</v>
+        <v>0.8950608776514855</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6377553999400547</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3954084777145022</v>
+        <v>0.5793388629994924</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6326529155848621</v>
+        <v>0.7675055651416546</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3617073582523651</v>
+        <v>0.4782712963801584</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2806794680378157</v>
+        <v>0.2896168909079772</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2252727281192829</v>
+        <v>0.1542193964790851</v>
       </c>
       <c r="I20" t="n">
-        <v>0.957</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="21">
@@ -1031,144 +1031,144 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6309525199720255</v>
+        <v>0.7231778324254726</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0.8163746288422296</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5654765843651834</v>
+        <v>0.5494854919865534</v>
       </c>
       <c r="E21" t="n">
-        <v>0.986394888822283</v>
+        <v>0.557627320444628</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1757493280929989</v>
+        <v>0.172743252090378</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1747580489149438</v>
+        <v>0.0873761519943612</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1674631214358896</v>
+        <v>0.03686640212433541</v>
       </c>
       <c r="I21" t="n">
-        <v>0.19515</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0484801714199381</v>
+        <v>0.2269498031486621</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1996712528688579</v>
+        <v>0.4246860224821635</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.1696868256041185</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1479048639404393</v>
+        <v>0.4193176183373623</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06876047713377954</v>
+        <v>0.1343878432768022</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06780259446044021</v>
+        <v>0.04995623869099035</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06075343536364286</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.19515</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1939194318768113</v>
+        <v>0.4175281502890957</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3344287391694934</v>
+        <v>0.8053953497509643</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1199669999065917</v>
+        <v>0.3486336304308171</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3311418947595425</v>
+        <v>0.7915269723768963</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1437265964554256</v>
+        <v>0.3221418801625432</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1083163329679947</v>
+        <v>0.1640440438734376</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0823845121153147</v>
+        <v>0.06332215779015231</v>
       </c>
       <c r="I23" t="n">
-        <v>0.86225</v>
+        <v>0.9715</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3336074982431086</v>
+        <v>0.8487899499214386</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5152014203079717</v>
+        <v>0.9525790967209248</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2810192414868348</v>
+        <v>0.5365277754988501</v>
       </c>
       <c r="E24" t="n">
-        <v>0.51027084024231</v>
+        <v>0.7226324525186164</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2484535232516784</v>
+        <v>0.4365677579785645</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1701554879332734</v>
+        <v>0.2499807221265425</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1166154183654744</v>
+        <v>0.1160669813684295</v>
       </c>
       <c r="I24" t="n">
-        <v>0.957</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5086277314880697</v>
+        <v>0.6787904853360758</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8652418867978938</v>
+        <v>0.7709659845023076</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4453577005755582</v>
+        <v>0.507001552702445</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8520951360595607</v>
+        <v>0.5150541589196467</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4209225554825023</v>
+        <v>0.4589924439617307</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2750692799527021</v>
+        <v>0.2907612508639427</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1754537957810015</v>
+        <v>0.147985955572527</v>
       </c>
       <c r="I25" t="n">
-        <v>0.998</v>
+        <v>-1.3938</v>
       </c>
     </row>
     <row r="26">
@@ -1176,144 +1176,144 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9046833928158345</v>
+        <v>0.5150541589196467</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6179129572384238</v>
+        <v>0.4202123523614962</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7888251051470492</v>
+        <v>0.8818951088143783</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1437265964554256</v>
+        <v>0.3221418801625432</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1083163329679947</v>
+        <v>0.1640440438734376</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0823845121153147</v>
+        <v>0.06332215779015231</v>
       </c>
       <c r="I26" t="n">
-        <v>0.86225</v>
+        <v>0.9715</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1215486456300016</v>
+        <v>0.3781513520841771</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2746730306778046</v>
+        <v>0.792239507032731</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04095668424027286</v>
+        <v>0.304599361470478</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2710910898176652</v>
+        <v>0.7774335868442603</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06684944309464362</v>
+        <v>0.2763166915123914</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02826000780834552</v>
+        <v>0.1075309797503678</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.86225</v>
+        <v>0.9715</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2737780578517923</v>
+        <v>0.8385677089127884</v>
       </c>
       <c r="C28" t="n">
-        <v>0.471675678873293</v>
+        <v>0.949373305161999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2164683704602881</v>
+        <v>0.5051956995078395</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4663024259904022</v>
+        <v>0.7038815962305599</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1809788667791463</v>
+        <v>0.3984780928604399</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09565114906712288</v>
+        <v>0.1992772284396286</v>
       </c>
       <c r="H28" t="n">
-        <v>0.03730419407923222</v>
+        <v>0.05631052769844485</v>
       </c>
       <c r="I28" t="n">
-        <v>0.957</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4645117971530142</v>
+        <v>0.6570757840218426</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8531431574757369</v>
+        <v>0.7554826161390279</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3955613143550794</v>
+        <v>0.4736734178162542</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8388160772205425</v>
+        <v>0.4822704037321415</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3689323554766884</v>
+        <v>0.4224187531094973</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2099842149368796</v>
+        <v>0.2428146400230916</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1014251447305373</v>
+        <v>0.09038731778114074</v>
       </c>
       <c r="I29" t="n">
-        <v>0.998</v>
+        <v>-1.3938</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8961257646120466</v>
+        <v>0.4822704037321415</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5836087688075375</v>
+        <v>0.3810170140561395</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7698655944226077</v>
+        <v>0.8739108732336575</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4834847094612364</v>
+        <v>0.5514165017163997</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2961198117808373</v>
+        <v>0.3399063682093329</v>
       </c>
       <c r="H30" t="n">
-        <v>0.154900380705903</v>
+        <v>0.1530692022173426</v>
       </c>
       <c r="I30" t="n">
-        <v>0.967</v>
+        <v>1.5257</v>
       </c>
     </row>
     <row r="31">
@@ -1321,144 +1321,144 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7259873312749222</v>
+        <v>0.8767765352056198</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8182200880710816</v>
+        <v>0.8958809483520356</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5540582691004098</v>
+        <v>0.6513444600779177</v>
       </c>
       <c r="E31" t="n">
-        <v>0.562117123646701</v>
+        <v>0.8452542535140345</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1809788667791463</v>
+        <v>0.3984780928604399</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09565114906712288</v>
+        <v>0.1992772284396286</v>
       </c>
       <c r="H31" t="n">
-        <v>0.03730419407923222</v>
+        <v>0.05631052769844485</v>
       </c>
       <c r="I31" t="n">
-        <v>0.957</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2340965369503706</v>
+        <v>0.7499835726267918</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4300046471016367</v>
+        <v>0.8562176589831741</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1773629971924085</v>
+        <v>0.4303655024683692</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4246854127812927</v>
+        <v>0.6208542090384321</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1422302777565163</v>
+        <v>0.3280507474010496</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05776037946164474</v>
+        <v>0.1370683191710562</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.957</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4229127855526059</v>
+        <v>0.5759794656637542</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8076371443061074</v>
+        <v>0.6703263240812917</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3546554780153253</v>
+        <v>0.4001437365221574</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7934540975251878</v>
+        <v>0.4083860363256701</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3282942262618514</v>
+        <v>0.3510036870937981</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1709440283944974</v>
+        <v>0.1788095064256117</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06347632780201533</v>
+        <v>0.03267088290605377</v>
       </c>
       <c r="I33" t="n">
-        <v>0.998</v>
+        <v>-1.3938</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8501876372831498</v>
+        <v>0.4083860363256701</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9530176007926697</v>
+        <v>0.9047556467149692</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5408124476159597</v>
+        <v>0.31131006086208</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7251967899879073</v>
+        <v>0.7838685829301208</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4416949587550099</v>
+        <v>0.4746793716184612</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2562136840242523</v>
+        <v>0.2718955181955366</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1164139647768867</v>
+        <v>0.09276669890797959</v>
       </c>
       <c r="I34" t="n">
-        <v>0.967</v>
+        <v>1.5257</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6817596452379505</v>
+        <v>0.7866160161979584</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7730651646510101</v>
+        <v>0.8049322379835416</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5115590259640643</v>
+        <v>0.5704845991280791</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5195368629688676</v>
+        <v>0.7563942502517466</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4639355028161124</v>
+        <v>0.5551693369422576</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2967249423234239</v>
+        <v>0.3464337846657226</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1486637966322445</v>
+        <v>0.145856903015481</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9804999999999999</v>
+        <v>1.4394</v>
       </c>
     </row>
     <row r="36">
@@ -1466,144 +1466,144 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5195368629688676</v>
+        <v>0.6748870633059022</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.425572064554207</v>
+        <v>0.6208542090384321</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8829869897095606</v>
+        <v>0.9413880902861343</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3282942262618514</v>
+        <v>0.3510036870937981</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1709440283944974</v>
+        <v>0.1788095064256117</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06347632780201533</v>
+        <v>0.03267088290605377</v>
       </c>
       <c r="I36" t="n">
-        <v>0.998</v>
+        <v>-1.3938</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3837985823754003</v>
+        <v>0.4215685257872941</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7945990460204552</v>
+        <v>0.494774926860258</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3109148853973161</v>
+        <v>0.2851326006658696</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7794546912091854</v>
+        <v>0.2915280346559366</v>
       </c>
       <c r="F37" t="n">
-        <v>0.282766903092069</v>
+        <v>0.2470034437703915</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1147517182777234</v>
+        <v>0.1133930993046718</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.998</v>
+        <v>-1.3938</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8400335547682993</v>
+        <v>0.2915280346559366</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9498331963173292</v>
+        <v>0.6766752816132912</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5096893265854723</v>
+        <v>0.2162040343284833</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7065709942311011</v>
+        <v>0.5828755830923114</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4038537862746492</v>
+        <v>0.3429669121480824</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2058008376551656</v>
+        <v>0.1856211737335397</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0565256795384881</v>
+        <v>0.04663004664738527</v>
       </c>
       <c r="I38" t="n">
-        <v>0.967</v>
+        <v>1.5257</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6601897376334848</v>
+        <v>0.5850073944223336</v>
       </c>
       <c r="C39" t="n">
-        <v>0.757683823606527</v>
+        <v>0.5992194699558155</v>
       </c>
       <c r="D39" t="n">
-        <v>0.478453146956143</v>
+        <v>0.4173049031272495</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4869717111330415</v>
+        <v>0.561557469792089</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4276017648056188</v>
+        <v>0.4054213571892276</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2490578951133003</v>
+        <v>0.2434575269733164</v>
       </c>
       <c r="H39" t="n">
-        <v>0.09096136206605172</v>
+        <v>0.08782424049896161</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9804999999999999</v>
+        <v>1.4394</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4869717111330415</v>
+        <v>0.4983137336680953</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0.7505780743873955</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3866381037676998</v>
+        <v>0.456388110844324</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8750560036397004</v>
+        <v>0.705099432680254</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5554458330439276</v>
+        <v>0.491043664472378</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3453652964250548</v>
+        <v>0.3144793586205373</v>
       </c>
       <c r="H40" t="n">
-        <v>0.153688933391943</v>
+        <v>0.1372062558734652</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9895</v>
+        <v>1.4384</v>
       </c>
     </row>
     <row r="41">
@@ -1611,144 +1611,144 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8778955250319999</v>
+        <v>0.73210237619387</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8968261490853414</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6545106948488858</v>
+        <v>0.7242857346504551</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8466593454026706</v>
+        <v>0.928229018555917</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4038537862746492</v>
+        <v>0.3429669121480824</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2058008376551656</v>
+        <v>0.1856211737335397</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0565256795384881</v>
+        <v>0.04663004664738527</v>
       </c>
       <c r="I41" t="n">
-        <v>0.967</v>
+        <v>1.5257</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7519881748605426</v>
+        <v>0.2501635072313356</v>
       </c>
       <c r="C42" t="n">
-        <v>0.857370691947022</v>
+        <v>0.6435917541632004</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4349333486355273</v>
+        <v>0.1732199755435538</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6238946732079331</v>
+        <v>0.5477752807406793</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3333554611505145</v>
+        <v>0.3027083652194253</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1432699750098289</v>
+        <v>0.1419795569112417</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.967</v>
+        <v>1.5257</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5793792859358525</v>
+        <v>0.5499529278639185</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6729512870456831</v>
+        <v>0.5644705753521794</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4049537677638153</v>
+        <v>0.3786446875024424</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4131296390349743</v>
+        <v>0.5259988095082885</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3561480834032177</v>
+        <v>0.3665056350162438</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1847868463983129</v>
+        <v>0.2010594419261718</v>
       </c>
       <c r="H43" t="n">
-        <v>0.03305037112279733</v>
+        <v>0.04207990476066312</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9804999999999999</v>
+        <v>1.4394</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4131296390349743</v>
+        <v>0.4613952781855284</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9055193377137971</v>
+        <v>0.7190835211021553</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3168323475014242</v>
+        <v>0.4185682180951591</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7856017073323467</v>
+        <v>0.6726270491397212</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4788491188115401</v>
+        <v>0.4539688961943801</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2772199019266264</v>
+        <v>0.2736083045744098</v>
       </c>
       <c r="H44" t="n">
-        <v>0.09325447801956072</v>
+        <v>0.09252367631098797</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9895</v>
+        <v>1.4384</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7883269977560664</v>
+        <v>0.7002105793674172</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8064960626511295</v>
+        <v>0.9738682345211308</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5739287050884132</v>
+        <v>0.6922258732488737</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7583474168843545</v>
+        <v>0.9005541147054139</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5587057754037728</v>
+        <v>0.5815646729118183</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3512395196124312</v>
+        <v>0.3700615061330262</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1464619131287448</v>
+        <v>0.1571661113825416</v>
       </c>
       <c r="I45" t="n">
-        <v>1.0248</v>
+        <v>1.3808</v>
       </c>
     </row>
     <row r="46">
@@ -1756,144 +1756,144 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6774938998221477</v>
+        <v>0.9034576442030665</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6238946732079331</v>
+        <v>0.7154541092300905</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9418581606093209</v>
+        <v>0.8664376431080014</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3561480834032177</v>
+        <v>0.3665056350162438</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1847868463983129</v>
+        <v>0.2010594419261718</v>
       </c>
       <c r="H46" t="n">
-        <v>0.03305037112279733</v>
+        <v>0.04207990476066312</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9804999999999999</v>
+        <v>1.4394</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4248871957869758</v>
+        <v>0.5301830764666891</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4976593740073726</v>
+        <v>0.5453384610967961</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2892341719759137</v>
+        <v>0.3513495378314288</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2955926547933695</v>
+        <v>0.505176691827013</v>
       </c>
       <c r="F47" t="n">
-        <v>0.251277348157547</v>
+        <v>0.3386772360950656</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1180074561868549</v>
+        <v>0.1659632551353749</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9804999999999999</v>
+        <v>1.4394</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2955926547933695</v>
+        <v>0.4377352302230376</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6785306114593226</v>
+        <v>0.7067433074074331</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2207009823004874</v>
+        <v>0.3930268455642223</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5852690902095674</v>
+        <v>0.6582460765910912</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3467035601724099</v>
+        <v>0.4299826190939301</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1898938614211188</v>
+        <v>0.2416990738208694</v>
       </c>
       <c r="H48" t="n">
-        <v>0.04682152721676495</v>
+        <v>0.05265968612728752</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9895</v>
+        <v>1.4384</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5873885844820527</v>
+        <v>0.6870413073882949</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6015189056567547</v>
+        <v>0.9727203076658079</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4206482072420053</v>
+        <v>0.6787058458417362</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5640730694103137</v>
+        <v>0.8961856152837681</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4088091342403824</v>
+        <v>0.5631834751481696</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2474598934194568</v>
+        <v>0.342389310969008</v>
       </c>
       <c r="H49" t="n">
-        <v>0.08820165059224933</v>
+        <v>0.1201417604598055</v>
       </c>
       <c r="I49" t="n">
-        <v>1.0248</v>
+        <v>1.3808</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5011922238196485</v>
+        <v>0.8992166922097899</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7520094674496147</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4595073990282368</v>
+        <v>0.7029544612499066</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7067917928459274</v>
+        <v>0.8605704614030172</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4939470366991091</v>
+        <v>0.6481511855066969</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3181263394850679</v>
+        <v>0.4221094879588554</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1376888619725438</v>
+        <v>0.1793760565352623</v>
       </c>
       <c r="I50" t="n">
-        <v>0.679</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="51">
@@ -1901,144 +1901,144 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7336396186927416</v>
+        <v>0.7719114613168923</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0.825713076753772</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7258677803354953</v>
+        <v>0.5316986149296994</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9286411773193937</v>
+        <v>0.6203576150158243</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3467035601724099</v>
+        <v>0.4299826190939301</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1898938614211188</v>
+        <v>0.2416990738208694</v>
       </c>
       <c r="H51" t="n">
-        <v>0.04682152721676495</v>
+        <v>0.05265968612728752</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9895</v>
+        <v>1.4384</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2542077460815151</v>
+        <v>0.4064806896283842</v>
       </c>
       <c r="C52" t="n">
-        <v>0.645514389265568</v>
+        <v>0.6904420847522702</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1776793987200307</v>
+        <v>0.3592871056500479</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5502147403714928</v>
+        <v>0.6392490445045836</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3064356239030303</v>
+        <v>0.3982971350856508</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1461990222057041</v>
+        <v>0.1995474962115692</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9895</v>
+        <v>1.4384</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5523805538527025</v>
+        <v>0.6696449121516482</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5668196776056099</v>
+        <v>0.9712039148606764</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3819962496455279</v>
+        <v>0.6608461083590772</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5285555039248677</v>
+        <v>0.8904148982197957</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3698984467664124</v>
+        <v>0.538902210266835</v>
       </c>
       <c r="G53" t="n">
-        <v>0.205023096316345</v>
+        <v>0.3058347888282197</v>
       </c>
       <c r="H53" t="n">
-        <v>0.04228444031398991</v>
+        <v>0.0712331918575832</v>
       </c>
       <c r="I53" t="n">
-        <v>1.0248</v>
+        <v>1.3808</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B54" t="n">
-        <v>0.464300466835081</v>
+        <v>0.8936144632352766</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7205990445786672</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4217046661919192</v>
+        <v>0.6864426284829199</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6743931875886467</v>
+        <v>0.8528200092879009</v>
       </c>
       <c r="F54" t="n">
-        <v>0.4568969441441932</v>
+        <v>0.6285930099871391</v>
       </c>
       <c r="G54" t="n">
-        <v>0.277233879589007</v>
+        <v>0.3899863612066321</v>
       </c>
       <c r="H54" t="n">
-        <v>0.09285314009596274</v>
+        <v>0.1337601372520085</v>
       </c>
       <c r="I54" t="n">
-        <v>0.679</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7018277430460764</v>
+        <v>0.7592327325850989</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9740091365909554</v>
+        <v>0.8160250116098767</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6938860597367982</v>
+        <v>0.5056672051082765</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9010908455763298</v>
+        <v>0.5992544818110785</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5838094874105175</v>
+        <v>0.620210573365408</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3732118743562872</v>
+        <v>0.4221814566842391</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1575121565343919</v>
+        <v>0.1709996848167337</v>
       </c>
       <c r="I55" t="n">
-        <v>0.999</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="56">
@@ -2046,144 +2046,144 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9039782296731003</v>
+        <v>0.6200516544117015</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0.6720445859132576</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7169889882318085</v>
+        <v>0.3432892805726456</v>
       </c>
       <c r="E56" t="n">
-        <v>0.867158298858007</v>
+        <v>0.3808841695045415</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3698984467664124</v>
+        <v>0.538902210266835</v>
       </c>
       <c r="G56" t="n">
-        <v>0.205023096316345</v>
+        <v>0.3058347888282197</v>
       </c>
       <c r="H56" t="n">
-        <v>0.04228444031398991</v>
+        <v>0.0712331918575832</v>
       </c>
       <c r="I56" t="n">
-        <v>1.0248</v>
+        <v>1.3808</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5326175484774928</v>
+        <v>0.65206402695872</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5476941791188925</v>
+        <v>0.9696714406065713</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3547105462533297</v>
+        <v>0.6427969671440612</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5077405902962495</v>
+        <v>0.88458298230834</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3420786089763768</v>
+        <v>0.5143634409177369</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1699237882860643</v>
+        <v>0.2688926034905503</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>0.02180594455437285</v>
       </c>
       <c r="I57" t="n">
-        <v>1.0248</v>
+        <v>1.3808</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4406486062098127</v>
+        <v>0.8879528222409437</v>
       </c>
       <c r="C58" t="n">
-        <v>0.708263113619105</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3961721432220683</v>
+        <v>0.6697556866048863</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6600172054027144</v>
+        <v>0.8449873631002525</v>
       </c>
       <c r="F58" t="n">
-        <v>0.4329182079553299</v>
+        <v>0.6088274186841695</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2453227755347799</v>
+        <v>0.3575225665074274</v>
       </c>
       <c r="H58" t="n">
-        <v>0.05280137643221745</v>
+        <v>0.08766045803804308</v>
       </c>
       <c r="I58" t="n">
-        <v>0.679</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6886630336760111</v>
+        <v>0.7464195450716088</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9728616047362061</v>
+        <v>0.8062342038753162</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6803707142822634</v>
+        <v>0.479359730412805</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8967238723195665</v>
+        <v>0.5779275484414488</v>
       </c>
       <c r="F59" t="n">
-        <v>0.565434112059397</v>
+        <v>0.5999988843291069</v>
       </c>
       <c r="G59" t="n">
-        <v>0.3455383288862852</v>
+        <v>0.3914310252665075</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1203151761032051</v>
+        <v>0.1268818252703151</v>
       </c>
       <c r="I59" t="n">
-        <v>0.999</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8997387383385723</v>
+        <v>0.59983150800337</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0.6545914069081713</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7044936683904587</v>
+        <v>0.3083403538331925</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8612931576620249</v>
+        <v>0.3479359730412812</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6499652679458616</v>
+        <v>0.5279809096754422</v>
       </c>
       <c r="G60" t="n">
-        <v>0.4248852256210149</v>
+        <v>0.3847394787703192</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1795934146279111</v>
+        <v>0.1445661570919927</v>
       </c>
       <c r="I60" t="n">
-        <v>0.86465</v>
+        <v>0.2838</v>
       </c>
     </row>
     <row r="61">
@@ -2191,144 +2191,144 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7730936606229912</v>
+        <v>0.2240943555181125</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8266164470775311</v>
+        <v>0.2914911541701775</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5341249814869956</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.622325053662622</v>
+        <v>0.1322662173546762</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4329182079553299</v>
+        <v>0.6088274186841695</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2453227755347799</v>
+        <v>0.3575225665074274</v>
       </c>
       <c r="H61" t="n">
-        <v>0.05280137643221745</v>
+        <v>0.08766045803804308</v>
       </c>
       <c r="I61" t="n">
-        <v>0.679</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4094676872699662</v>
+        <v>0.8879528222409437</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6920003058260167</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3625118937530623</v>
+        <v>0.6697556866048863</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6410649401952428</v>
+        <v>0.8449873631002525</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4013063596855099</v>
+        <v>0.6088274186841695</v>
       </c>
       <c r="G62" t="n">
-        <v>0.2032534616418658</v>
+        <v>0.3575225665074274</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>0.08766045803804308</v>
       </c>
       <c r="I62" t="n">
-        <v>0.679</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6713076237893104</v>
+        <v>0.7464195450716088</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9713487809330079</v>
+        <v>0.8062342038753162</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6625530508967599</v>
+        <v>0.479359730412805</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8909667675704314</v>
+        <v>0.5779275484414488</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5412093333669156</v>
+        <v>0.5999988843291069</v>
       </c>
       <c r="G63" t="n">
-        <v>0.3090555087077987</v>
+        <v>0.3914310252665075</v>
       </c>
       <c r="H63" t="n">
-        <v>0.07127734140563424</v>
+        <v>0.1268818252703151</v>
       </c>
       <c r="I63" t="n">
-        <v>0.999</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8941496966245824</v>
+        <v>0.59983150800337</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0.6545914069081713</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6880207337121468</v>
+        <v>0.3083403538331925</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8535609756108887</v>
+        <v>0.3479359730412812</v>
       </c>
       <c r="F64" t="n">
-        <v>0.630452659722336</v>
+        <v>0.5279809096754422</v>
       </c>
       <c r="G64" t="n">
-        <v>0.3928255805390439</v>
+        <v>0.3847394787703192</v>
       </c>
       <c r="H64" t="n">
-        <v>0.133860032142055</v>
+        <v>0.1445661570919927</v>
       </c>
       <c r="I64" t="n">
-        <v>0.86465</v>
+        <v>0.2838</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7604448172418916</v>
+        <v>0.2240943555181125</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8169512195136109</v>
+        <v>0.2914911541701775</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5081548822799088</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6012716478463599</v>
+        <v>0.1322662173546762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.6221152277577718</v>
+        <v>0.4149195690123664</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4248942062786311</v>
+        <v>0.3458974385525284</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1712529613983994</v>
+        <v>0.1435821619130074</v>
       </c>
       <c r="I65" t="n">
-        <v>0.996</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="66">
@@ -2336,144 +2336,144 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6219637226856122</v>
+        <v>0.25273799494524</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6736951241786507</v>
+        <v>0.90480202190396</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3465942124950367</v>
+        <v>0.1870261162594775</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3840000044545793</v>
+        <v>0.8491996630160062</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5412093333669156</v>
+        <v>0.5999988843291069</v>
       </c>
       <c r="G66" t="n">
-        <v>0.3090555087077987</v>
+        <v>0.3914310252665075</v>
       </c>
       <c r="H66" t="n">
-        <v>0.07127734140563424</v>
+        <v>0.1268818252703151</v>
       </c>
       <c r="I66" t="n">
-        <v>0.999</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B67" t="n">
-        <v>0.652064115221259</v>
+        <v>0.6992896606156274</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9696713767109905</v>
+        <v>0.7553275453827945</v>
       </c>
       <c r="D67" t="n">
-        <v>0.642797000174827</v>
+        <v>0.4490923441199682</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8845833461882578</v>
+        <v>0.5414364640883976</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5143491359200583</v>
+        <v>0.5621141876074586</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2686037148709174</v>
+        <v>0.366715569843208</v>
       </c>
       <c r="H67" t="n">
-        <v>0.01690467038709968</v>
+        <v>0.1188703445902637</v>
       </c>
       <c r="I67" t="n">
-        <v>0.999</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8879526218903938</v>
+        <v>0.5619573796369379</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0.6132596685082869</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6697557050154773</v>
+        <v>0.28887134964483</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8449876078528162</v>
+        <v>0.32596685082873</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6088172707579886</v>
+        <v>0.4946435199563932</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3572781599450563</v>
+        <v>0.3604465361486733</v>
       </c>
       <c r="H68" t="n">
-        <v>0.08315130538435744</v>
+        <v>0.1354380650893413</v>
       </c>
       <c r="I68" t="n">
-        <v>0.86465</v>
+        <v>0.2838</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7464199035366468</v>
+        <v>0.2099447513812152</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8062345098160203</v>
+        <v>0.273086029992108</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4793594905336336</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5779278375960263</v>
+        <v>0.1239147592738759</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5999917184259999</v>
+        <v>0.3887210169042455</v>
       </c>
       <c r="G69" t="n">
-        <v>0.3912242641990518</v>
+        <v>0.3240570320140894</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1227334279612909</v>
+        <v>0.134516200624104</v>
       </c>
       <c r="I69" t="n">
-        <v>0.996</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5998313433910263</v>
+        <v>0.2367797947908445</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6545913933709726</v>
+        <v>0.847671665351224</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3083401464432995</v>
+        <v>0.1752170481452248</v>
       </c>
       <c r="E70" t="n">
-        <v>0.347935884778741</v>
+        <v>0.7955801104972373</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5279757659553542</v>
+        <v>0.5049664722165284</v>
       </c>
       <c r="G70" t="n">
-        <v>0.3845645135190039</v>
+        <v>0.3965990440884196</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1407496245066865</v>
+        <v>0.1874013134139552</v>
       </c>
       <c r="I70" t="n">
-        <v>0.956</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="71">
@@ -2481,144 +2481,144 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2240941134729892</v>
+        <v>0.8011049723756909</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2914911969477267</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>0.5789265982636154</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1322662460535382</v>
+        <v>0.7395422257300713</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6088172707579886</v>
+        <v>0.4946435199563932</v>
       </c>
       <c r="G71" t="n">
-        <v>0.3572781599450563</v>
+        <v>0.3604465361486733</v>
       </c>
       <c r="H71" t="n">
-        <v>0.08315130538435744</v>
+        <v>0.1354380650893413</v>
       </c>
       <c r="I71" t="n">
-        <v>0.86465</v>
+        <v>0.2838</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8879526218903938</v>
+        <v>0.5619573796369379</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0.6132596685082869</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6697557050154773</v>
+        <v>0.28887134964483</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8449876078528162</v>
+        <v>0.32596685082873</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6088172707579886</v>
+        <v>0.4946435199563932</v>
       </c>
       <c r="G72" t="n">
-        <v>0.3572781599450563</v>
+        <v>0.3604465361486733</v>
       </c>
       <c r="H72" t="n">
-        <v>0.08315130538435744</v>
+        <v>0.1354380650893413</v>
       </c>
       <c r="I72" t="n">
-        <v>0.86465</v>
+        <v>0.2838</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7464199035366468</v>
+        <v>0.2099447513812152</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8062345098160203</v>
+        <v>0.273086029992108</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4793594905336336</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5779278375960263</v>
+        <v>0.1239147592738759</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5999917184259999</v>
+        <v>0.3887210169042455</v>
       </c>
       <c r="G73" t="n">
-        <v>0.3912242641990518</v>
+        <v>0.3240570320140894</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1227334279612909</v>
+        <v>0.134516200624104</v>
       </c>
       <c r="I73" t="n">
-        <v>0.996</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5998313433910263</v>
+        <v>0.2367797947908445</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6545913933709726</v>
+        <v>0.847671665351224</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3083401464432995</v>
+        <v>0.1752170481452248</v>
       </c>
       <c r="E74" t="n">
-        <v>0.347935884778741</v>
+        <v>0.7955801104972373</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5279757659553542</v>
+        <v>0.5049664722165284</v>
       </c>
       <c r="G74" t="n">
-        <v>0.3845645135190039</v>
+        <v>0.3965990440884196</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1407496245066865</v>
+        <v>0.1874013134139552</v>
       </c>
       <c r="I74" t="n">
-        <v>0.956</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B75" t="n">
-        <v>0.2240941134729892</v>
+        <v>0.8011049723756909</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2914911969477267</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>0.5789265982636154</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1322662460535382</v>
+        <v>0.7395422257300713</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4149159031262635</v>
+        <v>0.571988116077541</v>
       </c>
       <c r="G75" t="n">
-        <v>0.3457493954473932</v>
+        <v>0.4493595335717511</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1400709542304343</v>
+        <v>0.231572586399244</v>
       </c>
       <c r="I75" t="n">
-        <v>0.957</v>
+        <v>-0.5760000000000001</v>
       </c>
     </row>
     <row r="76">
@@ -2626,144 +2626,144 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2527380989109308</v>
+        <v>0.7411207576953432</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9048022141321898</v>
+        <v>0.9044909234412</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1870256532872613</v>
+        <v>0.5903709550118392</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8491995238535979</v>
+        <v>0.7679558011049726</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5999917184259999</v>
+        <v>0.3887210169042455</v>
       </c>
       <c r="G76" t="n">
-        <v>0.3912242641990518</v>
+        <v>0.3240570320140894</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1227334279612909</v>
+        <v>0.134516200624104</v>
       </c>
       <c r="I76" t="n">
-        <v>0.996</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6992898098492065</v>
+        <v>0.2099447513812152</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7553276304554394</v>
+        <v>0.273086029992108</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4490919995519913</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5414365905092005</v>
+        <v>0.1239147592738759</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5621073241767014</v>
+        <v>0.3887210169042455</v>
       </c>
       <c r="G77" t="n">
-        <v>0.3665217661317613</v>
+        <v>0.3240570320140894</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1149838517093865</v>
+        <v>0.134516200624104</v>
       </c>
       <c r="I77" t="n">
-        <v>0.996</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5619570754665855</v>
+        <v>0.2367797947908445</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6132594921845362</v>
+        <v>0.847671665351224</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2888710782678442</v>
+        <v>0.1752170481452248</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3259666811587047</v>
+        <v>0.7955801104972373</v>
       </c>
       <c r="F78" t="n">
-        <v>0.494638569028702</v>
+        <v>0.5049664722165284</v>
       </c>
       <c r="G78" t="n">
-        <v>0.3602825222897525</v>
+        <v>0.3965990440884196</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1318624780653316</v>
+        <v>0.1874013134139552</v>
       </c>
       <c r="I78" t="n">
-        <v>0.956</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B79" t="n">
-        <v>0.2099444685978411</v>
+        <v>0.8011049723756909</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2730859971987412</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>0.5789265982636154</v>
       </c>
       <c r="E79" t="n">
-        <v>0.123914753095415</v>
+        <v>0.7395422257300713</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3887174787620483</v>
+        <v>0.571988116077541</v>
       </c>
       <c r="G79" t="n">
-        <v>0.3239182501060078</v>
+        <v>0.4493595335717511</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1312266600677379</v>
+        <v>0.231572586399244</v>
       </c>
       <c r="I79" t="n">
-        <v>0.957</v>
+        <v>-0.5760000000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B80" t="n">
-        <v>0.2367798290100091</v>
+        <v>0.7411207576953432</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8476716192504044</v>
+        <v>0.9044909234412</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1752165676511216</v>
+        <v>0.5903709550118392</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7955797678303251</v>
+        <v>0.7679558011049726</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5049638470672704</v>
+        <v>0.6279788832282353</v>
       </c>
       <c r="G80" t="n">
-        <v>0.3964815605251338</v>
+        <v>0.498374343961477</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1843749086887446</v>
+        <v>0.2744832435757021</v>
       </c>
       <c r="I80" t="n">
-        <v>0.988</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="81">
@@ -2771,144 +2771,144 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8011046064207356</v>
+        <v>0.7758484609313336</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0.9707971586424622</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5793210259399452</v>
+        <v>0.71112865035517</v>
       </c>
       <c r="E81" t="n">
-        <v>0.7395419472240923</v>
+        <v>0.9400157853196524</v>
       </c>
       <c r="F81" t="n">
-        <v>0.494638569028702</v>
+        <v>0.5049664722165284</v>
       </c>
       <c r="G81" t="n">
-        <v>0.3602825222897525</v>
+        <v>0.3965990440884196</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1318624780653316</v>
+        <v>0.1874013134139552</v>
       </c>
       <c r="I81" t="n">
-        <v>0.956</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5619570754665855</v>
+        <v>0.07464114832535894</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6132594921845362</v>
+        <v>0.8153110047846898</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2888710782678442</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3259666811587047</v>
+        <v>0.7521531100478467</v>
       </c>
       <c r="F82" t="n">
-        <v>0.494638569028702</v>
+        <v>0.3998014548309489</v>
       </c>
       <c r="G82" t="n">
-        <v>0.3602825222897525</v>
+        <v>0.268412429531127</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1318624780653316</v>
+        <v>0.01477269291433621</v>
       </c>
       <c r="I82" t="n">
-        <v>0.956</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B83" t="n">
-        <v>0.2099444685978411</v>
+        <v>0.7588516746411488</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2730859971987412</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>0.4894736842105271</v>
       </c>
       <c r="E83" t="n">
-        <v>0.123914753095415</v>
+        <v>0.6842105263157898</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3887174787620483</v>
+        <v>0.4810611895409038</v>
       </c>
       <c r="G83" t="n">
-        <v>0.3239182501060078</v>
+        <v>0.3323813674979987</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1312266600677379</v>
+        <v>0.06832771958645195</v>
       </c>
       <c r="I83" t="n">
-        <v>0.957</v>
+        <v>-0.5760000000000001</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B84" t="n">
-        <v>0.2367798290100091</v>
+        <v>0.6861244019138756</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8476716192504044</v>
+        <v>0.8842009569377993</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1752165676511216</v>
+        <v>0.5033492822966511</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7955797678303251</v>
+        <v>0.71866028708134</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5049638470672704</v>
+        <v>0.5489466459810278</v>
       </c>
       <c r="G84" t="n">
-        <v>0.3964815605251338</v>
+        <v>0.391808893587743</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1843749086887446</v>
+        <v>0.1203543249860427</v>
       </c>
       <c r="I84" t="n">
-        <v>0.988</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8011046064207356</v>
+        <v>0.7282296650717701</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0.9645933014354062</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5793210259399452</v>
+        <v>0.6497607655502396</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7395419472240923</v>
+        <v>0.9272727272727268</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5719861613977908</v>
+        <v>0.6570398120643698</v>
       </c>
       <c r="G85" t="n">
-        <v>0.4492600815557423</v>
+        <v>0.4741879449238939</v>
       </c>
       <c r="H85" t="n">
-        <v>0.2287882717715728</v>
+        <v>0.1849077971689771</v>
       </c>
       <c r="I85" t="n">
-        <v>0.993</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="86">
@@ -2916,144 +2916,144 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7411208166283491</v>
+        <v>0.9215311004784695</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9044988745587657</v>
+        <v>0.9406698564593298</v>
       </c>
       <c r="D86" t="n">
-        <v>0.590370703120766</v>
+        <v>0.3483253588516746</v>
       </c>
       <c r="E86" t="n">
-        <v>0.7679555748782729</v>
+        <v>0.4631578947368423</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3887174787620483</v>
+        <v>0.4810611895409038</v>
       </c>
       <c r="G86" t="n">
-        <v>0.3239182501060078</v>
+        <v>0.3323813674979987</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1312266600677379</v>
+        <v>0.06832771958645195</v>
       </c>
       <c r="I86" t="n">
-        <v>0.957</v>
+        <v>-0.5760000000000001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B87" t="n">
-        <v>0.2099444685978411</v>
+        <v>0.7411661477662392</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2730859971987412</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>0.4520323009257483</v>
       </c>
       <c r="E87" t="n">
-        <v>0.123914753095415</v>
+        <v>0.6610509077891226</v>
       </c>
       <c r="F87" t="n">
-        <v>0.3887174787620483</v>
+        <v>0.4430028440593391</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3239182501060078</v>
+        <v>0.2834190234728669</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1312266600677379</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.957</v>
+        <v>-0.5760000000000001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B88" t="n">
-        <v>0.2367798290100091</v>
+        <v>0.6631051447116123</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8476716192504044</v>
+        <v>0.8757083950047326</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1752165676511216</v>
+        <v>0.4669255186138016</v>
       </c>
       <c r="E88" t="n">
-        <v>0.7955797678303251</v>
+        <v>0.6980271723939455</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5049638470672704</v>
+        <v>0.515866937869226</v>
       </c>
       <c r="G88" t="n">
-        <v>0.3964815605251338</v>
+        <v>0.3472048925376476</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1843749086887446</v>
+        <v>0.05584217379151535</v>
       </c>
       <c r="I88" t="n">
-        <v>0.988</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8011046064207356</v>
+        <v>0.7082983570063958</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0.9619966169339315</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5793210259399452</v>
+        <v>0.6240746431842996</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7395419472240923</v>
+        <v>0.9219389969453731</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5719861613977908</v>
+        <v>0.631887526176696</v>
       </c>
       <c r="G89" t="n">
-        <v>0.4492600815557423</v>
+        <v>0.4356255239849894</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2287882717715728</v>
+        <v>0.1251299196438236</v>
       </c>
       <c r="I89" t="n">
-        <v>0.993</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B90" t="n">
-        <v>0.7411208166283491</v>
+        <v>0.9157762861779039</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9044988745587657</v>
+        <v>0.9363186554028043</v>
       </c>
       <c r="D90" t="n">
-        <v>0.590370703120766</v>
+        <v>0.3005323278920975</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7679555748782729</v>
+        <v>0.4237865432415079</v>
       </c>
       <c r="F90" t="n">
-        <v>0.6279774223922145</v>
+        <v>0.5724301024809282</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4982901574515163</v>
+        <v>0.4338041423321457</v>
       </c>
       <c r="H90" t="n">
-        <v>0.2719216560201094</v>
+        <v>0.1490224495316378</v>
       </c>
       <c r="I90" t="n">
-        <v>0.98</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="91">
@@ -3061,144 +3061,144 @@
         <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7758481154128244</v>
+        <v>0.433030609392714</v>
       </c>
       <c r="C91" t="n">
-        <v>0.970796937643691</v>
+        <v>0.6127763401106037</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7111283195699116</v>
+        <v>0.1474916771665805</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9400156080453693</v>
+        <v>0.3446984217256368</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5049638470672704</v>
+        <v>0.515866937869226</v>
       </c>
       <c r="G91" t="n">
-        <v>0.3964815605251338</v>
+        <v>0.3472048925376476</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1843749086887446</v>
+        <v>0.05584217379151535</v>
       </c>
       <c r="I91" t="n">
-        <v>0.988</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B92" t="n">
-        <v>0.07464172890035285</v>
+        <v>0.6881028938906756</v>
       </c>
       <c r="C92" t="n">
-        <v>0.815311056484508</v>
+        <v>0.9099571275455528</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>0.483386923901394</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7521528389731205</v>
+        <v>0.7245444801714905</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3997986216540146</v>
+        <v>0.5344579260987935</v>
       </c>
       <c r="G92" t="n">
-        <v>0.268270414021142</v>
+        <v>0.3584569065371829</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0111039342916251</v>
+        <v>0.05441615177965133</v>
       </c>
       <c r="I92" t="n">
-        <v>0.988</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7588513714286966</v>
+        <v>0.7352625937834942</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4899522013166358</v>
+        <v>0.6473740621650598</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6842103726136251</v>
+        <v>0.9581993569131833</v>
       </c>
       <c r="F93" t="n">
-        <v>0.4810591219281888</v>
+        <v>0.6555269063314756</v>
       </c>
       <c r="G93" t="n">
-        <v>0.3322611768815234</v>
+        <v>0.4507249758257977</v>
       </c>
       <c r="H93" t="n">
-        <v>0.06495244935738557</v>
+        <v>0.1267188081903335</v>
       </c>
       <c r="I93" t="n">
-        <v>0.993</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6861246562210932</v>
+        <v>0.951768488745982</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8842106646477375</v>
+        <v>0.9732047159699893</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5033492662277881</v>
+        <v>0.309753483386924</v>
       </c>
       <c r="E94" t="n">
-        <v>0.7186601766952397</v>
+        <v>0.4383708467309758</v>
       </c>
       <c r="F94" t="n">
-        <v>0.548945137575918</v>
+        <v>0.5934823178741901</v>
       </c>
       <c r="G94" t="n">
-        <v>0.3917071768528644</v>
+        <v>0.4488243405804401</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1172490675444146</v>
+        <v>0.1516509712735843</v>
       </c>
       <c r="I94" t="n">
-        <v>0.98</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B95" t="n">
-        <v>0.7282294044767369</v>
+        <v>0.44801714898178</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9645930541146511</v>
+        <v>0.6355841371918551</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6497605685320103</v>
+        <v>0.1500535905680607</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9272725547071153</v>
+        <v>0.3558413719185432</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6570386853276891</v>
+        <v>0.5255849047440049</v>
       </c>
       <c r="G95" t="n">
-        <v>0.4741018503689026</v>
+        <v>0.4345192684786097</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1820509465174303</v>
+        <v>0.1679862033251804</v>
       </c>
       <c r="I95" t="n">
-        <v>0.998</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="96">
@@ -3206,144 +3206,144 @@
         <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9215311640552732</v>
+        <v>0.3558413719185432</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9406696196182676</v>
+        <v>0.4281886387995719</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3483258779458028</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4631580714943312</v>
+        <v>0.1489817792068597</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4810591219281888</v>
+        <v>0.6555269063314756</v>
       </c>
       <c r="G96" t="n">
-        <v>0.3322611768815234</v>
+        <v>0.4507249758257977</v>
       </c>
       <c r="H96" t="n">
-        <v>0.06495244935738557</v>
+        <v>0.1267188081903335</v>
       </c>
       <c r="I96" t="n">
-        <v>0.993</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B97" t="n">
-        <v>0.7421001440990105</v>
+        <v>0.7352625937834942</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4545220739492529</v>
+        <v>0.6473740621650598</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6622742584916163</v>
+        <v>0.9581993569131833</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4450112427810036</v>
+        <v>0.6555269063314756</v>
       </c>
       <c r="G97" t="n">
-        <v>0.2858771485369156</v>
+        <v>0.4507249758257977</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>0.1267188081903335</v>
       </c>
       <c r="I97" t="n">
-        <v>0.993</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6643215165226678</v>
+        <v>0.951768488745982</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8761674363269698</v>
+        <v>0.9732047159699893</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4688497569659563</v>
+        <v>0.309753483386924</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6991170950489004</v>
+        <v>0.4383708467309758</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5176129148575459</v>
+        <v>0.5934823178741901</v>
       </c>
       <c r="G98" t="n">
-        <v>0.3494525249233749</v>
+        <v>0.4488243405804401</v>
       </c>
       <c r="H98" t="n">
-        <v>0.05592936760391273</v>
+        <v>0.1516509712735843</v>
       </c>
       <c r="I98" t="n">
-        <v>0.98</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B99" t="n">
-        <v>0.709351042803665</v>
+        <v>0.44801714898178</v>
       </c>
       <c r="C99" t="n">
-        <v>0.96213353442719</v>
+        <v>0.6355841371918551</v>
       </c>
       <c r="D99" t="n">
-        <v>0.625431421934332</v>
+        <v>0.1500535905680607</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9222205916234928</v>
+        <v>0.3558413719185432</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6332151082192454</v>
+        <v>0.5255849047440049</v>
       </c>
       <c r="G99" t="n">
-        <v>0.4375706890310849</v>
+        <v>0.4345192684786097</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1252326655254787</v>
+        <v>0.1679862033251804</v>
       </c>
       <c r="I99" t="n">
-        <v>0.998</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B100" t="n">
-        <v>0.916080379130667</v>
+        <v>0.3558413719185432</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9365482746401962</v>
+        <v>0.4281886387995719</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3030577732583418</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4258667079158462</v>
+        <v>0.1489817792068597</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5739727081325606</v>
+        <v>0.4179840117333924</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4357700765518172</v>
+        <v>0.3905904239752639</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1492833889167086</v>
+        <v>0.1664658493957147</v>
       </c>
       <c r="I100" t="n">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="101">
@@ -3351,144 +3351,144 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>0.435077026655085</v>
+        <v>0.137191854233655</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6141738451640416</v>
+        <v>0.5369774919614154</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1505690627517404</v>
+        <v>0.08467309753483455</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3470636705238133</v>
+        <v>0.5359056806002145</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5176129148575459</v>
+        <v>0.5934823178741901</v>
       </c>
       <c r="G101" t="n">
-        <v>0.3494525249233749</v>
+        <v>0.4488243405804401</v>
       </c>
       <c r="H101" t="n">
-        <v>0.05592936760391273</v>
+        <v>0.1516509712735843</v>
       </c>
       <c r="I101" t="n">
-        <v>0.98</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6881033803199276</v>
+        <v>0.9779735682819396</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9099682558373443</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4833870579981062</v>
+        <v>0.3182819383259913</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7245445669399511</v>
+        <v>0.4504405286343617</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5344564010633294</v>
+        <v>0.6098226900623562</v>
       </c>
       <c r="G102" t="n">
-        <v>0.3583431012925802</v>
+        <v>0.4611818389444389</v>
       </c>
       <c r="H102" t="n">
-        <v>0.05093817784482098</v>
+        <v>0.1558263834782535</v>
       </c>
       <c r="I102" t="n">
-        <v>0.98</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7352625149030748</v>
+        <v>0.4603524229074898</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0.6530837004405295</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6473740332422385</v>
+        <v>0.1541850220264324</v>
       </c>
       <c r="E103" t="n">
-        <v>0.958199430534908</v>
+        <v>0.3656387665198247</v>
       </c>
       <c r="F103" t="n">
-        <v>0.6555258380552095</v>
+        <v>0.5400558547644896</v>
       </c>
       <c r="G103" t="n">
-        <v>0.450628690406784</v>
+        <v>0.4464829047252674</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1235190780600275</v>
+        <v>0.1726113741215785</v>
       </c>
       <c r="I103" t="n">
-        <v>0.998</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9517688253024363</v>
+        <v>0.3656387665198247</v>
       </c>
       <c r="C104" t="n">
-        <v>0.973204721228684</v>
+        <v>0.4399779735682825</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3097541749052663</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4383711859167783</v>
+        <v>0.1530837004405287</v>
       </c>
       <c r="F104" t="n">
-        <v>0.593481651729944</v>
+        <v>0.4294923821005012</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4487429204852444</v>
+        <v>0.4013445656045388</v>
       </c>
       <c r="H104" t="n">
-        <v>0.1487072466885681</v>
+        <v>0.1710491602270945</v>
       </c>
       <c r="I104" t="n">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4480170937654857</v>
+        <v>0.1409691629955949</v>
       </c>
       <c r="C105" t="n">
-        <v>0.6355840451646984</v>
+        <v>0.5517621145374456</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1500537246647728</v>
+        <v>0.08700440528634432</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3558412693739972</v>
+        <v>0.5506607929515419</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5255843996282454</v>
+        <v>0.4641119280579414</v>
       </c>
       <c r="G105" t="n">
-        <v>0.4344503587758225</v>
+        <v>0.4243162928886937</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1652779685034023</v>
+        <v>0.2014180908450507</v>
       </c>
       <c r="I105" t="n">
-        <v>0.995</v>
+        <v>0.92145</v>
       </c>
     </row>
     <row r="106">
@@ -3496,144 +3496,144 @@
         <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>0.3558412693739972</v>
+        <v>0.5291850220264326</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4287244603410576</v>
+        <v>0.7709251101321587</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>0.4240088105726882</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1489825022773697</v>
+        <v>0.6674008810572691</v>
       </c>
       <c r="F106" t="n">
-        <v>0.6555258380552095</v>
+        <v>0.5400558547644896</v>
       </c>
       <c r="G106" t="n">
-        <v>0.450628690406784</v>
+        <v>0.4464829047252674</v>
       </c>
       <c r="H106" t="n">
-        <v>0.1235190780600275</v>
+        <v>0.1726113741215785</v>
       </c>
       <c r="I106" t="n">
-        <v>0.998</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B107" t="n">
-        <v>0.7352625149030748</v>
+        <v>0.5971428571428581</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0.8471428571428581</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6473740332422385</v>
+        <v>0.2000000000000008</v>
       </c>
       <c r="E107" t="n">
-        <v>0.958199430534908</v>
+        <v>0.4742857142857154</v>
       </c>
       <c r="F107" t="n">
-        <v>0.6555258380552095</v>
+        <v>0.7005295944659379</v>
       </c>
       <c r="G107" t="n">
-        <v>0.450628690406784</v>
+        <v>0.5791521107007753</v>
       </c>
       <c r="H107" t="n">
-        <v>0.1235190780600275</v>
+        <v>0.223901611003419</v>
       </c>
       <c r="I107" t="n">
-        <v>0.998</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9517688253024363</v>
+        <v>0.4742857142857154</v>
       </c>
       <c r="C108" t="n">
-        <v>0.973204721228684</v>
+        <v>0.5707142857142864</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3097541749052663</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4383711859167783</v>
+        <v>0.1985714285714286</v>
       </c>
       <c r="F108" t="n">
-        <v>0.593481651729944</v>
+        <v>0.5571129756389358</v>
       </c>
       <c r="G108" t="n">
-        <v>0.4487429204852444</v>
+        <v>0.5206012365270303</v>
       </c>
       <c r="H108" t="n">
-        <v>0.1487072466885681</v>
+        <v>0.2218751964088597</v>
       </c>
       <c r="I108" t="n">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4480170937654857</v>
+        <v>0.182857142857143</v>
       </c>
       <c r="C109" t="n">
-        <v>0.6355840451646984</v>
+        <v>0.7157142857142864</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1500537246647728</v>
+        <v>0.1128571428571438</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3558412693739972</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F109" t="n">
-        <v>0.5255843996282454</v>
+        <v>0.6020194723951582</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4344503587758225</v>
+        <v>0.5503988484899054</v>
       </c>
       <c r="H109" t="n">
-        <v>0.1652779685034023</v>
+        <v>0.2612680378390085</v>
       </c>
       <c r="I109" t="n">
-        <v>0.995</v>
+        <v>0.92145</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3558412693739972</v>
+        <v>0.6864285714285724</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4287244603410576</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>0.5500000000000013</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1489825022773697</v>
+        <v>0.865714285714286</v>
       </c>
       <c r="F110" t="n">
-        <v>0.4179838575279946</v>
+        <v>0.6773608476291945</v>
       </c>
       <c r="G110" t="n">
-        <v>0.3905322270068301</v>
+        <v>0.5989089157551949</v>
       </c>
       <c r="H110" t="n">
-        <v>0.16397433120532</v>
+        <v>0.3096237376690303</v>
       </c>
       <c r="I110" t="n">
-        <v>0.90655</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="111">
@@ -3641,144 +3641,144 @@
         <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1371925141998296</v>
+        <v>0.826428571428573</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5369776155407383</v>
+        <v>0.8857142857142861</v>
       </c>
       <c r="D111" t="n">
-        <v>0.08467317904460046</v>
+        <v>0.4357142857142853</v>
       </c>
       <c r="E111" t="n">
-        <v>0.535905575426322</v>
+        <v>0.4628571428571441</v>
       </c>
       <c r="F111" t="n">
-        <v>0.593481651729944</v>
+        <v>0.5571129756389358</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4487429204852444</v>
+        <v>0.5206012365270303</v>
       </c>
       <c r="H111" t="n">
-        <v>0.1487072466885681</v>
+        <v>0.2218751964088597</v>
       </c>
       <c r="I111" t="n">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9779739088203513</v>
+        <v>0.5318066157760823</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0.6176844783715019</v>
       </c>
       <c r="D112" t="n">
-        <v>0.3182826471641009</v>
+        <v>0.10941475826972</v>
       </c>
       <c r="E112" t="n">
-        <v>0.450440874725031</v>
+        <v>0.2862595419847329</v>
       </c>
       <c r="F112" t="n">
-        <v>0.6098220022819716</v>
+        <v>0.6055713523501972</v>
       </c>
       <c r="G112" t="n">
-        <v>0.4610981746149983</v>
+        <v>0.573054536347228</v>
       </c>
       <c r="H112" t="n">
-        <v>0.1528016083818657</v>
+        <v>0.3070135336974577</v>
       </c>
       <c r="I112" t="n">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4603523636834171</v>
+        <v>0.2722646310432571</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6530836023506597</v>
+        <v>0.7468193384223925</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1541851589820978</v>
+        <v>0.2099236641221381</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3656386591761936</v>
+        <v>0.7455470737913485</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5400553328231783</v>
+        <v>0.6455644156190976</v>
       </c>
       <c r="G113" t="n">
-        <v>0.4464120953167214</v>
+        <v>0.5995918498001702</v>
       </c>
       <c r="H113" t="n">
-        <v>0.1698285724454118</v>
+        <v>0.3420962169049694</v>
       </c>
       <c r="I113" t="n">
-        <v>0.995</v>
+        <v>0.92145</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B114" t="n">
-        <v>0.3656386591761936</v>
+        <v>0.7207379134860059</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4405285455251258</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>0.5992366412213751</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1530844425921787</v>
+        <v>0.8804071246819342</v>
       </c>
       <c r="F114" t="n">
-        <v>0.4294922213286064</v>
+        <v>0.7126623324941935</v>
       </c>
       <c r="G114" t="n">
-        <v>0.4012847641283306</v>
+        <v>0.6427941997819802</v>
       </c>
       <c r="H114" t="n">
-        <v>0.1684890420571534</v>
+        <v>0.3851610895271262</v>
       </c>
       <c r="I114" t="n">
-        <v>0.90655</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1409698403709162</v>
+        <v>0.8454198473282456</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5517622385378453</v>
+        <v>0.8982188295165398</v>
       </c>
       <c r="D115" t="n">
-        <v>0.08700448857019462</v>
+        <v>0.4974554707379131</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5506606819064072</v>
+        <v>0.5216284987277365</v>
       </c>
       <c r="F115" t="n">
-        <v>0.4641117814936923</v>
+        <v>0.6580812371323489</v>
       </c>
       <c r="G115" t="n">
-        <v>0.4242656745557269</v>
+        <v>0.6241533226967113</v>
       </c>
       <c r="H115" t="n">
-        <v>0.1990627732450929</v>
+        <v>0.3960784822631757</v>
       </c>
       <c r="I115" t="n">
-        <v>0.7800499999999999</v>
+        <v>1.1872</v>
       </c>
     </row>
     <row r="116">
@@ -3786,144 +3786,144 @@
         <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5297361473581966</v>
+        <v>0.4669211195928756</v>
       </c>
       <c r="C116" t="n">
-        <v>0.77092495466897</v>
+        <v>0.4885496183206112</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4240093972611487</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6674013178347984</v>
+        <v>0.1361323155216294</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5400553328231783</v>
+        <v>0.6455644156190976</v>
       </c>
       <c r="G116" t="n">
-        <v>0.4464120953167214</v>
+        <v>0.5995918498001702</v>
       </c>
       <c r="H116" t="n">
-        <v>0.1698285724454118</v>
+        <v>0.3420962169049694</v>
       </c>
       <c r="I116" t="n">
-        <v>0.995</v>
+        <v>0.92145</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5971429007393974</v>
+        <v>0.2805031446540884</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8471429007393974</v>
+        <v>0.7496855345911957</v>
       </c>
       <c r="D117" t="n">
-        <v>0.2000002179827009</v>
+        <v>0.2188679245283029</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4742856706891741</v>
+        <v>0.7484276729559749</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7005290587007583</v>
+        <v>0.6495768939328438</v>
       </c>
       <c r="G117" t="n">
-        <v>0.5790603775543985</v>
+        <v>0.6041247722552627</v>
       </c>
       <c r="H117" t="n">
-        <v>0.2202919641099632</v>
+        <v>0.3495441842607624</v>
       </c>
       <c r="I117" t="n">
-        <v>0.995</v>
+        <v>0.92145</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B118" t="n">
-        <v>0.4742856706891741</v>
+        <v>0.7238993710691833</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>0.6037735849056616</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1985724312918527</v>
+        <v>0.8817610062893085</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5571128794410701</v>
+        <v>0.7159152117489763</v>
       </c>
       <c r="G118" t="n">
-        <v>0.5205237704370843</v>
+        <v>0.6468380390297315</v>
       </c>
       <c r="H118" t="n">
-        <v>0.2185544014845147</v>
+        <v>0.3921215300230458</v>
       </c>
       <c r="I118" t="n">
-        <v>0.90655</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1828580583844866</v>
+        <v>0.8471698113207561</v>
       </c>
       <c r="C119" t="n">
-        <v>0.7157145908900669</v>
+        <v>0.8993710691823903</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1128572736467634</v>
+        <v>0.5031446540880501</v>
       </c>
       <c r="E119" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.527044025157234</v>
       </c>
       <c r="F119" t="n">
-        <v>0.602019403682397</v>
+        <v>0.6619520155799073</v>
       </c>
       <c r="G119" t="n">
-        <v>0.5503333002599504</v>
+        <v>0.6284081907416544</v>
       </c>
       <c r="H119" t="n">
-        <v>0.2582129065086097</v>
+        <v>0.4029153296337815</v>
       </c>
       <c r="I119" t="n">
-        <v>0.7800499999999999</v>
+        <v>1.1872</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6871435982840401</v>
+        <v>0.4729559748427677</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0.4943396226415101</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5500008719308036</v>
+        <v>0.01132075471698156</v>
       </c>
       <c r="E120" t="n">
-        <v>0.8657150268554688</v>
+        <v>0.1459119496855359</v>
       </c>
       <c r="F120" t="n">
-        <v>0.6773610103032743</v>
+        <v>0.5145119967529443</v>
       </c>
       <c r="G120" t="n">
-        <v>0.5988535658900308</v>
+        <v>0.5541779998099438</v>
       </c>
       <c r="H120" t="n">
-        <v>0.3068130761363587</v>
+        <v>0.3823550592379223</v>
       </c>
       <c r="I120" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.5188999999999999</v>
       </c>
     </row>
     <row r="121">
@@ -3931,144 +3931,144 @@
         <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8271429879324776</v>
+        <v>0.1899371069182396</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8857149396623883</v>
+        <v>0.3899371069182399</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4357147216796875</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.462857927594866</v>
+        <v>0.2855345911949697</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5571128794410701</v>
+        <v>0.7159152117489763</v>
       </c>
       <c r="G121" t="n">
-        <v>0.5205237704370843</v>
+        <v>0.6468380390297315</v>
       </c>
       <c r="H121" t="n">
-        <v>0.2185544014845147</v>
+        <v>0.3921215300230458</v>
       </c>
       <c r="I121" t="n">
-        <v>0.90655</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5318061588487951</v>
+        <v>0.7238993710691833</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6183202698439662</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1094139629692543</v>
+        <v>0.6037735849056616</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2862597976170254</v>
+        <v>0.8817610062893085</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6055709144494645</v>
+        <v>0.7159152117489763</v>
       </c>
       <c r="G122" t="n">
-        <v>0.5729851648631188</v>
+        <v>0.6468380390297315</v>
       </c>
       <c r="H122" t="n">
-        <v>0.3040554612629748</v>
+        <v>0.3921215300230458</v>
       </c>
       <c r="I122" t="n">
-        <v>0.90655</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B123" t="n">
-        <v>0.2722647965250309</v>
+        <v>0.8471698113207561</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7468193841151205</v>
+        <v>0.8993710691823903</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2099230750564197</v>
+        <v>0.5031446540880501</v>
       </c>
       <c r="E123" t="n">
-        <v>0.745546846562644</v>
+        <v>0.527044025157234</v>
       </c>
       <c r="F123" t="n">
-        <v>0.645564037910373</v>
+        <v>0.6619520155799073</v>
       </c>
       <c r="G123" t="n">
-        <v>0.599533115893815</v>
+        <v>0.6284081907416544</v>
       </c>
       <c r="H123" t="n">
-        <v>0.3393747720869474</v>
+        <v>0.4029153296337815</v>
       </c>
       <c r="I123" t="n">
-        <v>0.7800499999999999</v>
+        <v>1.1872</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7213744570360844</v>
+        <v>0.4729559748427677</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0.4943396226415101</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5992370598655633</v>
+        <v>0.01132075471698156</v>
       </c>
       <c r="E124" t="n">
-        <v>0.8804076779344318</v>
+        <v>0.1459119496855359</v>
       </c>
       <c r="F124" t="n">
-        <v>0.7126622207743896</v>
+        <v>0.5145119967529443</v>
       </c>
       <c r="G124" t="n">
-        <v>0.6427445869769873</v>
+        <v>0.5541779998099438</v>
       </c>
       <c r="H124" t="n">
-        <v>0.3826574045547464</v>
+        <v>0.3823550592379223</v>
       </c>
       <c r="I124" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.5188999999999999</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B125" t="n">
-        <v>0.8460559586498095</v>
+        <v>0.1899371069182396</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8982193210221068</v>
+        <v>0.3899371069182399</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4974554102259215</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0.5216287704142299</v>
+        <v>0.2855345911949697</v>
       </c>
       <c r="F125" t="n">
-        <v>0.6580812349572003</v>
+        <v>0.4490898808792376</v>
       </c>
       <c r="G125" t="n">
-        <v>0.6241113844288707</v>
+        <v>0.5128482446384093</v>
       </c>
       <c r="H125" t="n">
-        <v>0.3937751138235048</v>
+        <v>0.3746094217944866</v>
       </c>
       <c r="I125" t="n">
-        <v>0.99</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="126">
@@ -4076,144 +4076,144 @@
         <v>0</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4669213035987284</v>
+        <v>0.3849056603773586</v>
       </c>
       <c r="C126" t="n">
-        <v>0.488549588682084</v>
+        <v>0.5150943396226429</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>0.1308176100628938</v>
       </c>
       <c r="E126" t="n">
-        <v>0.1361323982625155</v>
+        <v>0.3333333333333339</v>
       </c>
       <c r="F126" t="n">
-        <v>0.645564037910373</v>
+        <v>0.6619520155799073</v>
       </c>
       <c r="G126" t="n">
-        <v>0.599533115893815</v>
+        <v>0.6284081907416544</v>
       </c>
       <c r="H126" t="n">
-        <v>0.3393747720869474</v>
+        <v>0.4029153296337815</v>
       </c>
       <c r="I126" t="n">
-        <v>0.7800499999999999</v>
+        <v>1.1872</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B127" t="n">
-        <v>0.280503674586525</v>
+        <v>0.9461038961038971</v>
       </c>
       <c r="C127" t="n">
-        <v>0.749685707211556</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>0.2188677398365869</v>
+        <v>0.5909090909090903</v>
       </c>
       <c r="E127" t="n">
-        <v>0.7484275763851435</v>
+        <v>0.6155844155844166</v>
       </c>
       <c r="F127" t="n">
-        <v>0.6495766989144317</v>
+        <v>0.7548725355662675</v>
       </c>
       <c r="G127" t="n">
-        <v>0.6040669048462561</v>
+        <v>0.7202396255059934</v>
       </c>
       <c r="H127" t="n">
-        <v>0.3468538807945278</v>
+        <v>0.4874255676089039</v>
       </c>
       <c r="I127" t="n">
-        <v>0.7800499999999999</v>
+        <v>1.1872</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7245288487191249</v>
+        <v>0.5597402597402599</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0.5818181818181821</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6037742005447102</v>
+        <v>0.08311688311688316</v>
       </c>
       <c r="E128" t="n">
-        <v>0.8817616134784102</v>
+        <v>0.222077922077923</v>
       </c>
       <c r="F128" t="n">
-        <v>0.7159152459327111</v>
+        <v>0.6026455031410265</v>
       </c>
       <c r="G128" t="n">
-        <v>0.646789167712742</v>
+        <v>0.6435993634401362</v>
       </c>
       <c r="H128" t="n">
-        <v>0.3896464994092386</v>
+        <v>0.4661977559664259</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.5188999999999999</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8477987988737282</v>
+        <v>0.2675324675324677</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8993716063576392</v>
+        <v>0.4740259740259746</v>
       </c>
       <c r="D129" t="n">
-        <v>0.503144847229713</v>
+        <v>0.07142857142857104</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5270445345683681</v>
+        <v>0.3662337662337671</v>
       </c>
       <c r="F129" t="n">
-        <v>0.661952185542898</v>
+        <v>0.5350992925960956</v>
       </c>
       <c r="G129" t="n">
-        <v>0.6283669164597612</v>
+        <v>0.6009277331006949</v>
       </c>
       <c r="H129" t="n">
-        <v>0.4006383422219687</v>
+        <v>0.4582006367878137</v>
       </c>
       <c r="I129" t="n">
-        <v>0.99</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4729564251042684</v>
+        <v>0.4688311688311686</v>
       </c>
       <c r="C130" t="n">
-        <v>0.4943398507900985</v>
+        <v>0.6032467532467544</v>
       </c>
       <c r="D130" t="n">
-        <v>0.01132125809243951</v>
+        <v>0.2064935064935069</v>
       </c>
       <c r="E130" t="n">
-        <v>0.1459124663394823</v>
+        <v>0.4155844155844158</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5145122657704942</v>
+        <v>0.5009521848784723</v>
       </c>
       <c r="G130" t="n">
-        <v>0.554143154902795</v>
+        <v>0.5724133765597287</v>
       </c>
       <c r="H130" t="n">
-        <v>0.3802602721513698</v>
+        <v>0.4547913390915424</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9924999999999999</v>
+        <v>-1.40135</v>
       </c>
     </row>
     <row r="131">
@@ -4221,144 +4221,144 @@
         <v>0</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1899374485375549</v>
+        <v>0.3025974025974023</v>
       </c>
       <c r="C131" t="n">
-        <v>0.3899370646685003</v>
+        <v>0.4714285714285725</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0.2855342785469021</v>
+        <v>0.293506493506494</v>
       </c>
       <c r="F131" t="n">
-        <v>0.7159152459327111</v>
+        <v>0.6026455031410265</v>
       </c>
       <c r="G131" t="n">
-        <v>0.646789167712742</v>
+        <v>0.6435993634401362</v>
       </c>
       <c r="H131" t="n">
-        <v>0.3896464994092386</v>
+        <v>0.4661977559664259</v>
       </c>
       <c r="I131" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.5188999999999999</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7245288487191249</v>
+        <v>0.8697029418244965</v>
       </c>
       <c r="C132" t="n">
+        <v>0.9040067701563215</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.1291438243080459</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.3450561555730615</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.936367463012696</v>
+      </c>
+      <c r="G132" t="n">
         <v>1</v>
       </c>
-      <c r="D132" t="n">
-        <v>0.6037742005447102</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.8817616134784102</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.7159152459327111</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.646789167712742</v>
-      </c>
       <c r="H132" t="n">
-        <v>0.3896464994092386</v>
+        <v>0.7243601881060419</v>
       </c>
       <c r="I132" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.5188999999999999</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8477987988737282</v>
+        <v>0.4156816844915229</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8993716063576392</v>
+        <v>0.7365233730068249</v>
       </c>
       <c r="D133" t="n">
-        <v>0.503144847229713</v>
+        <v>0.1109829740147263</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5270445345683681</v>
+        <v>0.5690399758573284</v>
       </c>
       <c r="F133" t="n">
-        <v>0.661952185542898</v>
+        <v>0.8314167523968772</v>
       </c>
       <c r="G133" t="n">
-        <v>0.6283669164597612</v>
+        <v>0.9336984578242044</v>
       </c>
       <c r="H133" t="n">
-        <v>0.4006383422219687</v>
+        <v>0.7119345711261456</v>
       </c>
       <c r="I133" t="n">
-        <v>0.99</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4729564251042684</v>
+        <v>0.7284518839875708</v>
       </c>
       <c r="C134" t="n">
-        <v>0.4943398507900985</v>
+        <v>0.9373016623607409</v>
       </c>
       <c r="D134" t="n">
-        <v>0.01132125809243951</v>
+        <v>0.320841688515302</v>
       </c>
       <c r="E134" t="n">
-        <v>0.1459124663394823</v>
+        <v>0.6457191215402297</v>
       </c>
       <c r="F134" t="n">
-        <v>0.5145122657704942</v>
+        <v>0.7783602864378342</v>
       </c>
       <c r="G134" t="n">
-        <v>0.554143154902795</v>
+        <v>0.8893939445497465</v>
       </c>
       <c r="H134" t="n">
-        <v>0.3802602721513698</v>
+        <v>0.7066373351592731</v>
       </c>
       <c r="I134" t="n">
-        <v>0.9924999999999999</v>
+        <v>-1.40135</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1899374485375549</v>
+        <v>0.4701642353714789</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3899370646685003</v>
+        <v>0.7324876284971993</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>0.2855342785469021</v>
+        <v>0.4560391295877878</v>
       </c>
       <c r="F135" t="n">
-        <v>0.4490899837066116</v>
+        <v>0.6862685273378222</v>
       </c>
       <c r="G135" t="n">
-        <v>0.5128187123865032</v>
+        <v>0.8227239730171362</v>
       </c>
       <c r="H135" t="n">
-        <v>0.3726821926630123</v>
+        <v>0.6865894787135552</v>
       </c>
       <c r="I135" t="n">
-        <v>0.986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -4366,144 +4366,144 @@
         <v>0</v>
       </c>
       <c r="B136" t="n">
-        <v>0.3849055010354868</v>
+        <v>0.3228595607701162</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5157232764759285</v>
+        <v>0.62755827124691</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1308177754404418</v>
+        <v>0.1553761636206197</v>
       </c>
       <c r="E136" t="n">
-        <v>0.3333336532242122</v>
+        <v>0.3228595607701162</v>
       </c>
       <c r="F136" t="n">
-        <v>0.661952185542898</v>
+        <v>0.8314167523968772</v>
       </c>
       <c r="G136" t="n">
-        <v>0.6283669164597612</v>
+        <v>0.9336984578242044</v>
       </c>
       <c r="H136" t="n">
-        <v>0.4006383422219687</v>
+        <v>0.7119345711261456</v>
       </c>
       <c r="I136" t="n">
-        <v>0.99</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B137" t="n">
-        <v>0.9467528028099935</v>
+        <v>0.4434876210979543</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0.7857911733046281</v>
       </c>
       <c r="D137" t="n">
-        <v>0.5909091359468123</v>
+        <v>0.1184068891280939</v>
       </c>
       <c r="E137" t="n">
-        <v>0.6155847630182659</v>
+        <v>0.6071044133476859</v>
       </c>
       <c r="F137" t="n">
-        <v>0.7548723962564284</v>
+        <v>0.8870321965532676</v>
       </c>
       <c r="G137" t="n">
-        <v>0.7201967302844507</v>
+        <v>0.996155768541516</v>
       </c>
       <c r="H137" t="n">
-        <v>0.485074601204671</v>
+        <v>0.7595575679797975</v>
       </c>
       <c r="I137" t="n">
-        <v>0.99</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B138" t="n">
-        <v>0.5597406007401499</v>
+        <v>0.77717976318622</v>
       </c>
       <c r="C138" t="n">
-        <v>0.5818182718936245</v>
+        <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>0.08311774526754884</v>
+        <v>0.3423035522066738</v>
       </c>
       <c r="E138" t="n">
-        <v>0.2220786619833441</v>
+        <v>0.6889128094725502</v>
       </c>
       <c r="F138" t="n">
-        <v>0.602645615035548</v>
+        <v>0.8304266573873474</v>
       </c>
       <c r="G138" t="n">
-        <v>0.6435631813150494</v>
+        <v>0.9488876209924442</v>
       </c>
       <c r="H138" t="n">
-        <v>0.4640349260669649</v>
+        <v>0.7539059872992185</v>
       </c>
       <c r="I138" t="n">
-        <v>0.9924999999999999</v>
+        <v>-1.40135</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B139" t="n">
-        <v>0.2675329822492829</v>
+        <v>0.5016146393971999</v>
       </c>
       <c r="C139" t="n">
-        <v>0.4740258903844916</v>
+        <v>0.7814854682454255</v>
       </c>
       <c r="D139" t="n">
-        <v>0.07142892529638198</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3662335088753585</v>
+        <v>0.4865446716899893</v>
       </c>
       <c r="F139" t="n">
-        <v>0.5350992989897804</v>
+        <v>0.7321746614738178</v>
       </c>
       <c r="G139" t="n">
-        <v>0.6008970778627887</v>
+        <v>0.8777579364843727</v>
       </c>
       <c r="H139" t="n">
-        <v>0.4562108126916363</v>
+        <v>0.7325170820504812</v>
       </c>
       <c r="I139" t="n">
-        <v>0.986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B140" t="n">
-        <v>0.4688309693784029</v>
+        <v>0.3444564047362766</v>
       </c>
       <c r="C140" t="n">
-        <v>0.6038959430470991</v>
+        <v>0.669537136706134</v>
       </c>
       <c r="D140" t="n">
-        <v>0.2064938989650782</v>
+        <v>0.1657696447793345</v>
       </c>
       <c r="E140" t="n">
-        <v>0.415584763018266</v>
+        <v>0.3444564047362766</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5009522887122043</v>
+        <v>0.6213980166916633</v>
       </c>
       <c r="G140" t="n">
-        <v>0.5723874909636313</v>
+        <v>0.7957115469846666</v>
       </c>
       <c r="H140" t="n">
-        <v>0.452960728717766</v>
+        <v>0.7014722278653461</v>
       </c>
       <c r="I140" t="n">
-        <v>0.993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -4511,28 +4511,28 @@
         <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>0.3025974605030443</v>
+        <v>0.4736275565123785</v>
       </c>
       <c r="C141" t="n">
-        <v>0.471428925296382</v>
+        <v>0.9171151776103328</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>0.3229278794402576</v>
       </c>
       <c r="E141" t="n">
-        <v>0.2935065964498566</v>
+        <v>0.6630785791173286</v>
       </c>
       <c r="F141" t="n">
-        <v>0.5009522887122043</v>
+        <v>0.6213980166916633</v>
       </c>
       <c r="G141" t="n">
-        <v>0.5723874909636313</v>
+        <v>0.7957115469846666</v>
       </c>
       <c r="H141" t="n">
-        <v>0.452960728717766</v>
+        <v>0.7014722278653461</v>
       </c>
       <c r="I141" t="n">
-        <v>0.993</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/x_valid_dataset.xlsx
+++ b/Excel reports/x_valid_dataset.xlsx
@@ -477,118 +477,118 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1193181818181815</v>
+        <v>0.07908169554290044</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3499999999999999</v>
+        <v>0.3018705000499544</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3465909090909089</v>
+        <v>0.1853742621995762</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3169398559940427</v>
+        <v>0.1429878282204202</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3573317467745713</v>
+        <v>0.1596862254859436</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3745878570013179</v>
+        <v>0.1596205165368848</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3519</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2534090909090914</v>
+        <v>0.1547619511017863</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5505681818181819</v>
+        <v>0.3112242978164092</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1477272727272725</v>
+        <v>0.1045915222854978</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3954545454545461</v>
+        <v>0.2576530777744475</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3393726244113296</v>
+        <v>0.1757493280929989</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3631967927253368</v>
+        <v>0.1747580489149438</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3762571920775769</v>
+        <v>0.1674631214358896</v>
       </c>
       <c r="I3" t="n">
-        <v>1.23185</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3545454545454552</v>
+        <v>0.305271940033969</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5630681818181819</v>
+        <v>0.4506800933693005</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2875000000000002</v>
+        <v>0.2287411622894941</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4920454545454545</v>
+        <v>0.4472786533852859</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3829934330210803</v>
+        <v>0.2533291353193661</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3830196637745849</v>
+        <v>0.2166842957565351</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3855202530750065</v>
+        <v>0.1898483639918411</v>
       </c>
       <c r="I4" t="n">
-        <v>0.32155</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5556818181818184</v>
+        <v>0.4498302199420529</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7499999999999996</v>
+        <v>0.6377553999400547</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4528409090909092</v>
+        <v>0.3954084777145022</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7454545454545459</v>
+        <v>0.6326529155848621</v>
       </c>
       <c r="F5" t="n">
-        <v>0.486553750859214</v>
+        <v>0.3617073582523651</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4387788763407325</v>
+        <v>0.2806794680378157</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4143149964653698</v>
+        <v>0.2252727281192829</v>
       </c>
       <c r="I5" t="n">
-        <v>0.18315</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="6">
@@ -596,144 +596,144 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.748863636363637</v>
+        <v>0.6309525199720255</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6761363636363642</v>
+        <v>0.5654765843651834</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9931818181818179</v>
+        <v>0.986394888822283</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3393726244113296</v>
+        <v>0.1757493280929989</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3631967927253368</v>
+        <v>0.1747580489149438</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3762571920775769</v>
+        <v>0.1674631214358896</v>
       </c>
       <c r="I6" t="n">
-        <v>1.23185</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07911527009783133</v>
+        <v>0.0484801714199381</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3015737983836668</v>
+        <v>0.1996712528688579</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1854529987239479</v>
+        <v>0.1479048639404393</v>
       </c>
       <c r="F7" t="n">
-        <v>0.143469085054845</v>
+        <v>0.06876047713377954</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1613042769870665</v>
+        <v>0.06780259446044021</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1710815219296196</v>
+        <v>0.06075343536364286</v>
       </c>
       <c r="I7" t="n">
-        <v>1.23185</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1548277328796264</v>
+        <v>0.1939194318768113</v>
       </c>
       <c r="C8" t="n">
-        <v>0.310931518502765</v>
+        <v>0.3344287391694934</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1046363249680991</v>
+        <v>0.1199669999065917</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2577626541897067</v>
+        <v>0.3311418947595425</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1761243905219489</v>
+        <v>0.1437265964554256</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1761440273259336</v>
+        <v>0.1083163329679947</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1780160125104262</v>
+        <v>0.0823845121153147</v>
       </c>
       <c r="I8" t="n">
-        <v>0.32155</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3054019566142071</v>
+        <v>0.3336074982431086</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4508719693747341</v>
+        <v>0.5152014203079717</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2284134410888986</v>
+        <v>0.2810192414868348</v>
       </c>
       <c r="E9" t="n">
-        <v>0.447469162058699</v>
+        <v>0.51027084024231</v>
       </c>
       <c r="F9" t="n">
-        <v>0.253651468103878</v>
+        <v>0.2484535232516784</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2178863557463589</v>
+        <v>0.1701554879332734</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1995722644742881</v>
+        <v>0.1166154183654744</v>
       </c>
       <c r="I9" t="n">
-        <v>0.18315</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4500212675457259</v>
+        <v>0.5086277314880697</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6380263717566995</v>
+        <v>0.8652418867978938</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3955763504891542</v>
+        <v>0.4453577005755582</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6329221607826457</v>
+        <v>0.8520951360595607</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3620145231549545</v>
+        <v>0.4209225554825023</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2817380180596338</v>
+        <v>0.2750692799527021</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2342402561789571</v>
+        <v>0.1754537957810015</v>
       </c>
       <c r="I10" t="n">
-        <v>0.992</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="11">
@@ -741,144 +741,144 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6312207571246282</v>
+        <v>0.9046833928158345</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5657167162909408</v>
+        <v>0.6179129572384238</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9868141216503626</v>
+        <v>0.7888251051470492</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1761243905219489</v>
+        <v>0.1437265964554256</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1761440273259336</v>
+        <v>0.1083163329679947</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1780160125104262</v>
+        <v>0.0823845121153147</v>
       </c>
       <c r="I11" t="n">
-        <v>0.32155</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" t="n">
-        <v>0.04847986852917036</v>
+        <v>0.1215486456300016</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1992604765817582</v>
+        <v>0.2746730306778046</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.04095668424027286</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1479046836483153</v>
+        <v>0.2710910898176652</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0690503048960973</v>
+        <v>0.06684944309464362</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06906927208022555</v>
+        <v>0.02826000780834552</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07087742210846797</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.32155</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1939194741166803</v>
+        <v>0.2737780578517923</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3344289235825795</v>
+        <v>0.471675678873293</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1195562859490549</v>
+        <v>0.2164683704602881</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3311421528348398</v>
+        <v>0.4663024259904022</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1439336900214528</v>
+        <v>0.1809788667791463</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1093881768117045</v>
+        <v>0.09565114906712288</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0916986005665778</v>
+        <v>0.03730419407923222</v>
       </c>
       <c r="I13" t="n">
-        <v>0.18315</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3336072308956451</v>
+        <v>0.4645117971530142</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5152013147082987</v>
+        <v>0.8531431574757369</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2810188989317996</v>
+        <v>0.3955613143550794</v>
       </c>
       <c r="E14" t="n">
-        <v>0.510271158586688</v>
+        <v>0.8388160772205425</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2486015381829486</v>
+        <v>0.3689323554766884</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1710624817001635</v>
+        <v>0.2099842149368796</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1251844052081869</v>
+        <v>0.1014251447305373</v>
       </c>
       <c r="I14" t="n">
-        <v>0.992</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5086277732128182</v>
+        <v>0.8961257646120466</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8648315529991775</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4453574363188169</v>
+        <v>0.5836087688075375</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8520953163516847</v>
+        <v>0.7698655944226077</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4210283319454444</v>
+        <v>0.4834847094612364</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2758367639542438</v>
+        <v>0.2961198117808373</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1833372780996673</v>
+        <v>0.154900380705903</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9715</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="16">
@@ -886,144 +886,144 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9046836483155292</v>
+        <v>0.7259873312749222</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.8182200880710816</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6179129005751844</v>
+        <v>0.5540582691004098</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7888249794576823</v>
+        <v>0.562117123646701</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1439336900214528</v>
+        <v>0.1809788667791463</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1093881768117045</v>
+        <v>0.09565114906712288</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0916986005665778</v>
+        <v>0.03730419407923222</v>
       </c>
       <c r="I16" t="n">
-        <v>0.18315</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1125406980698979</v>
+        <v>0.2340965369503706</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2672354387733096</v>
+        <v>0.4300046471016367</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03067008968592813</v>
+        <v>0.1773629971924085</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2636168483474995</v>
+        <v>0.4246854127812927</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05750854230485394</v>
+        <v>0.1422302777565163</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01947544752893812</v>
+        <v>0.05776037946164474</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.18315</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2663307911668577</v>
+        <v>0.4229127855526059</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4662579121929046</v>
+        <v>0.8076371443061074</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2084333443538846</v>
+        <v>0.3546554780153253</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4608300265541881</v>
+        <v>0.7934540975251878</v>
       </c>
       <c r="F18" t="n">
-        <v>0.172743252090378</v>
+        <v>0.3282942262618514</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0873761519943612</v>
+        <v>0.1709440283944974</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03686640212433541</v>
+        <v>0.06347632780201533</v>
       </c>
       <c r="I18" t="n">
-        <v>0.992</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4590207313412831</v>
+        <v>0.8501876372831498</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8511854687385294</v>
+        <v>0.9530176007926697</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3893628656444253</v>
+        <v>0.5408124476159597</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8371634308385136</v>
+        <v>0.7251967899879073</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3625775888755594</v>
+        <v>0.4416949587550099</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2027280410473079</v>
+        <v>0.2562136840242523</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1008901644214703</v>
+        <v>0.1164139647768867</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9715</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8950608776514855</v>
+        <v>0.6817596452379505</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0.7730651646510101</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5793388629994924</v>
+        <v>0.5115590259640643</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7675055651416546</v>
+        <v>0.5195368629688676</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4782712963801584</v>
+        <v>0.4639355028161124</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2896168909079772</v>
+        <v>0.2967249423234239</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1542193964790851</v>
+        <v>0.1486637966322445</v>
       </c>
       <c r="I20" t="n">
-        <v>0.007</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1031,144 +1031,144 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7231778324254726</v>
+        <v>0.5195368629688676</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8163746288422296</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5494854919865534</v>
+        <v>0.425572064554207</v>
       </c>
       <c r="E21" t="n">
-        <v>0.557627320444628</v>
+        <v>0.8829869897095606</v>
       </c>
       <c r="F21" t="n">
-        <v>0.172743252090378</v>
+        <v>0.3282942262618514</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0873761519943612</v>
+        <v>0.1709440283944974</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03686640212433541</v>
+        <v>0.06347632780201533</v>
       </c>
       <c r="I21" t="n">
-        <v>0.992</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2269498031486621</v>
+        <v>0.3837985823754003</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4246860224821635</v>
+        <v>0.7945990460204552</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1696868256041185</v>
+        <v>0.3109148853973161</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4193176183373623</v>
+        <v>0.7794546912091854</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1343878432768022</v>
+        <v>0.282766903092069</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04995623869099035</v>
+        <v>0.1147517182777234</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.992</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4175281502890957</v>
+        <v>0.8400335547682993</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8053953497509643</v>
+        <v>0.9498331963173292</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3486336304308171</v>
+        <v>0.5096893265854723</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7915269723768963</v>
+        <v>0.7065709942311011</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3221418801625432</v>
+        <v>0.4038537862746492</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1640440438734376</v>
+        <v>0.2058008376551656</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06332215779015231</v>
+        <v>0.0565256795384881</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9715</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8487899499214386</v>
+        <v>0.6601897376334848</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9525790967209248</v>
+        <v>0.757683823606527</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5365277754988501</v>
+        <v>0.478453146956143</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7226324525186164</v>
+        <v>0.4869717111330415</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4365677579785645</v>
+        <v>0.4276017648056188</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2499807221265425</v>
+        <v>0.2490578951133003</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1160669813684295</v>
+        <v>0.09096136206605172</v>
       </c>
       <c r="I24" t="n">
-        <v>0.007</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6787904853360758</v>
+        <v>0.4869717111330415</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7709659845023076</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.507001552702445</v>
+        <v>0.3866381037676998</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5150541589196467</v>
+        <v>0.8750560036397004</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4589924439617307</v>
+        <v>0.5554458330439276</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2907612508639427</v>
+        <v>0.3453652964250548</v>
       </c>
       <c r="H25" t="n">
-        <v>0.147985955572527</v>
+        <v>0.153688933391943</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.3938</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="26">
@@ -1176,144 +1176,144 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5150541589196467</v>
+        <v>0.8778955250319999</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0.8968261490853414</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4202123523614962</v>
+        <v>0.6545106948488858</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8818951088143783</v>
+        <v>0.8466593454026706</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3221418801625432</v>
+        <v>0.4038537862746492</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1640440438734376</v>
+        <v>0.2058008376551656</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06332215779015231</v>
+        <v>0.0565256795384881</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9715</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3781513520841771</v>
+        <v>0.7519881748605426</v>
       </c>
       <c r="C27" t="n">
-        <v>0.792239507032731</v>
+        <v>0.857370691947022</v>
       </c>
       <c r="D27" t="n">
-        <v>0.304599361470478</v>
+        <v>0.4349333486355273</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7774335868442603</v>
+        <v>0.6238946732079331</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2763166915123914</v>
+        <v>0.3333554611505145</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1075309797503678</v>
+        <v>0.1432699750098289</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9715</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8385677089127884</v>
+        <v>0.5793792859358525</v>
       </c>
       <c r="C28" t="n">
-        <v>0.949373305161999</v>
+        <v>0.6729512870456831</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5051956995078395</v>
+        <v>0.4049537677638153</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7038815962305599</v>
+        <v>0.4131296390349743</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3984780928604399</v>
+        <v>0.3561480834032177</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1992772284396286</v>
+        <v>0.1847868463983129</v>
       </c>
       <c r="H28" t="n">
-        <v>0.05631052769844485</v>
+        <v>0.03305037112279733</v>
       </c>
       <c r="I28" t="n">
-        <v>0.007</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6570757840218426</v>
+        <v>0.4131296390349743</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7554826161390279</v>
+        <v>0.9055193377137971</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4736734178162542</v>
+        <v>0.3168323475014242</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4822704037321415</v>
+        <v>0.7856017073323467</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4224187531094973</v>
+        <v>0.4788491188115401</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2428146400230916</v>
+        <v>0.2772199019266264</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09038731778114074</v>
+        <v>0.09325447801956072</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.3938</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4822704037321415</v>
+        <v>0.7883269977560664</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0.8064960626511295</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3810170140561395</v>
+        <v>0.5739287050884132</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8739108732336575</v>
+        <v>0.7583474168843545</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5514165017163997</v>
+        <v>0.5587057754037728</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3399063682093329</v>
+        <v>0.3512395196124312</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1530692022173426</v>
+        <v>0.1464619131287448</v>
       </c>
       <c r="I30" t="n">
-        <v>1.5257</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="31">
@@ -1321,144 +1321,144 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8767765352056198</v>
+        <v>0.6774938998221477</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8958809483520356</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6513444600779177</v>
+        <v>0.6238946732079331</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8452542535140345</v>
+        <v>0.9418581606093209</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3984780928604399</v>
+        <v>0.3561480834032177</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1992772284396286</v>
+        <v>0.1847868463983129</v>
       </c>
       <c r="H31" t="n">
-        <v>0.05631052769844485</v>
+        <v>0.03305037112279733</v>
       </c>
       <c r="I31" t="n">
-        <v>0.007</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7499835726267918</v>
+        <v>0.4248871957869758</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8562176589831741</v>
+        <v>0.4976593740073726</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4303655024683692</v>
+        <v>0.2892341719759137</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6208542090384321</v>
+        <v>0.2955926547933695</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3280507474010496</v>
+        <v>0.251277348157547</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1370683191710562</v>
+        <v>0.1180074561868549</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.007</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5759794656637542</v>
+        <v>0.2955926547933695</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6703263240812917</v>
+        <v>0.6785306114593226</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4001437365221574</v>
+        <v>0.2207009823004874</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4083860363256701</v>
+        <v>0.5852690902095674</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3510036870937981</v>
+        <v>0.3467035601724099</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1788095064256117</v>
+        <v>0.1898938614211188</v>
       </c>
       <c r="H33" t="n">
-        <v>0.03267088290605377</v>
+        <v>0.04682152721676495</v>
       </c>
       <c r="I33" t="n">
-        <v>-1.3938</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4083860363256701</v>
+        <v>0.5873885844820527</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9047556467149692</v>
+        <v>0.6015189056567547</v>
       </c>
       <c r="D34" t="n">
-        <v>0.31131006086208</v>
+        <v>0.4206482072420053</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7838685829301208</v>
+        <v>0.5640730694103137</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4746793716184612</v>
+        <v>0.4088091342403824</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2718955181955366</v>
+        <v>0.2474598934194568</v>
       </c>
       <c r="H34" t="n">
-        <v>0.09276669890797959</v>
+        <v>0.08820165059224933</v>
       </c>
       <c r="I34" t="n">
-        <v>1.5257</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7866160161979584</v>
+        <v>0.5011922238196485</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8049322379835416</v>
+        <v>0.7520094674496147</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5704845991280791</v>
+        <v>0.4595073990282368</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7563942502517466</v>
+        <v>0.7067917928459274</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5551693369422576</v>
+        <v>0.4939470366991091</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3464337846657226</v>
+        <v>0.3181263394850679</v>
       </c>
       <c r="H35" t="n">
-        <v>0.145856903015481</v>
+        <v>0.1376888619725438</v>
       </c>
       <c r="I35" t="n">
-        <v>1.4394</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="36">
@@ -1466,144 +1466,144 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6748870633059022</v>
+        <v>0.7336396186927416</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6208542090384321</v>
+        <v>0.7258677803354953</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9413880902861343</v>
+        <v>0.9286411773193937</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3510036870937981</v>
+        <v>0.3467035601724099</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1788095064256117</v>
+        <v>0.1898938614211188</v>
       </c>
       <c r="H36" t="n">
-        <v>0.03267088290605377</v>
+        <v>0.04682152721676495</v>
       </c>
       <c r="I36" t="n">
-        <v>-1.3938</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4215685257872941</v>
+        <v>0.2542077460815151</v>
       </c>
       <c r="C37" t="n">
-        <v>0.494774926860258</v>
+        <v>0.645514389265568</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2851326006658696</v>
+        <v>0.1776793987200307</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2915280346559366</v>
+        <v>0.5502147403714928</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2470034437703915</v>
+        <v>0.3064356239030303</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1133930993046718</v>
+        <v>0.1461990222057041</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.3938</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2915280346559366</v>
+        <v>0.5523805538527025</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6766752816132912</v>
+        <v>0.5668196776056099</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2162040343284833</v>
+        <v>0.3819962496455279</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5828755830923114</v>
+        <v>0.5285555039248677</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3429669121480824</v>
+        <v>0.3698984467664124</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1856211737335397</v>
+        <v>0.205023096316345</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04663004664738527</v>
+        <v>0.04228444031398991</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5257</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5850073944223336</v>
+        <v>0.464300466835081</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5992194699558155</v>
+        <v>0.7205990445786672</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4173049031272495</v>
+        <v>0.4217046661919192</v>
       </c>
       <c r="E39" t="n">
-        <v>0.561557469792089</v>
+        <v>0.6743931875886467</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4054213571892276</v>
+        <v>0.4568969441441932</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2434575269733164</v>
+        <v>0.277233879589007</v>
       </c>
       <c r="H39" t="n">
-        <v>0.08782424049896161</v>
+        <v>0.09285314009596274</v>
       </c>
       <c r="I39" t="n">
-        <v>1.4394</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4983137336680953</v>
+        <v>0.7018277430460764</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7505780743873955</v>
+        <v>0.9740091365909554</v>
       </c>
       <c r="D40" t="n">
-        <v>0.456388110844324</v>
+        <v>0.6938860597367982</v>
       </c>
       <c r="E40" t="n">
-        <v>0.705099432680254</v>
+        <v>0.9010908455763298</v>
       </c>
       <c r="F40" t="n">
-        <v>0.491043664472378</v>
+        <v>0.5838094874105175</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3144793586205373</v>
+        <v>0.3732118743562872</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1372062558734652</v>
+        <v>0.1575121565343919</v>
       </c>
       <c r="I40" t="n">
-        <v>1.4384</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="41">
@@ -1611,144 +1611,144 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0.73210237619387</v>
+        <v>0.9039782296731003</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7242857346504551</v>
+        <v>0.7169889882318085</v>
       </c>
       <c r="E41" t="n">
-        <v>0.928229018555917</v>
+        <v>0.867158298858007</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3429669121480824</v>
+        <v>0.3698984467664124</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1856211737335397</v>
+        <v>0.205023096316345</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04663004664738527</v>
+        <v>0.04228444031398991</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5257</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2501635072313356</v>
+        <v>0.5326175484774928</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6435917541632004</v>
+        <v>0.5476941791188925</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1732199755435538</v>
+        <v>0.3547105462533297</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5477752807406793</v>
+        <v>0.5077405902962495</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3027083652194253</v>
+        <v>0.3420786089763768</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1419795569112417</v>
+        <v>0.1699237882860643</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.5257</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5499529278639185</v>
+        <v>0.4406486062098127</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5644705753521794</v>
+        <v>0.708263113619105</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3786446875024424</v>
+        <v>0.3961721432220683</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5259988095082885</v>
+        <v>0.6600172054027144</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3665056350162438</v>
+        <v>0.4329182079553299</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2010594419261718</v>
+        <v>0.2453227755347799</v>
       </c>
       <c r="H43" t="n">
-        <v>0.04207990476066312</v>
+        <v>0.05280137643221745</v>
       </c>
       <c r="I43" t="n">
-        <v>1.4394</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4613952781855284</v>
+        <v>0.6886630336760111</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7190835211021553</v>
+        <v>0.9728616047362061</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4185682180951591</v>
+        <v>0.6803707142822634</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6726270491397212</v>
+        <v>0.8967238723195665</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4539688961943801</v>
+        <v>0.565434112059397</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2736083045744098</v>
+        <v>0.3455383288862852</v>
       </c>
       <c r="H44" t="n">
-        <v>0.09252367631098797</v>
+        <v>0.1203151761032051</v>
       </c>
       <c r="I44" t="n">
-        <v>1.4384</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7002105793674172</v>
+        <v>0.8997387383385723</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9738682345211308</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6922258732488737</v>
+        <v>0.7044936683904587</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9005541147054139</v>
+        <v>0.8612931576620249</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5815646729118183</v>
+        <v>0.6499652679458616</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3700615061330262</v>
+        <v>0.4248852256210149</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1571661113825416</v>
+        <v>0.1795934146279111</v>
       </c>
       <c r="I45" t="n">
-        <v>1.3808</v>
+        <v>0.86465</v>
       </c>
     </row>
     <row r="46">
@@ -1756,141 +1756,141 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9034576442030665</v>
+        <v>0.7730936606229912</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0.8266164470775311</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7154541092300905</v>
+        <v>0.5341249814869956</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8664376431080014</v>
+        <v>0.622325053662622</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3665056350162438</v>
+        <v>0.4329182079553299</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2010594419261718</v>
+        <v>0.2453227755347799</v>
       </c>
       <c r="H46" t="n">
-        <v>0.04207990476066312</v>
+        <v>0.05280137643221745</v>
       </c>
       <c r="I46" t="n">
-        <v>1.4394</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5301830764666891</v>
+        <v>0.4094676872699662</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5453384610967961</v>
+        <v>0.6920003058260167</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3513495378314288</v>
+        <v>0.3625118937530623</v>
       </c>
       <c r="E47" t="n">
-        <v>0.505176691827013</v>
+        <v>0.6410649401952428</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3386772360950656</v>
+        <v>0.4013063596855099</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1659632551353749</v>
+        <v>0.2032534616418658</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1.4394</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4377352302230376</v>
+        <v>0.6713076237893104</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7067433074074331</v>
+        <v>0.9713487809330079</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3930268455642223</v>
+        <v>0.6625530508967599</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6582460765910912</v>
+        <v>0.8909667675704314</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4299826190939301</v>
+        <v>0.5412093333669156</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2416990738208694</v>
+        <v>0.3090555087077987</v>
       </c>
       <c r="H48" t="n">
-        <v>0.05265968612728752</v>
+        <v>0.07127734140563424</v>
       </c>
       <c r="I48" t="n">
-        <v>1.4384</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6870413073882949</v>
+        <v>0.8941496966245824</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9727203076658079</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6787058458417362</v>
+        <v>0.6880207337121468</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8961856152837681</v>
+        <v>0.8535609756108887</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5631834751481696</v>
+        <v>0.630452659722336</v>
       </c>
       <c r="G49" t="n">
-        <v>0.342389310969008</v>
+        <v>0.3928255805390439</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1201417604598055</v>
+        <v>0.133860032142055</v>
       </c>
       <c r="I49" t="n">
-        <v>1.3808</v>
+        <v>0.86465</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8992166922097899</v>
+        <v>0.7604448172418916</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0.8169512195136109</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7029544612499066</v>
+        <v>0.5081548822799088</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8605704614030172</v>
+        <v>0.6012716478463599</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6481511855066969</v>
+        <v>0.6221152277577718</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4221094879588554</v>
+        <v>0.4248942062786311</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1793760565352623</v>
+        <v>0.1712529613983994</v>
       </c>
       <c r="I50" t="n">
         <v>0.996</v>
@@ -1901,112 +1901,112 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7719114613168923</v>
+        <v>0.6219637226856122</v>
       </c>
       <c r="C51" t="n">
-        <v>0.825713076753772</v>
+        <v>0.6736951241786507</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5316986149296994</v>
+        <v>0.3465942124950367</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6203576150158243</v>
+        <v>0.3840000044545793</v>
       </c>
       <c r="F51" t="n">
-        <v>0.4299826190939301</v>
+        <v>0.5412093333669156</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2416990738208694</v>
+        <v>0.3090555087077987</v>
       </c>
       <c r="H51" t="n">
-        <v>0.05265968612728752</v>
+        <v>0.07127734140563424</v>
       </c>
       <c r="I51" t="n">
-        <v>1.4384</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4064806896283842</v>
+        <v>0.652064115221259</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6904420847522702</v>
+        <v>0.9696713767109905</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3592871056500479</v>
+        <v>0.642797000174827</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6392490445045836</v>
+        <v>0.8845833461882578</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3982971350856508</v>
+        <v>0.5143491359200583</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1995474962115692</v>
+        <v>0.2686037148709174</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>0.01690467038709968</v>
       </c>
       <c r="I52" t="n">
-        <v>1.4384</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6696449121516482</v>
+        <v>0.8879526218903938</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9712039148606764</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6608461083590772</v>
+        <v>0.6697557050154773</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8904148982197957</v>
+        <v>0.8449876078528162</v>
       </c>
       <c r="F53" t="n">
-        <v>0.538902210266835</v>
+        <v>0.6088172707579886</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3058347888282197</v>
+        <v>0.3572781599450563</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0712331918575832</v>
+        <v>0.08315130538435744</v>
       </c>
       <c r="I53" t="n">
-        <v>1.3808</v>
+        <v>0.86465</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8936144632352766</v>
+        <v>0.7464199035366468</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0.8062345098160203</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6864426284829199</v>
+        <v>0.4793594905336336</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8528200092879009</v>
+        <v>0.5779278375960263</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6285930099871391</v>
+        <v>0.5999917184259999</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3899863612066321</v>
+        <v>0.3912242641990518</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1337601372520085</v>
+        <v>0.1227334279612909</v>
       </c>
       <c r="I54" t="n">
         <v>0.996</v>
@@ -2014,31 +2014,31 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7592327325850989</v>
+        <v>0.5998313433910263</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8160250116098767</v>
+        <v>0.6545913933709726</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5056672051082765</v>
+        <v>0.3083401464432995</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5992544818110785</v>
+        <v>0.347935884778741</v>
       </c>
       <c r="F55" t="n">
-        <v>0.620210573365408</v>
+        <v>0.5279757659553542</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4221814566842391</v>
+        <v>0.3845645135190039</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1709996848167337</v>
+        <v>0.1407496245066865</v>
       </c>
       <c r="I55" t="n">
-        <v>0.527</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="56">
@@ -2046,83 +2046,83 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6200516544117015</v>
+        <v>0.2240941134729892</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6720445859132576</v>
+        <v>0.2914911969477267</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3432892805726456</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3808841695045415</v>
+        <v>0.1322662460535382</v>
       </c>
       <c r="F56" t="n">
-        <v>0.538902210266835</v>
+        <v>0.6088172707579886</v>
       </c>
       <c r="G56" t="n">
-        <v>0.3058347888282197</v>
+        <v>0.3572781599450563</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0712331918575832</v>
+        <v>0.08315130538435744</v>
       </c>
       <c r="I56" t="n">
-        <v>1.3808</v>
+        <v>0.86465</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B57" t="n">
-        <v>0.65206402695872</v>
+        <v>0.8879526218903938</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9696714406065713</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6427969671440612</v>
+        <v>0.6697557050154773</v>
       </c>
       <c r="E57" t="n">
-        <v>0.88458298230834</v>
+        <v>0.8449876078528162</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5143634409177369</v>
+        <v>0.6088172707579886</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2688926034905503</v>
+        <v>0.3572781599450563</v>
       </c>
       <c r="H57" t="n">
-        <v>0.02180594455437285</v>
+        <v>0.08315130538435744</v>
       </c>
       <c r="I57" t="n">
-        <v>1.3808</v>
+        <v>0.86465</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8879528222409437</v>
+        <v>0.7464199035366468</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0.8062345098160203</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6697556866048863</v>
+        <v>0.4793594905336336</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8449873631002525</v>
+        <v>0.5779278375960263</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6088274186841695</v>
+        <v>0.5999917184259999</v>
       </c>
       <c r="G58" t="n">
-        <v>0.3575225665074274</v>
+        <v>0.3912242641990518</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08766045803804308</v>
+        <v>0.1227334279612909</v>
       </c>
       <c r="I58" t="n">
         <v>0.996</v>
@@ -2130,60 +2130,60 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7464195450716088</v>
+        <v>0.5998313433910263</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8062342038753162</v>
+        <v>0.6545913933709726</v>
       </c>
       <c r="D59" t="n">
-        <v>0.479359730412805</v>
+        <v>0.3083401464432995</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5779275484414488</v>
+        <v>0.347935884778741</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5999988843291069</v>
+        <v>0.5279757659553542</v>
       </c>
       <c r="G59" t="n">
-        <v>0.3914310252665075</v>
+        <v>0.3845645135190039</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1268818252703151</v>
+        <v>0.1407496245066865</v>
       </c>
       <c r="I59" t="n">
-        <v>0.527</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B60" t="n">
-        <v>0.59983150800337</v>
+        <v>0.2240941134729892</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6545914069081713</v>
+        <v>0.2914911969477267</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3083403538331925</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3479359730412812</v>
+        <v>0.1322662460535382</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5279809096754422</v>
+        <v>0.4149159031262635</v>
       </c>
       <c r="G60" t="n">
-        <v>0.3847394787703192</v>
+        <v>0.3457493954473932</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1445661570919927</v>
+        <v>0.1400709542304343</v>
       </c>
       <c r="I60" t="n">
-        <v>0.2838</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="61">
@@ -2191,25 +2191,25 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2240943555181125</v>
+        <v>0.2527380989109308</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2914911541701775</v>
+        <v>0.9048022141321898</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>0.1870256532872613</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1322662173546762</v>
+        <v>0.8491995238535979</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6088274186841695</v>
+        <v>0.5999917184259999</v>
       </c>
       <c r="G61" t="n">
-        <v>0.3575225665074274</v>
+        <v>0.3912242641990518</v>
       </c>
       <c r="H61" t="n">
-        <v>0.08766045803804308</v>
+        <v>0.1227334279612909</v>
       </c>
       <c r="I61" t="n">
         <v>0.996</v>
@@ -2217,28 +2217,28 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8879528222409437</v>
+        <v>0.6992898098492065</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0.7553276304554394</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6697556866048863</v>
+        <v>0.4490919995519913</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8449873631002525</v>
+        <v>0.5414365905092005</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6088274186841695</v>
+        <v>0.5621073241767014</v>
       </c>
       <c r="G62" t="n">
-        <v>0.3575225665074274</v>
+        <v>0.3665217661317613</v>
       </c>
       <c r="H62" t="n">
-        <v>0.08766045803804308</v>
+        <v>0.1149838517093865</v>
       </c>
       <c r="I62" t="n">
         <v>0.996</v>
@@ -2246,89 +2246,89 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7464195450716088</v>
+        <v>0.5619570754665855</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8062342038753162</v>
+        <v>0.6132594921845362</v>
       </c>
       <c r="D63" t="n">
-        <v>0.479359730412805</v>
+        <v>0.2888710782678442</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5779275484414488</v>
+        <v>0.3259666811587047</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5999988843291069</v>
+        <v>0.494638569028702</v>
       </c>
       <c r="G63" t="n">
-        <v>0.3914310252665075</v>
+        <v>0.3602825222897525</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1268818252703151</v>
+        <v>0.1318624780653316</v>
       </c>
       <c r="I63" t="n">
-        <v>0.527</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B64" t="n">
-        <v>0.59983150800337</v>
+        <v>0.2099444685978411</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6545914069081713</v>
+        <v>0.2730859971987412</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3083403538331925</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3479359730412812</v>
+        <v>0.123914753095415</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5279809096754422</v>
+        <v>0.3887174787620483</v>
       </c>
       <c r="G64" t="n">
-        <v>0.3847394787703192</v>
+        <v>0.3239182501060078</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1445661570919927</v>
+        <v>0.1312266600677379</v>
       </c>
       <c r="I64" t="n">
-        <v>0.2838</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2240943555181125</v>
+        <v>0.2367798290100091</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2914911541701775</v>
+        <v>0.8476716192504044</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>0.1752165676511216</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1322662173546762</v>
+        <v>0.7955797678303251</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4149195690123664</v>
+        <v>0.5049638470672704</v>
       </c>
       <c r="G65" t="n">
-        <v>0.3458974385525284</v>
+        <v>0.3964815605251338</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1435821619130074</v>
+        <v>0.1843749086887446</v>
       </c>
       <c r="I65" t="n">
-        <v>1.4</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="66">
@@ -2336,141 +2336,141 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>0.25273799494524</v>
+        <v>0.8011046064207356</v>
       </c>
       <c r="C66" t="n">
-        <v>0.90480202190396</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1870261162594775</v>
+        <v>0.5793210259399452</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8491996630160062</v>
+        <v>0.7395419472240923</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5999988843291069</v>
+        <v>0.494638569028702</v>
       </c>
       <c r="G66" t="n">
-        <v>0.3914310252665075</v>
+        <v>0.3602825222897525</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1268818252703151</v>
+        <v>0.1318624780653316</v>
       </c>
       <c r="I66" t="n">
-        <v>0.527</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6992896606156274</v>
+        <v>0.5619570754665855</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7553275453827945</v>
+        <v>0.6132594921845362</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4490923441199682</v>
+        <v>0.2888710782678442</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5414364640883976</v>
+        <v>0.3259666811587047</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5621141876074586</v>
+        <v>0.494638569028702</v>
       </c>
       <c r="G67" t="n">
-        <v>0.366715569843208</v>
+        <v>0.3602825222897525</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1188703445902637</v>
+        <v>0.1318624780653316</v>
       </c>
       <c r="I67" t="n">
-        <v>0.527</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5619573796369379</v>
+        <v>0.2099444685978411</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6132596685082869</v>
+        <v>0.2730859971987412</v>
       </c>
       <c r="D68" t="n">
-        <v>0.28887134964483</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.32596685082873</v>
+        <v>0.123914753095415</v>
       </c>
       <c r="F68" t="n">
-        <v>0.4946435199563932</v>
+        <v>0.3887174787620483</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3604465361486733</v>
+        <v>0.3239182501060078</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1354380650893413</v>
+        <v>0.1312266600677379</v>
       </c>
       <c r="I68" t="n">
-        <v>0.2838</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2099447513812152</v>
+        <v>0.2367798290100091</v>
       </c>
       <c r="C69" t="n">
-        <v>0.273086029992108</v>
+        <v>0.8476716192504044</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>0.1752165676511216</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1239147592738759</v>
+        <v>0.7955797678303251</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3887210169042455</v>
+        <v>0.5049638470672704</v>
       </c>
       <c r="G69" t="n">
-        <v>0.3240570320140894</v>
+        <v>0.3964815605251338</v>
       </c>
       <c r="H69" t="n">
-        <v>0.134516200624104</v>
+        <v>0.1843749086887446</v>
       </c>
       <c r="I69" t="n">
-        <v>1.4</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2367797947908445</v>
+        <v>0.8011046064207356</v>
       </c>
       <c r="C70" t="n">
-        <v>0.847671665351224</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1752170481452248</v>
+        <v>0.5793210259399452</v>
       </c>
       <c r="E70" t="n">
-        <v>0.7955801104972373</v>
+        <v>0.7395419472240923</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5049664722165284</v>
+        <v>0.5719861613977908</v>
       </c>
       <c r="G70" t="n">
-        <v>0.3965990440884196</v>
+        <v>0.4492600815557423</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1874013134139552</v>
+        <v>0.2287882717715728</v>
       </c>
       <c r="I70" t="n">
         <v>0.993</v>
@@ -2481,112 +2481,112 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8011049723756909</v>
+        <v>0.7411208166283491</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0.9044988745587657</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5789265982636154</v>
+        <v>0.590370703120766</v>
       </c>
       <c r="E71" t="n">
-        <v>0.7395422257300713</v>
+        <v>0.7679555748782729</v>
       </c>
       <c r="F71" t="n">
-        <v>0.4946435199563932</v>
+        <v>0.3887174787620483</v>
       </c>
       <c r="G71" t="n">
-        <v>0.3604465361486733</v>
+        <v>0.3239182501060078</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1354380650893413</v>
+        <v>0.1312266600677379</v>
       </c>
       <c r="I71" t="n">
-        <v>0.2838</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5619573796369379</v>
+        <v>0.2099444685978411</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6132596685082869</v>
+        <v>0.2730859971987412</v>
       </c>
       <c r="D72" t="n">
-        <v>0.28887134964483</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.32596685082873</v>
+        <v>0.123914753095415</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4946435199563932</v>
+        <v>0.3887174787620483</v>
       </c>
       <c r="G72" t="n">
-        <v>0.3604465361486733</v>
+        <v>0.3239182501060078</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1354380650893413</v>
+        <v>0.1312266600677379</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2838</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B73" t="n">
-        <v>0.2099447513812152</v>
+        <v>0.2367798290100091</v>
       </c>
       <c r="C73" t="n">
-        <v>0.273086029992108</v>
+        <v>0.8476716192504044</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>0.1752165676511216</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1239147592738759</v>
+        <v>0.7955797678303251</v>
       </c>
       <c r="F73" t="n">
-        <v>0.3887210169042455</v>
+        <v>0.5049638470672704</v>
       </c>
       <c r="G73" t="n">
-        <v>0.3240570320140894</v>
+        <v>0.3964815605251338</v>
       </c>
       <c r="H73" t="n">
-        <v>0.134516200624104</v>
+        <v>0.1843749086887446</v>
       </c>
       <c r="I73" t="n">
-        <v>1.4</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B74" t="n">
-        <v>0.2367797947908445</v>
+        <v>0.8011046064207356</v>
       </c>
       <c r="C74" t="n">
-        <v>0.847671665351224</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1752170481452248</v>
+        <v>0.5793210259399452</v>
       </c>
       <c r="E74" t="n">
-        <v>0.7955801104972373</v>
+        <v>0.7395419472240923</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5049664722165284</v>
+        <v>0.5719861613977908</v>
       </c>
       <c r="G74" t="n">
-        <v>0.3965990440884196</v>
+        <v>0.4492600815557423</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1874013134139552</v>
+        <v>0.2287882717715728</v>
       </c>
       <c r="I74" t="n">
         <v>0.993</v>
@@ -2594,31 +2594,31 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8011049723756909</v>
+        <v>0.7411208166283491</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0.9044988745587657</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5789265982636154</v>
+        <v>0.590370703120766</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7395422257300713</v>
+        <v>0.7679555748782729</v>
       </c>
       <c r="F75" t="n">
-        <v>0.571988116077541</v>
+        <v>0.6279774223922145</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4493595335717511</v>
+        <v>0.4982901574515163</v>
       </c>
       <c r="H75" t="n">
-        <v>0.231572586399244</v>
+        <v>0.2719216560201094</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.5760000000000001</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="76">
@@ -2626,83 +2626,83 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7411207576953432</v>
+        <v>0.7758481154128244</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9044909234412</v>
+        <v>0.970796937643691</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5903709550118392</v>
+        <v>0.7111283195699116</v>
       </c>
       <c r="E76" t="n">
-        <v>0.7679558011049726</v>
+        <v>0.9400156080453693</v>
       </c>
       <c r="F76" t="n">
-        <v>0.3887210169042455</v>
+        <v>0.5049638470672704</v>
       </c>
       <c r="G76" t="n">
-        <v>0.3240570320140894</v>
+        <v>0.3964815605251338</v>
       </c>
       <c r="H76" t="n">
-        <v>0.134516200624104</v>
+        <v>0.1843749086887446</v>
       </c>
       <c r="I76" t="n">
-        <v>1.4</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B77" t="n">
-        <v>0.2099447513812152</v>
+        <v>0.07464172890035285</v>
       </c>
       <c r="C77" t="n">
-        <v>0.273086029992108</v>
+        <v>0.815311056484508</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1239147592738759</v>
+        <v>0.7521528389731205</v>
       </c>
       <c r="F77" t="n">
-        <v>0.3887210169042455</v>
+        <v>0.3997986216540146</v>
       </c>
       <c r="G77" t="n">
-        <v>0.3240570320140894</v>
+        <v>0.268270414021142</v>
       </c>
       <c r="H77" t="n">
-        <v>0.134516200624104</v>
+        <v>0.0111039342916251</v>
       </c>
       <c r="I77" t="n">
-        <v>1.4</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2367797947908445</v>
+        <v>0.7588513714286966</v>
       </c>
       <c r="C78" t="n">
-        <v>0.847671665351224</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1752170481452248</v>
+        <v>0.4899522013166358</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7955801104972373</v>
+        <v>0.6842103726136251</v>
       </c>
       <c r="F78" t="n">
-        <v>0.5049664722165284</v>
+        <v>0.4810591219281888</v>
       </c>
       <c r="G78" t="n">
-        <v>0.3965990440884196</v>
+        <v>0.3322611768815234</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1874013134139552</v>
+        <v>0.06495244935738557</v>
       </c>
       <c r="I78" t="n">
         <v>0.993</v>
@@ -2710,60 +2710,60 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8011049723756909</v>
+        <v>0.6861246562210932</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0.8842106646477375</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5789265982636154</v>
+        <v>0.5033492662277881</v>
       </c>
       <c r="E79" t="n">
-        <v>0.7395422257300713</v>
+        <v>0.7186601766952397</v>
       </c>
       <c r="F79" t="n">
-        <v>0.571988116077541</v>
+        <v>0.548945137575918</v>
       </c>
       <c r="G79" t="n">
-        <v>0.4493595335717511</v>
+        <v>0.3917071768528644</v>
       </c>
       <c r="H79" t="n">
-        <v>0.231572586399244</v>
+        <v>0.1172490675444146</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.5760000000000001</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7411207576953432</v>
+        <v>0.7282294044767369</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9044909234412</v>
+        <v>0.9645930541146511</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5903709550118392</v>
+        <v>0.6497605685320103</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7679558011049726</v>
+        <v>0.9272725547071153</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6279788832282353</v>
+        <v>0.6570386853276891</v>
       </c>
       <c r="G80" t="n">
-        <v>0.498374343961477</v>
+        <v>0.4741018503689026</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2744832435757021</v>
+        <v>0.1820509465174303</v>
       </c>
       <c r="I80" t="n">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="81">
@@ -2771,25 +2771,25 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7758484609313336</v>
+        <v>0.9215311640552732</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9707971586424622</v>
+        <v>0.9406696196182676</v>
       </c>
       <c r="D81" t="n">
-        <v>0.71112865035517</v>
+        <v>0.3483258779458028</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9400157853196524</v>
+        <v>0.4631580714943312</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5049664722165284</v>
+        <v>0.4810591219281888</v>
       </c>
       <c r="G81" t="n">
-        <v>0.3965990440884196</v>
+        <v>0.3322611768815234</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1874013134139552</v>
+        <v>0.06495244935738557</v>
       </c>
       <c r="I81" t="n">
         <v>0.993</v>
@@ -2797,28 +2797,28 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B82" t="n">
-        <v>0.07464114832535894</v>
+        <v>0.7421001440990105</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8153110047846898</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>0.4545220739492529</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7521531100478467</v>
+        <v>0.6622742584916163</v>
       </c>
       <c r="F82" t="n">
-        <v>0.3998014548309489</v>
+        <v>0.4450112427810036</v>
       </c>
       <c r="G82" t="n">
-        <v>0.268412429531127</v>
+        <v>0.2858771485369156</v>
       </c>
       <c r="H82" t="n">
-        <v>0.01477269291433621</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0.993</v>
@@ -2826,89 +2826,89 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B83" t="n">
-        <v>0.7588516746411488</v>
+        <v>0.6643215165226678</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0.8761674363269698</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4894736842105271</v>
+        <v>0.4688497569659563</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6842105263157898</v>
+        <v>0.6991170950489004</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4810611895409038</v>
+        <v>0.5176129148575459</v>
       </c>
       <c r="G83" t="n">
-        <v>0.3323813674979987</v>
+        <v>0.3494525249233749</v>
       </c>
       <c r="H83" t="n">
-        <v>0.06832771958645195</v>
+        <v>0.05592936760391273</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.5760000000000001</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6861244019138756</v>
+        <v>0.709351042803665</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8842009569377993</v>
+        <v>0.96213353442719</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5033492822966511</v>
+        <v>0.625431421934332</v>
       </c>
       <c r="E84" t="n">
-        <v>0.71866028708134</v>
+        <v>0.9222205916234928</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5489466459810278</v>
+        <v>0.6332151082192454</v>
       </c>
       <c r="G84" t="n">
-        <v>0.391808893587743</v>
+        <v>0.4375706890310849</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1203543249860427</v>
+        <v>0.1252326655254787</v>
       </c>
       <c r="I84" t="n">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B85" t="n">
-        <v>0.7282296650717701</v>
+        <v>0.916080379130667</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9645933014354062</v>
+        <v>0.9365482746401962</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6497607655502396</v>
+        <v>0.3030577732583418</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9272727272727268</v>
+        <v>0.4258667079158462</v>
       </c>
       <c r="F85" t="n">
-        <v>0.6570398120643698</v>
+        <v>0.5739727081325606</v>
       </c>
       <c r="G85" t="n">
-        <v>0.4741879449238939</v>
+        <v>0.4357700765518172</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1849077971689771</v>
+        <v>0.1492833889167086</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="86">
@@ -2916,144 +2916,144 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9215311004784695</v>
+        <v>0.435077026655085</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9406698564593298</v>
+        <v>0.6141738451640416</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3483253588516746</v>
+        <v>0.1505690627517404</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4631578947368423</v>
+        <v>0.3470636705238133</v>
       </c>
       <c r="F86" t="n">
-        <v>0.4810611895409038</v>
+        <v>0.5176129148575459</v>
       </c>
       <c r="G86" t="n">
-        <v>0.3323813674979987</v>
+        <v>0.3494525249233749</v>
       </c>
       <c r="H86" t="n">
-        <v>0.06832771958645195</v>
+        <v>0.05592936760391273</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.5760000000000001</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7411661477662392</v>
+        <v>0.6881033803199276</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0.9099682558373443</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4520323009257483</v>
+        <v>0.4833870579981062</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6610509077891226</v>
+        <v>0.7245445669399511</v>
       </c>
       <c r="F87" t="n">
-        <v>0.4430028440593391</v>
+        <v>0.5344564010633294</v>
       </c>
       <c r="G87" t="n">
-        <v>0.2834190234728669</v>
+        <v>0.3583431012925802</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>0.05093817784482098</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.5760000000000001</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6631051447116123</v>
+        <v>0.7352625149030748</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8757083950047326</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4669255186138016</v>
+        <v>0.6473740332422385</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6980271723939455</v>
+        <v>0.958199430534908</v>
       </c>
       <c r="F88" t="n">
-        <v>0.515866937869226</v>
+        <v>0.6555258380552095</v>
       </c>
       <c r="G88" t="n">
-        <v>0.3472048925376476</v>
+        <v>0.450628690406784</v>
       </c>
       <c r="H88" t="n">
-        <v>0.05584217379151535</v>
+        <v>0.1235190780600275</v>
       </c>
       <c r="I88" t="n">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B89" t="n">
-        <v>0.7082983570063958</v>
+        <v>0.9517688253024363</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9619966169339315</v>
+        <v>0.973204721228684</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6240746431842996</v>
+        <v>0.3097541749052663</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9219389969453731</v>
+        <v>0.4383711859167783</v>
       </c>
       <c r="F89" t="n">
-        <v>0.631887526176696</v>
+        <v>0.593481651729944</v>
       </c>
       <c r="G89" t="n">
-        <v>0.4356255239849894</v>
+        <v>0.4487429204852444</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1251299196438236</v>
+        <v>0.1487072466885681</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9157762861779039</v>
+        <v>0.4480170937654857</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9363186554028043</v>
+        <v>0.6355840451646984</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3005323278920975</v>
+        <v>0.1500537246647728</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4237865432415079</v>
+        <v>0.3558412693739972</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5724301024809282</v>
+        <v>0.5255843996282454</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4338041423321457</v>
+        <v>0.4344503587758225</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1490224495316378</v>
+        <v>0.1652779685034023</v>
       </c>
       <c r="I90" t="n">
-        <v>0.999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="91">
@@ -3061,144 +3061,144 @@
         <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>0.433030609392714</v>
+        <v>0.3558412693739972</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6127763401106037</v>
+        <v>0.4287244603410576</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1474916771665805</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.3446984217256368</v>
+        <v>0.1489825022773697</v>
       </c>
       <c r="F91" t="n">
-        <v>0.515866937869226</v>
+        <v>0.6555258380552095</v>
       </c>
       <c r="G91" t="n">
-        <v>0.3472048925376476</v>
+        <v>0.450628690406784</v>
       </c>
       <c r="H91" t="n">
-        <v>0.05584217379151535</v>
+        <v>0.1235190780600275</v>
       </c>
       <c r="I91" t="n">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6881028938906756</v>
+        <v>0.7352625149030748</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9099571275455528</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>0.483386923901394</v>
+        <v>0.6473740332422385</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7245444801714905</v>
+        <v>0.958199430534908</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5344579260987935</v>
+        <v>0.6555258380552095</v>
       </c>
       <c r="G92" t="n">
-        <v>0.3584569065371829</v>
+        <v>0.450628690406784</v>
       </c>
       <c r="H92" t="n">
-        <v>0.05441615177965133</v>
+        <v>0.1235190780600275</v>
       </c>
       <c r="I92" t="n">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7352625937834942</v>
+        <v>0.9517688253024363</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0.973204721228684</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6473740621650598</v>
+        <v>0.3097541749052663</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9581993569131833</v>
+        <v>0.4383711859167783</v>
       </c>
       <c r="F93" t="n">
-        <v>0.6555269063314756</v>
+        <v>0.593481651729944</v>
       </c>
       <c r="G93" t="n">
-        <v>0.4507249758257977</v>
+        <v>0.4487429204852444</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1267188081903335</v>
+        <v>0.1487072466885681</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B94" t="n">
-        <v>0.951768488745982</v>
+        <v>0.4480170937654857</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9732047159699893</v>
+        <v>0.6355840451646984</v>
       </c>
       <c r="D94" t="n">
-        <v>0.309753483386924</v>
+        <v>0.1500537246647728</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4383708467309758</v>
+        <v>0.3558412693739972</v>
       </c>
       <c r="F94" t="n">
-        <v>0.5934823178741901</v>
+        <v>0.5255843996282454</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4488243405804401</v>
+        <v>0.4344503587758225</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1516509712735843</v>
+        <v>0.1652779685034023</v>
       </c>
       <c r="I94" t="n">
-        <v>0.999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B95" t="n">
-        <v>0.44801714898178</v>
+        <v>0.3558412693739972</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6355841371918551</v>
+        <v>0.4287244603410576</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1500535905680607</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3558413719185432</v>
+        <v>0.1489825022773697</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5255849047440049</v>
+        <v>0.4179838575279946</v>
       </c>
       <c r="G95" t="n">
-        <v>0.4345192684786097</v>
+        <v>0.3905322270068301</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1679862033251804</v>
+        <v>0.16397433120532</v>
       </c>
       <c r="I95" t="n">
-        <v>0.997</v>
+        <v>0.90655</v>
       </c>
     </row>
     <row r="96">
@@ -3206,144 +3206,144 @@
         <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3558413719185432</v>
+        <v>0.1371925141998296</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4281886387995719</v>
+        <v>0.5369776155407383</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>0.08467317904460046</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1489817792068597</v>
+        <v>0.535905575426322</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6555269063314756</v>
+        <v>0.593481651729944</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4507249758257977</v>
+        <v>0.4487429204852444</v>
       </c>
       <c r="H96" t="n">
-        <v>0.1267188081903335</v>
+        <v>0.1487072466885681</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B97" t="n">
-        <v>0.7352625937834942</v>
+        <v>0.9779739088203513</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6473740621650598</v>
+        <v>0.3182826471641009</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9581993569131833</v>
+        <v>0.450440874725031</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6555269063314756</v>
+        <v>0.6098220022819716</v>
       </c>
       <c r="G97" t="n">
-        <v>0.4507249758257977</v>
+        <v>0.4610981746149983</v>
       </c>
       <c r="H97" t="n">
-        <v>0.1267188081903335</v>
+        <v>0.1528016083818657</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B98" t="n">
-        <v>0.951768488745982</v>
+        <v>0.4603523636834171</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9732047159699893</v>
+        <v>0.6530836023506597</v>
       </c>
       <c r="D98" t="n">
-        <v>0.309753483386924</v>
+        <v>0.1541851589820978</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4383708467309758</v>
+        <v>0.3656386591761936</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5934823178741901</v>
+        <v>0.5400553328231783</v>
       </c>
       <c r="G98" t="n">
-        <v>0.4488243405804401</v>
+        <v>0.4464120953167214</v>
       </c>
       <c r="H98" t="n">
-        <v>0.1516509712735843</v>
+        <v>0.1698285724454118</v>
       </c>
       <c r="I98" t="n">
-        <v>0.999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B99" t="n">
-        <v>0.44801714898178</v>
+        <v>0.3656386591761936</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6355841371918551</v>
+        <v>0.4405285455251258</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1500535905680607</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3558413719185432</v>
+        <v>0.1530844425921787</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5255849047440049</v>
+        <v>0.4294922213286064</v>
       </c>
       <c r="G99" t="n">
-        <v>0.4345192684786097</v>
+        <v>0.4012847641283306</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1679862033251804</v>
+        <v>0.1684890420571534</v>
       </c>
       <c r="I99" t="n">
-        <v>0.997</v>
+        <v>0.90655</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B100" t="n">
-        <v>0.3558413719185432</v>
+        <v>0.1409698403709162</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4281886387995719</v>
+        <v>0.5517622385378453</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>0.08700448857019462</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1489817792068597</v>
+        <v>0.5506606819064072</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4179840117333924</v>
+        <v>0.4641117814936923</v>
       </c>
       <c r="G100" t="n">
-        <v>0.3905904239752639</v>
+        <v>0.4242656745557269</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1664658493957147</v>
+        <v>0.1990627732450929</v>
       </c>
       <c r="I100" t="n">
-        <v>0.998</v>
+        <v>0.7800499999999999</v>
       </c>
     </row>
     <row r="101">
@@ -3351,144 +3351,144 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>0.137191854233655</v>
+        <v>0.5297361473581966</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5369774919614154</v>
+        <v>0.77092495466897</v>
       </c>
       <c r="D101" t="n">
-        <v>0.08467309753483455</v>
+        <v>0.4240093972611487</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5359056806002145</v>
+        <v>0.6674013178347984</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5934823178741901</v>
+        <v>0.5400553328231783</v>
       </c>
       <c r="G101" t="n">
-        <v>0.4488243405804401</v>
+        <v>0.4464120953167214</v>
       </c>
       <c r="H101" t="n">
-        <v>0.1516509712735843</v>
+        <v>0.1698285724454118</v>
       </c>
       <c r="I101" t="n">
-        <v>0.999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9779735682819396</v>
+        <v>0.5971429007393974</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0.8471429007393974</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3182819383259913</v>
+        <v>0.2000002179827009</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4504405286343617</v>
+        <v>0.4742856706891741</v>
       </c>
       <c r="F102" t="n">
-        <v>0.6098226900623562</v>
+        <v>0.7005290587007583</v>
       </c>
       <c r="G102" t="n">
-        <v>0.4611818389444389</v>
+        <v>0.5790603775543985</v>
       </c>
       <c r="H102" t="n">
-        <v>0.1558263834782535</v>
+        <v>0.2202919641099632</v>
       </c>
       <c r="I102" t="n">
-        <v>0.999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4603524229074898</v>
+        <v>0.4742856706891741</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6530837004405295</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1541850220264324</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.3656387665198247</v>
+        <v>0.1985724312918527</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5400558547644896</v>
+        <v>0.5571128794410701</v>
       </c>
       <c r="G103" t="n">
-        <v>0.4464829047252674</v>
+        <v>0.5205237704370843</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1726113741215785</v>
+        <v>0.2185544014845147</v>
       </c>
       <c r="I103" t="n">
-        <v>0.997</v>
+        <v>0.90655</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B104" t="n">
-        <v>0.3656387665198247</v>
+        <v>0.1828580583844866</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4399779735682825</v>
+        <v>0.7157145908900669</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>0.1128572736467634</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1530837004405287</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F104" t="n">
-        <v>0.4294923821005012</v>
+        <v>0.602019403682397</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4013445656045388</v>
+        <v>0.5503333002599504</v>
       </c>
       <c r="H104" t="n">
-        <v>0.1710491602270945</v>
+        <v>0.2582129065086097</v>
       </c>
       <c r="I104" t="n">
-        <v>0.998</v>
+        <v>0.7800499999999999</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1409691629955949</v>
+        <v>0.6871435982840401</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5517621145374456</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>0.08700440528634432</v>
+        <v>0.5500008719308036</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5506607929515419</v>
+        <v>0.8657150268554688</v>
       </c>
       <c r="F105" t="n">
-        <v>0.4641119280579414</v>
+        <v>0.6773610103032743</v>
       </c>
       <c r="G105" t="n">
-        <v>0.4243162928886937</v>
+        <v>0.5988535658900308</v>
       </c>
       <c r="H105" t="n">
-        <v>0.2014180908450507</v>
+        <v>0.3068130761363587</v>
       </c>
       <c r="I105" t="n">
-        <v>0.92145</v>
+        <v>0.9955000000000001</v>
       </c>
     </row>
     <row r="106">
@@ -3496,144 +3496,144 @@
         <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5291850220264326</v>
+        <v>0.8271429879324776</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7709251101321587</v>
+        <v>0.8857149396623883</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4240088105726882</v>
+        <v>0.4357147216796875</v>
       </c>
       <c r="E106" t="n">
-        <v>0.6674008810572691</v>
+        <v>0.462857927594866</v>
       </c>
       <c r="F106" t="n">
-        <v>0.5400558547644896</v>
+        <v>0.5571128794410701</v>
       </c>
       <c r="G106" t="n">
-        <v>0.4464829047252674</v>
+        <v>0.5205237704370843</v>
       </c>
       <c r="H106" t="n">
-        <v>0.1726113741215785</v>
+        <v>0.2185544014845147</v>
       </c>
       <c r="I106" t="n">
-        <v>0.997</v>
+        <v>0.90655</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5971428571428581</v>
+        <v>0.5318061588487951</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8471428571428581</v>
+        <v>0.6183202698439662</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2000000000000008</v>
+        <v>0.1094139629692543</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4742857142857154</v>
+        <v>0.2862597976170254</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7005295944659379</v>
+        <v>0.6055709144494645</v>
       </c>
       <c r="G107" t="n">
-        <v>0.5791521107007753</v>
+        <v>0.5729851648631188</v>
       </c>
       <c r="H107" t="n">
-        <v>0.223901611003419</v>
+        <v>0.3040554612629748</v>
       </c>
       <c r="I107" t="n">
-        <v>0.997</v>
+        <v>0.90655</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4742857142857154</v>
+        <v>0.2722647965250309</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5707142857142864</v>
+        <v>0.7468193841151205</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>0.2099230750564197</v>
       </c>
       <c r="E108" t="n">
-        <v>0.1985714285714286</v>
+        <v>0.745546846562644</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5571129756389358</v>
+        <v>0.645564037910373</v>
       </c>
       <c r="G108" t="n">
-        <v>0.5206012365270303</v>
+        <v>0.599533115893815</v>
       </c>
       <c r="H108" t="n">
-        <v>0.2218751964088597</v>
+        <v>0.3393747720869474</v>
       </c>
       <c r="I108" t="n">
-        <v>0.998</v>
+        <v>0.7800499999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B109" t="n">
-        <v>0.182857142857143</v>
+        <v>0.7213744570360844</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7157142857142864</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1128571428571438</v>
+        <v>0.5992370598655633</v>
       </c>
       <c r="E109" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8804076779344318</v>
       </c>
       <c r="F109" t="n">
-        <v>0.6020194723951582</v>
+        <v>0.7126622207743896</v>
       </c>
       <c r="G109" t="n">
-        <v>0.5503988484899054</v>
+        <v>0.6427445869769873</v>
       </c>
       <c r="H109" t="n">
-        <v>0.2612680378390085</v>
+        <v>0.3826574045547464</v>
       </c>
       <c r="I109" t="n">
-        <v>0.92145</v>
+        <v>0.9955000000000001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6864285714285724</v>
+        <v>0.8460559586498095</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0.8982193210221068</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5500000000000013</v>
+        <v>0.4974554102259215</v>
       </c>
       <c r="E110" t="n">
-        <v>0.865714285714286</v>
+        <v>0.5216287704142299</v>
       </c>
       <c r="F110" t="n">
-        <v>0.6773608476291945</v>
+        <v>0.6580812349572003</v>
       </c>
       <c r="G110" t="n">
-        <v>0.5989089157551949</v>
+        <v>0.6241113844288707</v>
       </c>
       <c r="H110" t="n">
-        <v>0.3096237376690303</v>
+        <v>0.3937751138235048</v>
       </c>
       <c r="I110" t="n">
-        <v>0.998</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="111">
@@ -3641,144 +3641,144 @@
         <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>0.826428571428573</v>
+        <v>0.4669213035987284</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8857142857142861</v>
+        <v>0.488549588682084</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4357142857142853</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4628571428571441</v>
+        <v>0.1361323982625155</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5571129756389358</v>
+        <v>0.645564037910373</v>
       </c>
       <c r="G111" t="n">
-        <v>0.5206012365270303</v>
+        <v>0.599533115893815</v>
       </c>
       <c r="H111" t="n">
-        <v>0.2218751964088597</v>
+        <v>0.3393747720869474</v>
       </c>
       <c r="I111" t="n">
-        <v>0.998</v>
+        <v>0.7800499999999999</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5318066157760823</v>
+        <v>0.280503674586525</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6176844783715019</v>
+        <v>0.749685707211556</v>
       </c>
       <c r="D112" t="n">
-        <v>0.10941475826972</v>
+        <v>0.2188677398365869</v>
       </c>
       <c r="E112" t="n">
-        <v>0.2862595419847329</v>
+        <v>0.7484275763851435</v>
       </c>
       <c r="F112" t="n">
-        <v>0.6055713523501972</v>
+        <v>0.6495766989144317</v>
       </c>
       <c r="G112" t="n">
-        <v>0.573054536347228</v>
+        <v>0.6040669048462561</v>
       </c>
       <c r="H112" t="n">
-        <v>0.3070135336974577</v>
+        <v>0.3468538807945278</v>
       </c>
       <c r="I112" t="n">
-        <v>0.998</v>
+        <v>0.7800499999999999</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B113" t="n">
-        <v>0.2722646310432571</v>
+        <v>0.7245288487191249</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7468193384223925</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>0.2099236641221381</v>
+        <v>0.6037742005447102</v>
       </c>
       <c r="E113" t="n">
-        <v>0.7455470737913485</v>
+        <v>0.8817616134784102</v>
       </c>
       <c r="F113" t="n">
-        <v>0.6455644156190976</v>
+        <v>0.7159152459327111</v>
       </c>
       <c r="G113" t="n">
-        <v>0.5995918498001702</v>
+        <v>0.646789167712742</v>
       </c>
       <c r="H113" t="n">
-        <v>0.3420962169049694</v>
+        <v>0.3896464994092386</v>
       </c>
       <c r="I113" t="n">
-        <v>0.92145</v>
+        <v>0.9955000000000001</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B114" t="n">
-        <v>0.7207379134860059</v>
+        <v>0.8477987988737282</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0.8993716063576392</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5992366412213751</v>
+        <v>0.503144847229713</v>
       </c>
       <c r="E114" t="n">
-        <v>0.8804071246819342</v>
+        <v>0.5270445345683681</v>
       </c>
       <c r="F114" t="n">
-        <v>0.7126623324941935</v>
+        <v>0.661952185542898</v>
       </c>
       <c r="G114" t="n">
-        <v>0.6427941997819802</v>
+        <v>0.6283669164597612</v>
       </c>
       <c r="H114" t="n">
-        <v>0.3851610895271262</v>
+        <v>0.4006383422219687</v>
       </c>
       <c r="I114" t="n">
-        <v>0.998</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8454198473282456</v>
+        <v>0.4729564251042684</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8982188295165398</v>
+        <v>0.4943398507900985</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4974554707379131</v>
+        <v>0.01132125809243951</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5216284987277365</v>
+        <v>0.1459124663394823</v>
       </c>
       <c r="F115" t="n">
-        <v>0.6580812371323489</v>
+        <v>0.5145122657704942</v>
       </c>
       <c r="G115" t="n">
-        <v>0.6241533226967113</v>
+        <v>0.554143154902795</v>
       </c>
       <c r="H115" t="n">
-        <v>0.3960784822631757</v>
+        <v>0.3802602721513698</v>
       </c>
       <c r="I115" t="n">
-        <v>1.1872</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="116">
@@ -3786,144 +3786,144 @@
         <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4669211195928756</v>
+        <v>0.1899374485375549</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4885496183206112</v>
+        <v>0.3899370646685003</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1361323155216294</v>
+        <v>0.2855342785469021</v>
       </c>
       <c r="F116" t="n">
-        <v>0.6455644156190976</v>
+        <v>0.7159152459327111</v>
       </c>
       <c r="G116" t="n">
-        <v>0.5995918498001702</v>
+        <v>0.646789167712742</v>
       </c>
       <c r="H116" t="n">
-        <v>0.3420962169049694</v>
+        <v>0.3896464994092386</v>
       </c>
       <c r="I116" t="n">
-        <v>0.92145</v>
+        <v>0.9955000000000001</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B117" t="n">
-        <v>0.2805031446540884</v>
+        <v>0.7245288487191249</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7496855345911957</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>0.2188679245283029</v>
+        <v>0.6037742005447102</v>
       </c>
       <c r="E117" t="n">
-        <v>0.7484276729559749</v>
+        <v>0.8817616134784102</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6495768939328438</v>
+        <v>0.7159152459327111</v>
       </c>
       <c r="G117" t="n">
-        <v>0.6041247722552627</v>
+        <v>0.646789167712742</v>
       </c>
       <c r="H117" t="n">
-        <v>0.3495441842607624</v>
+        <v>0.3896464994092386</v>
       </c>
       <c r="I117" t="n">
-        <v>0.92145</v>
+        <v>0.9955000000000001</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B118" t="n">
-        <v>0.7238993710691833</v>
+        <v>0.8477987988737282</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0.8993716063576392</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6037735849056616</v>
+        <v>0.503144847229713</v>
       </c>
       <c r="E118" t="n">
-        <v>0.8817610062893085</v>
+        <v>0.5270445345683681</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7159152117489763</v>
+        <v>0.661952185542898</v>
       </c>
       <c r="G118" t="n">
-        <v>0.6468380390297315</v>
+        <v>0.6283669164597612</v>
       </c>
       <c r="H118" t="n">
-        <v>0.3921215300230458</v>
+        <v>0.4006383422219687</v>
       </c>
       <c r="I118" t="n">
-        <v>0.998</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8471698113207561</v>
+        <v>0.4729564251042684</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8993710691823903</v>
+        <v>0.4943398507900985</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5031446540880501</v>
+        <v>0.01132125809243951</v>
       </c>
       <c r="E119" t="n">
-        <v>0.527044025157234</v>
+        <v>0.1459124663394823</v>
       </c>
       <c r="F119" t="n">
-        <v>0.6619520155799073</v>
+        <v>0.5145122657704942</v>
       </c>
       <c r="G119" t="n">
-        <v>0.6284081907416544</v>
+        <v>0.554143154902795</v>
       </c>
       <c r="H119" t="n">
-        <v>0.4029153296337815</v>
+        <v>0.3802602721513698</v>
       </c>
       <c r="I119" t="n">
-        <v>1.1872</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B120" t="n">
-        <v>0.4729559748427677</v>
+        <v>0.1899374485375549</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4943396226415101</v>
+        <v>0.3899370646685003</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01132075471698156</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1459119496855359</v>
+        <v>0.2855342785469021</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5145119967529443</v>
+        <v>0.4490899837066116</v>
       </c>
       <c r="G120" t="n">
-        <v>0.5541779998099438</v>
+        <v>0.5128187123865032</v>
       </c>
       <c r="H120" t="n">
-        <v>0.3823550592379223</v>
+        <v>0.3726821926630123</v>
       </c>
       <c r="I120" t="n">
-        <v>0.5188999999999999</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="121">
@@ -3931,144 +3931,144 @@
         <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1899371069182396</v>
+        <v>0.3849055010354868</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3899371069182399</v>
+        <v>0.5157232764759285</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>0.1308177754404418</v>
       </c>
       <c r="E121" t="n">
-        <v>0.2855345911949697</v>
+        <v>0.3333336532242122</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7159152117489763</v>
+        <v>0.661952185542898</v>
       </c>
       <c r="G121" t="n">
-        <v>0.6468380390297315</v>
+        <v>0.6283669164597612</v>
       </c>
       <c r="H121" t="n">
-        <v>0.3921215300230458</v>
+        <v>0.4006383422219687</v>
       </c>
       <c r="I121" t="n">
-        <v>0.998</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7238993710691833</v>
+        <v>0.9467528028099935</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6037735849056616</v>
+        <v>0.5909091359468123</v>
       </c>
       <c r="E122" t="n">
-        <v>0.8817610062893085</v>
+        <v>0.6155847630182659</v>
       </c>
       <c r="F122" t="n">
-        <v>0.7159152117489763</v>
+        <v>0.7548723962564284</v>
       </c>
       <c r="G122" t="n">
-        <v>0.6468380390297315</v>
+        <v>0.7201967302844507</v>
       </c>
       <c r="H122" t="n">
-        <v>0.3921215300230458</v>
+        <v>0.485074601204671</v>
       </c>
       <c r="I122" t="n">
-        <v>0.998</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8471698113207561</v>
+        <v>0.5597406007401499</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8993710691823903</v>
+        <v>0.5818182718936245</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5031446540880501</v>
+        <v>0.08311774526754884</v>
       </c>
       <c r="E123" t="n">
-        <v>0.527044025157234</v>
+        <v>0.2220786619833441</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6619520155799073</v>
+        <v>0.602645615035548</v>
       </c>
       <c r="G123" t="n">
-        <v>0.6284081907416544</v>
+        <v>0.6435631813150494</v>
       </c>
       <c r="H123" t="n">
-        <v>0.4029153296337815</v>
+        <v>0.4640349260669649</v>
       </c>
       <c r="I123" t="n">
-        <v>1.1872</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4729559748427677</v>
+        <v>0.2675329822492829</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4943396226415101</v>
+        <v>0.4740258903844916</v>
       </c>
       <c r="D124" t="n">
-        <v>0.01132075471698156</v>
+        <v>0.07142892529638198</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1459119496855359</v>
+        <v>0.3662335088753585</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5145119967529443</v>
+        <v>0.5350992989897804</v>
       </c>
       <c r="G124" t="n">
-        <v>0.5541779998099438</v>
+        <v>0.6008970778627887</v>
       </c>
       <c r="H124" t="n">
-        <v>0.3823550592379223</v>
+        <v>0.4562108126916363</v>
       </c>
       <c r="I124" t="n">
-        <v>0.5188999999999999</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1899371069182396</v>
+        <v>0.4688309693784029</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3899371069182399</v>
+        <v>0.6038959430470991</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>0.2064938989650782</v>
       </c>
       <c r="E125" t="n">
-        <v>0.2855345911949697</v>
+        <v>0.415584763018266</v>
       </c>
       <c r="F125" t="n">
-        <v>0.4490898808792376</v>
+        <v>0.5009522887122043</v>
       </c>
       <c r="G125" t="n">
-        <v>0.5128482446384093</v>
+        <v>0.5723874909636313</v>
       </c>
       <c r="H125" t="n">
-        <v>0.3746094217944866</v>
+        <v>0.452960728717766</v>
       </c>
       <c r="I125" t="n">
-        <v>0.985</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="126">
@@ -4076,144 +4076,144 @@
         <v>0</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3849056603773586</v>
+        <v>0.3025974605030443</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5150943396226429</v>
+        <v>0.471428925296382</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1308176100628938</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3333333333333339</v>
+        <v>0.2935065964498566</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6619520155799073</v>
+        <v>0.602645615035548</v>
       </c>
       <c r="G126" t="n">
-        <v>0.6284081907416544</v>
+        <v>0.6435631813150494</v>
       </c>
       <c r="H126" t="n">
-        <v>0.4029153296337815</v>
+        <v>0.4640349260669649</v>
       </c>
       <c r="I126" t="n">
-        <v>1.1872</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9461038961038971</v>
+        <v>0.8697523677417073</v>
       </c>
       <c r="C127" t="n">
+        <v>0.9040577347895259</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.1291524246270693</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.3450767048692115</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.936420280918043</v>
+      </c>
+      <c r="G127" t="n">
         <v>1</v>
       </c>
-      <c r="D127" t="n">
-        <v>0.5909090909090903</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.6155844155844166</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.7548725355662675</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.7202396255059934</v>
-      </c>
       <c r="H127" t="n">
-        <v>0.4874255676089039</v>
+        <v>0.7210402017075642</v>
       </c>
       <c r="I127" t="n">
-        <v>1.1872</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B128" t="n">
-        <v>0.5597402597402599</v>
+        <v>0.4157058545558948</v>
       </c>
       <c r="C128" t="n">
-        <v>0.5818181818181821</v>
+        <v>0.7365646515325389</v>
       </c>
       <c r="D128" t="n">
-        <v>0.08311688311688316</v>
+        <v>0.1109897635076403</v>
       </c>
       <c r="E128" t="n">
-        <v>0.222077922077923</v>
+        <v>0.5690715682755519</v>
       </c>
       <c r="F128" t="n">
-        <v>0.6026455031410265</v>
+        <v>0.8314635058773324</v>
       </c>
       <c r="G128" t="n">
-        <v>0.6435993634401362</v>
+        <v>0.9337033181962379</v>
       </c>
       <c r="H128" t="n">
-        <v>0.4661977559664259</v>
+        <v>0.7088827110330029</v>
       </c>
       <c r="I128" t="n">
-        <v>0.5188999999999999</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B129" t="n">
-        <v>0.2675324675324677</v>
+        <v>0.7284925287683475</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4740259740259746</v>
+        <v>0.9383631018373445</v>
       </c>
       <c r="D129" t="n">
-        <v>0.07142857142857104</v>
+        <v>0.3208603365766373</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3662337662337671</v>
+        <v>0.6457559647353737</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5350992925960956</v>
+        <v>0.7784042084082006</v>
       </c>
       <c r="G129" t="n">
-        <v>0.6009277331006949</v>
+        <v>0.8894037253561047</v>
       </c>
       <c r="H129" t="n">
-        <v>0.4582006367878137</v>
+        <v>0.7038325713291916</v>
       </c>
       <c r="I129" t="n">
-        <v>0.985</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4688311688311686</v>
+        <v>0.4701907587141953</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6032467532467544</v>
+        <v>0.7325293599504398</v>
       </c>
       <c r="D130" t="n">
-        <v>0.2064935064935069</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0.4155844155844158</v>
+        <v>0.4560649287768586</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5009521848784723</v>
+        <v>0.6863072713706735</v>
       </c>
       <c r="G130" t="n">
-        <v>0.5724133765597287</v>
+        <v>0.8227362181900657</v>
       </c>
       <c r="H130" t="n">
-        <v>0.4547913390915424</v>
+        <v>0.6840111599250048</v>
       </c>
       <c r="I130" t="n">
-        <v>-1.40135</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="131">
@@ -4221,144 +4221,144 @@
         <v>0</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3025974025974023</v>
+        <v>0.3228787521676834</v>
       </c>
       <c r="C131" t="n">
-        <v>0.4714285714285725</v>
+        <v>0.6275933036159447</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>0.1553856689106964</v>
       </c>
       <c r="E131" t="n">
-        <v>0.293506493506494</v>
+        <v>0.3228787521676834</v>
       </c>
       <c r="F131" t="n">
-        <v>0.6026455031410265</v>
+        <v>0.8314635058773324</v>
       </c>
       <c r="G131" t="n">
-        <v>0.6435993634401362</v>
+        <v>0.9337033181962379</v>
       </c>
       <c r="H131" t="n">
-        <v>0.4661977559664259</v>
+        <v>0.7088827110330029</v>
       </c>
       <c r="I131" t="n">
-        <v>0.5188999999999999</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8697029418244965</v>
+        <v>0.4430117230120512</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9040067701563215</v>
+        <v>0.7849463071281492</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1291438243080459</v>
+        <v>0.1182801873713053</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3450561555730615</v>
+        <v>0.6064513482694406</v>
       </c>
       <c r="F132" t="n">
-        <v>0.936367463012696</v>
+        <v>0.886078645088773</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0.9950341358990111</v>
       </c>
       <c r="H132" t="n">
-        <v>0.7243601881060419</v>
+        <v>0.75544606309113</v>
       </c>
       <c r="I132" t="n">
-        <v>0.5188999999999999</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4156816844915229</v>
+        <v>0.7763439625257389</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7365233730068249</v>
+        <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1109829740147263</v>
+        <v>0.3419362248455663</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5690399758573284</v>
+        <v>0.6881728016276036</v>
       </c>
       <c r="F133" t="n">
-        <v>0.8314167523968772</v>
+        <v>0.8295341183855809</v>
       </c>
       <c r="G133" t="n">
-        <v>0.9336984578242044</v>
+        <v>0.9478246998572559</v>
       </c>
       <c r="H133" t="n">
-        <v>0.7119345711261456</v>
+        <v>0.7500642021740468</v>
       </c>
       <c r="I133" t="n">
-        <v>0.985</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7284518839875708</v>
+        <v>0.5010754981664848</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9373016623607409</v>
+        <v>0.7806459551916782</v>
       </c>
       <c r="D134" t="n">
-        <v>0.320841688515302</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0.6457191215402297</v>
+        <v>0.486021805294634</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7783602864378342</v>
+        <v>0.7313877432167381</v>
       </c>
       <c r="G134" t="n">
-        <v>0.8893939445497465</v>
+        <v>0.8767781006937745</v>
       </c>
       <c r="H134" t="n">
-        <v>0.7066373351592731</v>
+        <v>0.7289408104236936</v>
       </c>
       <c r="I134" t="n">
-        <v>-1.40135</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4701642353714789</v>
+        <v>0.344087221178536</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7324876284971993</v>
+        <v>0.6688171160898135</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>0.1655922623198274</v>
       </c>
       <c r="E135" t="n">
-        <v>0.4560391295877878</v>
+        <v>0.344087221178536</v>
       </c>
       <c r="F135" t="n">
-        <v>0.6862685273378222</v>
+        <v>0.6207304512058223</v>
       </c>
       <c r="G135" t="n">
-        <v>0.8227239730171362</v>
+        <v>0.7948256576914303</v>
       </c>
       <c r="H135" t="n">
-        <v>0.6865894787135552</v>
+        <v>0.6981525232840808</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0.9964999999999999</v>
       </c>
     </row>
     <row r="136">
@@ -4366,144 +4366,144 @@
         <v>0</v>
       </c>
       <c r="B136" t="n">
-        <v>0.3228595607701162</v>
+        <v>0.4731191087557528</v>
       </c>
       <c r="C136" t="n">
-        <v>0.62755827124691</v>
+        <v>0.9161291910383357</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1553761636206197</v>
+        <v>0.3225805393077762</v>
       </c>
       <c r="E136" t="n">
-        <v>0.3228595607701162</v>
+        <v>0.6623657678203729</v>
       </c>
       <c r="F136" t="n">
-        <v>0.8314167523968772</v>
+        <v>0.8295341183855809</v>
       </c>
       <c r="G136" t="n">
-        <v>0.9336984578242044</v>
+        <v>0.9478246998572559</v>
       </c>
       <c r="H136" t="n">
-        <v>0.7119345711261456</v>
+        <v>0.7500642021740468</v>
       </c>
       <c r="I136" t="n">
-        <v>0.985</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B137" t="n">
-        <v>0.4434876210979543</v>
+        <v>0.7763439625257389</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7857911733046281</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1184068891280939</v>
+        <v>0.3419362248455663</v>
       </c>
       <c r="E137" t="n">
-        <v>0.6071044133476859</v>
+        <v>0.6881728016276036</v>
       </c>
       <c r="F137" t="n">
-        <v>0.8870321965532676</v>
+        <v>0.8295341183855809</v>
       </c>
       <c r="G137" t="n">
-        <v>0.996155768541516</v>
+        <v>0.9478246998572559</v>
       </c>
       <c r="H137" t="n">
-        <v>0.7595575679797975</v>
+        <v>0.7500642021740468</v>
       </c>
       <c r="I137" t="n">
-        <v>0.985</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B138" t="n">
-        <v>0.77717976318622</v>
+        <v>0.5010754981664848</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0.7806459551916782</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3423035522066738</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>0.6889128094725502</v>
+        <v>0.486021805294634</v>
       </c>
       <c r="F138" t="n">
-        <v>0.8304266573873474</v>
+        <v>0.7313877432167381</v>
       </c>
       <c r="G138" t="n">
-        <v>0.9488876209924442</v>
+        <v>0.8767781006937745</v>
       </c>
       <c r="H138" t="n">
-        <v>0.7539059872992185</v>
+        <v>0.7289408104236936</v>
       </c>
       <c r="I138" t="n">
-        <v>-1.40135</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.5016146393971999</v>
+        <v>0.344087221178536</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7814854682454255</v>
+        <v>0.6688171160898135</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>0.1655922623198274</v>
       </c>
       <c r="E139" t="n">
-        <v>0.4865446716899893</v>
+        <v>0.344087221178536</v>
       </c>
       <c r="F139" t="n">
-        <v>0.7321746614738178</v>
+        <v>0.6207304512058223</v>
       </c>
       <c r="G139" t="n">
-        <v>0.8777579364843727</v>
+        <v>0.7948256576914303</v>
       </c>
       <c r="H139" t="n">
-        <v>0.7325170820504812</v>
+        <v>0.6981525232840808</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0.9964999999999999</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B140" t="n">
-        <v>0.3444564047362766</v>
+        <v>0.4731191087557528</v>
       </c>
       <c r="C140" t="n">
-        <v>0.669537136706134</v>
+        <v>0.9161291910383357</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1657696447793345</v>
+        <v>0.3225805393077762</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3444564047362766</v>
+        <v>0.6623657678203729</v>
       </c>
       <c r="F140" t="n">
-        <v>0.6213980166916633</v>
+        <v>0.6326262559528358</v>
       </c>
       <c r="G140" t="n">
-        <v>0.7957115469846666</v>
+        <v>0.774447213095882</v>
       </c>
       <c r="H140" t="n">
-        <v>0.7014722278653461</v>
+        <v>0.6952895828469833</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1.0742</v>
       </c>
     </row>
     <row r="141">
@@ -4511,28 +4511,28 @@
         <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>0.4736275565123785</v>
+        <v>0.7225805393077762</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9171151776103328</v>
+        <v>0.8129043372683495</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3229278794402576</v>
+        <v>0.5580645955191679</v>
       </c>
       <c r="E141" t="n">
-        <v>0.6630785791173286</v>
+        <v>0.6623657678203729</v>
       </c>
       <c r="F141" t="n">
-        <v>0.6213980166916633</v>
+        <v>0.6326262559528358</v>
       </c>
       <c r="G141" t="n">
-        <v>0.7957115469846666</v>
+        <v>0.774447213095882</v>
       </c>
       <c r="H141" t="n">
-        <v>0.7014722278653461</v>
+        <v>0.6952895828469833</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1.0742</v>
       </c>
     </row>
   </sheetData>
